--- a/AAII_Financials/Quarterly/MKKGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MKKGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>MKKGY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5686900</v>
+        <v>5395000</v>
       </c>
       <c r="E8" s="3">
-        <v>5425100</v>
+        <v>5410600</v>
       </c>
       <c r="F8" s="3">
-        <v>5312700</v>
+        <v>5161500</v>
       </c>
       <c r="G8" s="3">
-        <v>5052000</v>
+        <v>5054600</v>
       </c>
       <c r="H8" s="3">
-        <v>5016000</v>
+        <v>4806500</v>
       </c>
       <c r="I8" s="3">
-        <v>4851300</v>
+        <v>4772300</v>
       </c>
       <c r="J8" s="3">
+        <v>4615500</v>
+      </c>
+      <c r="K8" s="3">
         <v>4493500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4767300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2137100</v>
+        <v>2062300</v>
       </c>
       <c r="E9" s="3">
-        <v>2028000</v>
+        <v>2033200</v>
       </c>
       <c r="F9" s="3">
-        <v>1977800</v>
+        <v>1929500</v>
       </c>
       <c r="G9" s="3">
-        <v>1877500</v>
+        <v>1881700</v>
       </c>
       <c r="H9" s="3">
-        <v>1958200</v>
+        <v>1786200</v>
       </c>
       <c r="I9" s="3">
-        <v>1937500</v>
+        <v>1863000</v>
       </c>
       <c r="J9" s="3">
+        <v>1843300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1756400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1804400</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3549800</v>
+        <v>3332700</v>
       </c>
       <c r="E10" s="3">
-        <v>3397100</v>
+        <v>3377300</v>
       </c>
       <c r="F10" s="3">
-        <v>3334900</v>
+        <v>3232000</v>
       </c>
       <c r="G10" s="3">
-        <v>3174500</v>
+        <v>3172900</v>
       </c>
       <c r="H10" s="3">
-        <v>3057800</v>
+        <v>3020300</v>
       </c>
       <c r="I10" s="3">
-        <v>2913800</v>
+        <v>2909200</v>
       </c>
       <c r="J10" s="3">
+        <v>2772200</v>
+      </c>
+      <c r="K10" s="3">
         <v>2737100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2962900</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>643600</v>
+        <v>608200</v>
       </c>
       <c r="E12" s="3">
-        <v>720000</v>
+        <v>612400</v>
       </c>
       <c r="F12" s="3">
-        <v>638200</v>
+        <v>685000</v>
       </c>
       <c r="G12" s="3">
-        <v>626200</v>
+        <v>607200</v>
       </c>
       <c r="H12" s="3">
-        <v>717800</v>
+        <v>595800</v>
       </c>
       <c r="I12" s="3">
-        <v>579300</v>
+        <v>682900</v>
       </c>
       <c r="J12" s="3">
+        <v>551100</v>
+      </c>
+      <c r="K12" s="3">
         <v>567300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>631600</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,37 +887,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I14" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="3">
+        <v>5500</v>
+      </c>
+      <c r="L14" s="3">
         <v>-6500</v>
       </c>
-      <c r="E14" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>6500</v>
-      </c>
-      <c r="H14" s="3">
-        <v>6500</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>5500</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-6500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4553500</v>
+        <v>4177500</v>
       </c>
       <c r="E17" s="3">
-        <v>4282900</v>
+        <v>4332200</v>
       </c>
       <c r="F17" s="3">
-        <v>4168400</v>
+        <v>4074800</v>
       </c>
       <c r="G17" s="3">
-        <v>3914200</v>
+        <v>3965800</v>
       </c>
       <c r="H17" s="3">
-        <v>4349500</v>
+        <v>3724000</v>
       </c>
       <c r="I17" s="3">
-        <v>3578200</v>
+        <v>4138100</v>
       </c>
       <c r="J17" s="3">
+        <v>3404300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3957800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3986200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1133500</v>
+        <v>1217500</v>
       </c>
       <c r="E18" s="3">
-        <v>1142200</v>
+        <v>1078400</v>
       </c>
       <c r="F18" s="3">
-        <v>1144400</v>
+        <v>1086700</v>
       </c>
       <c r="G18" s="3">
-        <v>1137800</v>
+        <v>1088800</v>
       </c>
       <c r="H18" s="3">
-        <v>666500</v>
+        <v>1082500</v>
       </c>
       <c r="I18" s="3">
-        <v>1273100</v>
+        <v>634200</v>
       </c>
       <c r="J18" s="3">
+        <v>1211200</v>
+      </c>
+      <c r="K18" s="3">
         <v>535600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>781100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1009,54 +1042,58 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-51300</v>
+        <v>-35300</v>
       </c>
       <c r="E20" s="3">
-        <v>-58900</v>
+        <v>-48800</v>
       </c>
       <c r="F20" s="3">
-        <v>-102500</v>
+        <v>-56000</v>
       </c>
       <c r="G20" s="3">
-        <v>-64400</v>
+        <v>-97600</v>
       </c>
       <c r="H20" s="3">
-        <v>-56700</v>
+        <v>-61200</v>
       </c>
       <c r="I20" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-105900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-111300</v>
       </c>
-      <c r="J20" s="3">
-        <v>-111300</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-108000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1600400</v>
+        <v>1628500</v>
       </c>
       <c r="E21" s="3">
-        <v>1567600</v>
+        <v>1522600</v>
       </c>
       <c r="F21" s="3">
-        <v>1498900</v>
+        <v>1491500</v>
       </c>
       <c r="G21" s="3">
-        <v>1536000</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>16</v>
+        <v>1426100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1461400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>16</v>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,66 +1136,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1082200</v>
+        <v>1182200</v>
       </c>
       <c r="E23" s="3">
-        <v>1083300</v>
+        <v>1029600</v>
       </c>
       <c r="F23" s="3">
-        <v>1041800</v>
+        <v>1030600</v>
       </c>
       <c r="G23" s="3">
-        <v>1073500</v>
+        <v>991200</v>
       </c>
       <c r="H23" s="3">
-        <v>609800</v>
+        <v>1021300</v>
       </c>
       <c r="I23" s="3">
-        <v>1161800</v>
+        <v>580200</v>
       </c>
       <c r="J23" s="3">
+        <v>1105400</v>
+      </c>
+      <c r="K23" s="3">
         <v>424400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>673100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>202900</v>
+        <v>264700</v>
       </c>
       <c r="E24" s="3">
-        <v>249800</v>
+        <v>193000</v>
       </c>
       <c r="F24" s="3">
-        <v>226900</v>
+        <v>237700</v>
       </c>
       <c r="G24" s="3">
-        <v>257500</v>
+        <v>215900</v>
       </c>
       <c r="H24" s="3">
-        <v>129800</v>
+        <v>244900</v>
       </c>
       <c r="I24" s="3">
-        <v>281500</v>
+        <v>123500</v>
       </c>
       <c r="J24" s="3">
+        <v>267800</v>
+      </c>
+      <c r="K24" s="3">
         <v>109100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>173500</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>879300</v>
+        <v>917500</v>
       </c>
       <c r="E26" s="3">
-        <v>833500</v>
+        <v>836500</v>
       </c>
       <c r="F26" s="3">
-        <v>814900</v>
+        <v>793000</v>
       </c>
       <c r="G26" s="3">
-        <v>816000</v>
+        <v>775300</v>
       </c>
       <c r="H26" s="3">
-        <v>480000</v>
+        <v>776300</v>
       </c>
       <c r="I26" s="3">
-        <v>880400</v>
+        <v>456700</v>
       </c>
       <c r="J26" s="3">
+        <v>837600</v>
+      </c>
+      <c r="K26" s="3">
         <v>315300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>499600</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>874900</v>
+        <v>913400</v>
       </c>
       <c r="E27" s="3">
-        <v>830200</v>
+        <v>832400</v>
       </c>
       <c r="F27" s="3">
-        <v>812700</v>
+        <v>789800</v>
       </c>
       <c r="G27" s="3">
-        <v>814900</v>
+        <v>773200</v>
       </c>
       <c r="H27" s="3">
-        <v>475600</v>
+        <v>775300</v>
       </c>
       <c r="I27" s="3">
-        <v>878200</v>
+        <v>452500</v>
       </c>
       <c r="J27" s="3">
+        <v>835500</v>
+      </c>
+      <c r="K27" s="3">
         <v>316400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1287,8 +1348,8 @@
       <c r="G29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1296,11 +1357,14 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>51300</v>
+        <v>35300</v>
       </c>
       <c r="E32" s="3">
-        <v>58900</v>
+        <v>48800</v>
       </c>
       <c r="F32" s="3">
-        <v>102500</v>
+        <v>56000</v>
       </c>
       <c r="G32" s="3">
-        <v>64400</v>
+        <v>97600</v>
       </c>
       <c r="H32" s="3">
-        <v>56700</v>
+        <v>61200</v>
       </c>
       <c r="I32" s="3">
+        <v>54000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>105900</v>
+      </c>
+      <c r="K32" s="3">
         <v>111300</v>
       </c>
-      <c r="J32" s="3">
-        <v>111300</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>874900</v>
+        <v>913400</v>
       </c>
       <c r="E33" s="3">
-        <v>830200</v>
+        <v>832400</v>
       </c>
       <c r="F33" s="3">
-        <v>812700</v>
+        <v>789800</v>
       </c>
       <c r="G33" s="3">
-        <v>814900</v>
+        <v>773200</v>
       </c>
       <c r="H33" s="3">
-        <v>475600</v>
+        <v>775300</v>
       </c>
       <c r="I33" s="3">
-        <v>878200</v>
+        <v>452500</v>
       </c>
       <c r="J33" s="3">
+        <v>835500</v>
+      </c>
+      <c r="K33" s="3">
         <v>316400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>874900</v>
+        <v>913400</v>
       </c>
       <c r="E35" s="3">
-        <v>830200</v>
+        <v>832400</v>
       </c>
       <c r="F35" s="3">
-        <v>812700</v>
+        <v>789800</v>
       </c>
       <c r="G35" s="3">
-        <v>814900</v>
+        <v>773200</v>
       </c>
       <c r="H35" s="3">
-        <v>475600</v>
+        <v>775300</v>
       </c>
       <c r="I35" s="3">
-        <v>878200</v>
+        <v>452500</v>
       </c>
       <c r="J35" s="3">
+        <v>835500</v>
+      </c>
+      <c r="K35" s="3">
         <v>316400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,269 +1619,297 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2071600</v>
+        <v>1389700</v>
       </c>
       <c r="E41" s="3">
-        <v>1661500</v>
+        <v>1971000</v>
       </c>
       <c r="F41" s="3">
-        <v>1990900</v>
+        <v>1580700</v>
       </c>
       <c r="G41" s="3">
-        <v>2441500</v>
+        <v>1894200</v>
       </c>
       <c r="H41" s="3">
-        <v>1478200</v>
+        <v>2322800</v>
       </c>
       <c r="I41" s="3">
-        <v>1688700</v>
+        <v>1406400</v>
       </c>
       <c r="J41" s="3">
+        <v>1606700</v>
+      </c>
+      <c r="K41" s="3">
         <v>852000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5575600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>189800</v>
+        <v>110000</v>
       </c>
       <c r="E42" s="3">
-        <v>154900</v>
+        <v>180600</v>
       </c>
       <c r="F42" s="3">
-        <v>49100</v>
+        <v>147400</v>
       </c>
       <c r="G42" s="3">
-        <v>65500</v>
+        <v>46700</v>
       </c>
       <c r="H42" s="3">
-        <v>136400</v>
+        <v>62300</v>
       </c>
       <c r="I42" s="3">
-        <v>92700</v>
+        <v>129700</v>
       </c>
       <c r="J42" s="3">
+        <v>88200</v>
+      </c>
+      <c r="K42" s="3">
         <v>62200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4740000</v>
+        <v>4883300</v>
       </c>
       <c r="E43" s="3">
-        <v>4589500</v>
+        <v>4509700</v>
       </c>
       <c r="F43" s="3">
-        <v>4498900</v>
+        <v>4366400</v>
       </c>
       <c r="G43" s="3">
-        <v>4610200</v>
+        <v>4280300</v>
       </c>
       <c r="H43" s="3">
-        <v>4265500</v>
+        <v>4386200</v>
       </c>
       <c r="I43" s="3">
-        <v>4470500</v>
+        <v>4058200</v>
       </c>
       <c r="J43" s="3">
+        <v>4253300</v>
+      </c>
+      <c r="K43" s="3">
         <v>4617800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4107300</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4254500</v>
+        <v>4300000</v>
       </c>
       <c r="E44" s="3">
-        <v>4101800</v>
+        <v>4047800</v>
       </c>
       <c r="F44" s="3">
-        <v>3888000</v>
+        <v>3902500</v>
       </c>
       <c r="G44" s="3">
-        <v>3776700</v>
+        <v>3699100</v>
       </c>
       <c r="H44" s="3">
-        <v>3593500</v>
+        <v>3593200</v>
       </c>
       <c r="I44" s="3">
-        <v>3739600</v>
+        <v>3418800</v>
       </c>
       <c r="J44" s="3">
+        <v>3557900</v>
+      </c>
+      <c r="K44" s="3">
         <v>3645800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3420000</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>724400</v>
+        <v>822000</v>
       </c>
       <c r="E45" s="3">
-        <v>745100</v>
+        <v>689200</v>
       </c>
       <c r="F45" s="3">
-        <v>680700</v>
+        <v>708900</v>
       </c>
       <c r="G45" s="3">
-        <v>688400</v>
+        <v>647600</v>
       </c>
       <c r="H45" s="3">
-        <v>650200</v>
+        <v>654900</v>
       </c>
       <c r="I45" s="3">
-        <v>1198900</v>
+        <v>618600</v>
       </c>
       <c r="J45" s="3">
+        <v>1140700</v>
+      </c>
+      <c r="K45" s="3">
         <v>643600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1344000</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11980400</v>
+        <v>11505100</v>
       </c>
       <c r="E46" s="3">
-        <v>11252700</v>
+        <v>11398200</v>
       </c>
       <c r="F46" s="3">
-        <v>11107600</v>
+        <v>10705900</v>
       </c>
       <c r="G46" s="3">
-        <v>11582200</v>
+        <v>10567900</v>
       </c>
       <c r="H46" s="3">
-        <v>10123600</v>
+        <v>11019400</v>
       </c>
       <c r="I46" s="3">
-        <v>11190600</v>
+        <v>9631700</v>
       </c>
       <c r="J46" s="3">
+        <v>10646800</v>
+      </c>
+      <c r="K46" s="3">
         <v>9821500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14746900</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1035300</v>
+        <v>975600</v>
       </c>
       <c r="E47" s="3">
-        <v>908700</v>
+        <v>985000</v>
       </c>
       <c r="F47" s="3">
-        <v>854200</v>
+        <v>864600</v>
       </c>
       <c r="G47" s="3">
-        <v>881500</v>
+        <v>812700</v>
       </c>
       <c r="H47" s="3">
-        <v>926200</v>
+        <v>838600</v>
       </c>
       <c r="I47" s="3">
-        <v>744000</v>
+        <v>881200</v>
       </c>
       <c r="J47" s="3">
+        <v>707800</v>
+      </c>
+      <c r="K47" s="3">
         <v>829100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>714500</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7873100</v>
+        <v>7579800</v>
       </c>
       <c r="E48" s="3">
-        <v>7375600</v>
+        <v>7490500</v>
       </c>
       <c r="F48" s="3">
-        <v>7201100</v>
+        <v>7017200</v>
       </c>
       <c r="G48" s="3">
-        <v>7147600</v>
+        <v>6851200</v>
       </c>
       <c r="H48" s="3">
-        <v>7004700</v>
+        <v>6800300</v>
       </c>
       <c r="I48" s="3">
-        <v>6574900</v>
+        <v>6664400</v>
       </c>
       <c r="J48" s="3">
+        <v>6255400</v>
+      </c>
+      <c r="K48" s="3">
         <v>6777800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5864700</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26853800</v>
+        <v>26269200</v>
       </c>
       <c r="E49" s="3">
-        <v>26506900</v>
+        <v>25548900</v>
       </c>
       <c r="F49" s="3">
-        <v>26138200</v>
+        <v>25218900</v>
       </c>
       <c r="G49" s="3">
-        <v>26515700</v>
+        <v>24868100</v>
       </c>
       <c r="H49" s="3">
-        <v>25758600</v>
+        <v>25227200</v>
       </c>
       <c r="I49" s="3">
-        <v>26928000</v>
+        <v>24506900</v>
       </c>
       <c r="J49" s="3">
+        <v>25619500</v>
+      </c>
+      <c r="K49" s="3">
         <v>28708400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>22951700</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1743300</v>
+        <v>1657500</v>
       </c>
       <c r="E52" s="3">
-        <v>1777100</v>
+        <v>1658600</v>
       </c>
       <c r="F52" s="3">
-        <v>1766200</v>
+        <v>1690700</v>
       </c>
       <c r="G52" s="3">
-        <v>1754200</v>
+        <v>1680400</v>
       </c>
       <c r="H52" s="3">
-        <v>1782500</v>
+        <v>1668900</v>
       </c>
       <c r="I52" s="3">
-        <v>1723600</v>
+        <v>1695900</v>
       </c>
       <c r="J52" s="3">
+        <v>1639900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1657100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1613500</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>49485900</v>
+        <v>47987300</v>
       </c>
       <c r="E54" s="3">
-        <v>47821100</v>
+        <v>47081200</v>
       </c>
       <c r="F54" s="3">
-        <v>47067300</v>
+        <v>45497400</v>
       </c>
       <c r="G54" s="3">
-        <v>47881100</v>
+        <v>44780200</v>
       </c>
       <c r="H54" s="3">
-        <v>45595700</v>
+        <v>45554500</v>
       </c>
       <c r="I54" s="3">
-        <v>47161100</v>
+        <v>43380100</v>
       </c>
       <c r="J54" s="3">
+        <v>44869500</v>
+      </c>
+      <c r="K54" s="3">
         <v>47793900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45891300</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,182 +2095,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2596400</v>
+        <v>2445300</v>
       </c>
       <c r="E57" s="3">
-        <v>2325800</v>
+        <v>2470200</v>
       </c>
       <c r="F57" s="3">
-        <v>2298500</v>
+        <v>2212800</v>
       </c>
       <c r="G57" s="3">
-        <v>2113100</v>
+        <v>2186900</v>
       </c>
       <c r="H57" s="3">
-        <v>1928700</v>
+        <v>2010400</v>
       </c>
       <c r="I57" s="3">
-        <v>1837100</v>
+        <v>1835000</v>
       </c>
       <c r="J57" s="3">
+        <v>1747800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2240700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1893800</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2761100</v>
+        <v>2433900</v>
       </c>
       <c r="E58" s="3">
-        <v>3021800</v>
+        <v>2626900</v>
       </c>
       <c r="F58" s="3">
-        <v>3576000</v>
+        <v>2875000</v>
       </c>
       <c r="G58" s="3">
-        <v>3651300</v>
+        <v>3402200</v>
       </c>
       <c r="H58" s="3">
-        <v>2571300</v>
+        <v>3473900</v>
       </c>
       <c r="I58" s="3">
-        <v>4017800</v>
+        <v>2446300</v>
       </c>
       <c r="J58" s="3">
+        <v>3822600</v>
+      </c>
+      <c r="K58" s="3">
         <v>4963600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4287300</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6022900</v>
+        <v>5714700</v>
       </c>
       <c r="E59" s="3">
-        <v>5335600</v>
+        <v>5730200</v>
       </c>
       <c r="F59" s="3">
-        <v>4838200</v>
+        <v>5076400</v>
       </c>
       <c r="G59" s="3">
-        <v>5856000</v>
+        <v>4603100</v>
       </c>
       <c r="H59" s="3">
-        <v>5570200</v>
+        <v>5571400</v>
       </c>
       <c r="I59" s="3">
-        <v>4736700</v>
+        <v>5299500</v>
       </c>
       <c r="J59" s="3">
+        <v>4506600</v>
+      </c>
+      <c r="K59" s="3">
         <v>5714200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4351600</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11380400</v>
+        <v>10593800</v>
       </c>
       <c r="E60" s="3">
-        <v>10683300</v>
+        <v>10827400</v>
       </c>
       <c r="F60" s="3">
-        <v>10712700</v>
+        <v>10164200</v>
       </c>
       <c r="G60" s="3">
-        <v>11620400</v>
+        <v>10192200</v>
       </c>
       <c r="H60" s="3">
-        <v>10070200</v>
+        <v>11055700</v>
       </c>
       <c r="I60" s="3">
-        <v>10591600</v>
+        <v>9580900</v>
       </c>
       <c r="J60" s="3">
+        <v>10077000</v>
+      </c>
+      <c r="K60" s="3">
         <v>12918600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10532700</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9021800</v>
+        <v>8600000</v>
       </c>
       <c r="E61" s="3">
-        <v>8940000</v>
+        <v>8583400</v>
       </c>
       <c r="F61" s="3">
-        <v>9513800</v>
+        <v>8505600</v>
       </c>
       <c r="G61" s="3">
-        <v>9819300</v>
+        <v>9051500</v>
       </c>
       <c r="H61" s="3">
-        <v>10674600</v>
+        <v>9342100</v>
       </c>
       <c r="I61" s="3">
-        <v>10884000</v>
+        <v>10155900</v>
       </c>
       <c r="J61" s="3">
+        <v>10355100</v>
+      </c>
+      <c r="K61" s="3">
         <v>9429800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9397100</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5720700</v>
+        <v>4932100</v>
       </c>
       <c r="E62" s="3">
-        <v>5638900</v>
+        <v>5442700</v>
       </c>
       <c r="F62" s="3">
-        <v>5719600</v>
+        <v>5364900</v>
       </c>
       <c r="G62" s="3">
-        <v>5732700</v>
+        <v>5441700</v>
       </c>
       <c r="H62" s="3">
-        <v>6286900</v>
+        <v>5454200</v>
       </c>
       <c r="I62" s="3">
-        <v>6054600</v>
+        <v>5981400</v>
       </c>
       <c r="J62" s="3">
+        <v>5760300</v>
+      </c>
+      <c r="K62" s="3">
         <v>5902900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6126600</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26208000</v>
+        <v>24199700</v>
       </c>
       <c r="E66" s="3">
-        <v>25340700</v>
+        <v>24934500</v>
       </c>
       <c r="F66" s="3">
-        <v>26020400</v>
+        <v>24109400</v>
       </c>
       <c r="G66" s="3">
-        <v>27245500</v>
+        <v>24756000</v>
       </c>
       <c r="H66" s="3">
-        <v>27109100</v>
+        <v>25921600</v>
       </c>
       <c r="I66" s="3">
-        <v>27603300</v>
+        <v>25791800</v>
       </c>
       <c r="J66" s="3">
+        <v>26262000</v>
+      </c>
+      <c r="K66" s="3">
         <v>28303700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26082600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,37 +2491,43 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>433100</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>433100</v>
+        <v>412000</v>
       </c>
       <c r="F70" s="3">
-        <v>433100</v>
+        <v>412000</v>
       </c>
       <c r="G70" s="3">
-        <v>433100</v>
+        <v>412000</v>
       </c>
       <c r="H70" s="3">
-        <v>433100</v>
+        <v>412000</v>
       </c>
       <c r="I70" s="3">
-        <v>433100</v>
+        <v>412000</v>
       </c>
       <c r="J70" s="3">
-        <v>433100</v>
+        <v>412000</v>
       </c>
       <c r="K70" s="3">
         <v>433100</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>433100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18188700</v>
+        <v>19242700</v>
       </c>
       <c r="E72" s="3">
-        <v>18061100</v>
+        <v>17304900</v>
       </c>
       <c r="F72" s="3">
-        <v>17235300</v>
+        <v>17183500</v>
       </c>
       <c r="G72" s="3">
-        <v>16625500</v>
+        <v>16397800</v>
       </c>
       <c r="H72" s="3">
-        <v>15880400</v>
+        <v>15817600</v>
       </c>
       <c r="I72" s="3">
-        <v>15866200</v>
+        <v>15108700</v>
       </c>
       <c r="J72" s="3">
+        <v>15095200</v>
+      </c>
+      <c r="K72" s="3">
         <v>14439300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14583300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22844700</v>
+        <v>23787600</v>
       </c>
       <c r="E76" s="3">
-        <v>22047300</v>
+        <v>21734700</v>
       </c>
       <c r="F76" s="3">
-        <v>20613800</v>
+        <v>20976000</v>
       </c>
       <c r="G76" s="3">
-        <v>20202600</v>
+        <v>19612200</v>
       </c>
       <c r="H76" s="3">
-        <v>18053500</v>
+        <v>19220900</v>
       </c>
       <c r="I76" s="3">
-        <v>19124700</v>
+        <v>17176200</v>
       </c>
       <c r="J76" s="3">
+        <v>18195400</v>
+      </c>
+      <c r="K76" s="3">
         <v>19057100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19375700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>874900</v>
+        <v>913400</v>
       </c>
       <c r="E81" s="3">
-        <v>830200</v>
+        <v>832400</v>
       </c>
       <c r="F81" s="3">
-        <v>812700</v>
+        <v>789800</v>
       </c>
       <c r="G81" s="3">
-        <v>814900</v>
+        <v>773200</v>
       </c>
       <c r="H81" s="3">
-        <v>475600</v>
+        <v>775300</v>
       </c>
       <c r="I81" s="3">
-        <v>878200</v>
+        <v>452500</v>
       </c>
       <c r="J81" s="3">
+        <v>835500</v>
+      </c>
+      <c r="K81" s="3">
         <v>316400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,25 +2832,26 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>518200</v>
+        <v>446300</v>
       </c>
       <c r="E83" s="3">
-        <v>484400</v>
+        <v>493000</v>
       </c>
       <c r="F83" s="3">
-        <v>457100</v>
+        <v>460800</v>
       </c>
       <c r="G83" s="3">
-        <v>462500</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
+        <v>434900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>440100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>16</v>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,25 +3022,28 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1140000</v>
+        <v>871800</v>
       </c>
       <c r="E89" s="3">
-        <v>1600400</v>
+        <v>1084600</v>
       </c>
       <c r="F89" s="3">
-        <v>968700</v>
+        <v>1522600</v>
       </c>
       <c r="G89" s="3">
-        <v>1326500</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
+        <v>921700</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1262100</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>16</v>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,25 +3070,26 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-216000</v>
+        <v>-446300</v>
       </c>
       <c r="E91" s="3">
-        <v>-326200</v>
+        <v>-205500</v>
       </c>
       <c r="F91" s="3">
-        <v>-277100</v>
+        <v>-310300</v>
       </c>
       <c r="G91" s="3">
-        <v>-343600</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>16</v>
+        <v>-263600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-326900</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>16</v>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,25 +3164,28 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-384000</v>
+        <v>-1130300</v>
       </c>
       <c r="E94" s="3">
-        <v>-697100</v>
+        <v>-365300</v>
       </c>
       <c r="F94" s="3">
-        <v>-262900</v>
+        <v>-663200</v>
       </c>
       <c r="G94" s="3">
-        <v>-377500</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
+        <v>-250100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-359100</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>16</v>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2991,10 +3225,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-197500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-187900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,25 +3338,28 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-349100</v>
+        <v>-326900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1232700</v>
+        <v>-332100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1156400</v>
+        <v>-1172800</v>
       </c>
       <c r="G100" s="3">
-        <v>6500</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
+        <v>-1100200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>6200</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>16</v>
@@ -3124,25 +3370,28 @@
       <c r="K100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="E101" s="3">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="F101" s="3">
-        <v>-1100</v>
+        <v>1000</v>
       </c>
       <c r="G101" s="3">
-        <v>7600</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>16</v>
+        <v>-1000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>7300</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>16</v>
@@ -3153,25 +3402,28 @@
       <c r="K101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>409100</v>
+        <v>-581200</v>
       </c>
       <c r="E102" s="3">
-        <v>-328400</v>
+        <v>389200</v>
       </c>
       <c r="F102" s="3">
-        <v>-451600</v>
+        <v>-312400</v>
       </c>
       <c r="G102" s="3">
-        <v>963300</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
+        <v>-429700</v>
+      </c>
+      <c r="H102" s="3">
+        <v>916500</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>16</v>
@@ -3180,6 +3432,9 @@
         <v>16</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MKKGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MKKGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>MKKGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5395000</v>
+        <v>5553500</v>
       </c>
       <c r="E8" s="3">
-        <v>5410600</v>
+        <v>5184500</v>
       </c>
       <c r="F8" s="3">
-        <v>5161500</v>
+        <v>5199400</v>
       </c>
       <c r="G8" s="3">
-        <v>5054600</v>
+        <v>4960100</v>
       </c>
       <c r="H8" s="3">
-        <v>4806500</v>
+        <v>4857300</v>
       </c>
       <c r="I8" s="3">
-        <v>4772300</v>
+        <v>4619000</v>
       </c>
       <c r="J8" s="3">
+        <v>4586000</v>
+      </c>
+      <c r="K8" s="3">
         <v>4615500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4493500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4767300</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2062300</v>
+        <v>2103500</v>
       </c>
       <c r="E9" s="3">
-        <v>2033200</v>
+        <v>1981800</v>
       </c>
       <c r="F9" s="3">
-        <v>1929500</v>
+        <v>1953900</v>
       </c>
       <c r="G9" s="3">
-        <v>1881700</v>
+        <v>1854200</v>
       </c>
       <c r="H9" s="3">
-        <v>1786200</v>
+        <v>1808300</v>
       </c>
       <c r="I9" s="3">
-        <v>1863000</v>
+        <v>1716500</v>
       </c>
       <c r="J9" s="3">
+        <v>1790300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1843300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1756400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1804400</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3332700</v>
+        <v>3450000</v>
       </c>
       <c r="E10" s="3">
-        <v>3377300</v>
+        <v>3202700</v>
       </c>
       <c r="F10" s="3">
-        <v>3232000</v>
+        <v>3245500</v>
       </c>
       <c r="G10" s="3">
-        <v>3172900</v>
+        <v>3105900</v>
       </c>
       <c r="H10" s="3">
-        <v>3020300</v>
+        <v>3049100</v>
       </c>
       <c r="I10" s="3">
-        <v>2909200</v>
+        <v>2902400</v>
       </c>
       <c r="J10" s="3">
+        <v>2795700</v>
+      </c>
+      <c r="K10" s="3">
         <v>2772200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2737100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2962900</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>608200</v>
+        <v>598400</v>
       </c>
       <c r="E12" s="3">
-        <v>612400</v>
+        <v>584500</v>
       </c>
       <c r="F12" s="3">
-        <v>685000</v>
+        <v>588500</v>
       </c>
       <c r="G12" s="3">
-        <v>607200</v>
+        <v>658300</v>
       </c>
       <c r="H12" s="3">
-        <v>595800</v>
+        <v>583500</v>
       </c>
       <c r="I12" s="3">
-        <v>682900</v>
+        <v>572500</v>
       </c>
       <c r="J12" s="3">
+        <v>656300</v>
+      </c>
+      <c r="K12" s="3">
         <v>551100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>567300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>631600</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,40 +907,46 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>5200</v>
+        <v>9000</v>
       </c>
       <c r="E14" s="3">
-        <v>-6200</v>
+        <v>5000</v>
       </c>
       <c r="F14" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
-        <v>6200</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="J14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4177500</v>
+        <v>4379600</v>
       </c>
       <c r="E17" s="3">
-        <v>4332200</v>
+        <v>4014500</v>
       </c>
       <c r="F17" s="3">
-        <v>4074800</v>
+        <v>4163100</v>
       </c>
       <c r="G17" s="3">
-        <v>3965800</v>
+        <v>3915800</v>
       </c>
       <c r="H17" s="3">
-        <v>3724000</v>
+        <v>3811100</v>
       </c>
       <c r="I17" s="3">
-        <v>4138100</v>
+        <v>3578700</v>
       </c>
       <c r="J17" s="3">
+        <v>3976600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3404300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3957800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3986200</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1217500</v>
+        <v>1173900</v>
       </c>
       <c r="E18" s="3">
-        <v>1078400</v>
+        <v>1170000</v>
       </c>
       <c r="F18" s="3">
-        <v>1086700</v>
+        <v>1036300</v>
       </c>
       <c r="G18" s="3">
-        <v>1088800</v>
+        <v>1044300</v>
       </c>
       <c r="H18" s="3">
-        <v>1082500</v>
+        <v>1046300</v>
       </c>
       <c r="I18" s="3">
-        <v>634200</v>
+        <v>1040300</v>
       </c>
       <c r="J18" s="3">
+        <v>609400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1211200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>535600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>781100</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1043,60 +1076,64 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-35300</v>
+        <v>-54900</v>
       </c>
       <c r="E20" s="3">
-        <v>-48800</v>
+        <v>-33900</v>
       </c>
       <c r="F20" s="3">
-        <v>-56000</v>
+        <v>-46900</v>
       </c>
       <c r="G20" s="3">
-        <v>-97600</v>
+        <v>-53900</v>
       </c>
       <c r="H20" s="3">
-        <v>-61200</v>
+        <v>-93800</v>
       </c>
       <c r="I20" s="3">
-        <v>-54000</v>
+        <v>-58800</v>
       </c>
       <c r="J20" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-105900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-111300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-108000</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1628500</v>
+        <v>1649700</v>
       </c>
       <c r="E21" s="3">
-        <v>1522600</v>
+        <v>1564900</v>
       </c>
       <c r="F21" s="3">
-        <v>1491500</v>
+        <v>1463200</v>
       </c>
       <c r="G21" s="3">
-        <v>1426100</v>
+        <v>1433300</v>
       </c>
       <c r="H21" s="3">
-        <v>1461400</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
+        <v>1370400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1404300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>16</v>
@@ -1107,8 +1144,11 @@
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,72 +1179,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1182200</v>
+        <v>1119100</v>
       </c>
       <c r="E23" s="3">
-        <v>1029600</v>
+        <v>1136000</v>
       </c>
       <c r="F23" s="3">
-        <v>1030600</v>
+        <v>989400</v>
       </c>
       <c r="G23" s="3">
-        <v>991200</v>
+        <v>990400</v>
       </c>
       <c r="H23" s="3">
-        <v>1021300</v>
+        <v>952500</v>
       </c>
       <c r="I23" s="3">
-        <v>580200</v>
+        <v>981400</v>
       </c>
       <c r="J23" s="3">
+        <v>557500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1105400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>424400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>673100</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>264700</v>
+        <v>251300</v>
       </c>
       <c r="E24" s="3">
-        <v>193000</v>
+        <v>254300</v>
       </c>
       <c r="F24" s="3">
-        <v>237700</v>
+        <v>185500</v>
       </c>
       <c r="G24" s="3">
-        <v>215900</v>
+        <v>228400</v>
       </c>
       <c r="H24" s="3">
-        <v>244900</v>
+        <v>207500</v>
       </c>
       <c r="I24" s="3">
-        <v>123500</v>
+        <v>235400</v>
       </c>
       <c r="J24" s="3">
+        <v>118700</v>
+      </c>
+      <c r="K24" s="3">
         <v>267800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>109100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>173500</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>917500</v>
+        <v>867700</v>
       </c>
       <c r="E26" s="3">
-        <v>836500</v>
+        <v>881700</v>
       </c>
       <c r="F26" s="3">
-        <v>793000</v>
+        <v>803900</v>
       </c>
       <c r="G26" s="3">
-        <v>775300</v>
+        <v>762000</v>
       </c>
       <c r="H26" s="3">
-        <v>776300</v>
+        <v>745100</v>
       </c>
       <c r="I26" s="3">
-        <v>456700</v>
+        <v>746100</v>
       </c>
       <c r="J26" s="3">
+        <v>438900</v>
+      </c>
+      <c r="K26" s="3">
         <v>837600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>315300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>499600</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>913400</v>
+        <v>864700</v>
       </c>
       <c r="E27" s="3">
-        <v>832400</v>
+        <v>877700</v>
       </c>
       <c r="F27" s="3">
-        <v>789800</v>
+        <v>799900</v>
       </c>
       <c r="G27" s="3">
-        <v>773200</v>
+        <v>759000</v>
       </c>
       <c r="H27" s="3">
-        <v>775300</v>
+        <v>743100</v>
       </c>
       <c r="I27" s="3">
-        <v>452500</v>
+        <v>745100</v>
       </c>
       <c r="J27" s="3">
+        <v>434900</v>
+      </c>
+      <c r="K27" s="3">
         <v>835500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>316400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1351,8 +1412,8 @@
       <c r="H29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1360,11 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>35300</v>
+        <v>54900</v>
       </c>
       <c r="E32" s="3">
-        <v>48800</v>
+        <v>33900</v>
       </c>
       <c r="F32" s="3">
-        <v>56000</v>
+        <v>46900</v>
       </c>
       <c r="G32" s="3">
-        <v>97600</v>
+        <v>53900</v>
       </c>
       <c r="H32" s="3">
-        <v>61200</v>
+        <v>93800</v>
       </c>
       <c r="I32" s="3">
-        <v>54000</v>
+        <v>58800</v>
       </c>
       <c r="J32" s="3">
+        <v>51900</v>
+      </c>
+      <c r="K32" s="3">
         <v>105900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>111300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>913400</v>
+        <v>864700</v>
       </c>
       <c r="E33" s="3">
-        <v>832400</v>
+        <v>877700</v>
       </c>
       <c r="F33" s="3">
-        <v>789800</v>
+        <v>799900</v>
       </c>
       <c r="G33" s="3">
-        <v>773200</v>
+        <v>759000</v>
       </c>
       <c r="H33" s="3">
-        <v>775300</v>
+        <v>743100</v>
       </c>
       <c r="I33" s="3">
-        <v>452500</v>
+        <v>745100</v>
       </c>
       <c r="J33" s="3">
+        <v>434900</v>
+      </c>
+      <c r="K33" s="3">
         <v>835500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>316400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>913400</v>
+        <v>864700</v>
       </c>
       <c r="E35" s="3">
-        <v>832400</v>
+        <v>877700</v>
       </c>
       <c r="F35" s="3">
-        <v>789800</v>
+        <v>799900</v>
       </c>
       <c r="G35" s="3">
-        <v>773200</v>
+        <v>759000</v>
       </c>
       <c r="H35" s="3">
-        <v>775300</v>
+        <v>743100</v>
       </c>
       <c r="I35" s="3">
-        <v>452500</v>
+        <v>745100</v>
       </c>
       <c r="J35" s="3">
+        <v>434900</v>
+      </c>
+      <c r="K35" s="3">
         <v>835500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>316400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,296 +1706,324 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1389700</v>
+        <v>1575900</v>
       </c>
       <c r="E41" s="3">
-        <v>1971000</v>
+        <v>1335500</v>
       </c>
       <c r="F41" s="3">
-        <v>1580700</v>
+        <v>1894100</v>
       </c>
       <c r="G41" s="3">
-        <v>1894200</v>
+        <v>1519000</v>
       </c>
       <c r="H41" s="3">
-        <v>2322800</v>
+        <v>1820300</v>
       </c>
       <c r="I41" s="3">
-        <v>1406400</v>
+        <v>2232200</v>
       </c>
       <c r="J41" s="3">
+        <v>1351500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1606700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>852000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5575600</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>110000</v>
+        <v>132700</v>
       </c>
       <c r="E42" s="3">
-        <v>180600</v>
+        <v>105700</v>
       </c>
       <c r="F42" s="3">
-        <v>147400</v>
+        <v>173500</v>
       </c>
       <c r="G42" s="3">
-        <v>46700</v>
+        <v>141600</v>
       </c>
       <c r="H42" s="3">
-        <v>62300</v>
+        <v>44900</v>
       </c>
       <c r="I42" s="3">
-        <v>129700</v>
+        <v>59800</v>
       </c>
       <c r="J42" s="3">
+        <v>124700</v>
+      </c>
+      <c r="K42" s="3">
         <v>88200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>62200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4883300</v>
+        <v>4854300</v>
       </c>
       <c r="E43" s="3">
-        <v>4509700</v>
+        <v>4692800</v>
       </c>
       <c r="F43" s="3">
-        <v>4366400</v>
+        <v>4333700</v>
       </c>
       <c r="G43" s="3">
-        <v>4280300</v>
+        <v>4196100</v>
       </c>
       <c r="H43" s="3">
-        <v>4386200</v>
+        <v>4113300</v>
       </c>
       <c r="I43" s="3">
-        <v>4058200</v>
+        <v>4215000</v>
       </c>
       <c r="J43" s="3">
+        <v>3899800</v>
+      </c>
+      <c r="K43" s="3">
         <v>4253300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4617800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4107300</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4300000</v>
+        <v>4462400</v>
       </c>
       <c r="E44" s="3">
-        <v>4047800</v>
+        <v>4132200</v>
       </c>
       <c r="F44" s="3">
-        <v>3902500</v>
+        <v>3889900</v>
       </c>
       <c r="G44" s="3">
-        <v>3699100</v>
+        <v>3750200</v>
       </c>
       <c r="H44" s="3">
-        <v>3593200</v>
+        <v>3554700</v>
       </c>
       <c r="I44" s="3">
-        <v>3418800</v>
+        <v>3453000</v>
       </c>
       <c r="J44" s="3">
+        <v>3285400</v>
+      </c>
+      <c r="K44" s="3">
         <v>3557900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3645800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3420000</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>822000</v>
+        <v>1358500</v>
       </c>
       <c r="E45" s="3">
-        <v>689200</v>
+        <v>789900</v>
       </c>
       <c r="F45" s="3">
-        <v>708900</v>
+        <v>662300</v>
       </c>
       <c r="G45" s="3">
-        <v>647600</v>
+        <v>681200</v>
       </c>
       <c r="H45" s="3">
-        <v>654900</v>
+        <v>622400</v>
       </c>
       <c r="I45" s="3">
-        <v>618600</v>
+        <v>629400</v>
       </c>
       <c r="J45" s="3">
+        <v>594500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1140700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>643600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1344000</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11505100</v>
+        <v>12383700</v>
       </c>
       <c r="E46" s="3">
-        <v>11398200</v>
+        <v>11056200</v>
       </c>
       <c r="F46" s="3">
-        <v>10705900</v>
+        <v>10953400</v>
       </c>
       <c r="G46" s="3">
-        <v>10567900</v>
+        <v>10288200</v>
       </c>
       <c r="H46" s="3">
-        <v>11019400</v>
+        <v>10155500</v>
       </c>
       <c r="I46" s="3">
-        <v>9631700</v>
+        <v>10589400</v>
       </c>
       <c r="J46" s="3">
+        <v>9255900</v>
+      </c>
+      <c r="K46" s="3">
         <v>10646800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9821500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14746900</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>975600</v>
+        <v>938600</v>
       </c>
       <c r="E47" s="3">
-        <v>985000</v>
+        <v>937600</v>
       </c>
       <c r="F47" s="3">
-        <v>864600</v>
+        <v>946500</v>
       </c>
       <c r="G47" s="3">
-        <v>812700</v>
+        <v>830800</v>
       </c>
       <c r="H47" s="3">
-        <v>838600</v>
+        <v>781000</v>
       </c>
       <c r="I47" s="3">
-        <v>881200</v>
+        <v>805900</v>
       </c>
       <c r="J47" s="3">
+        <v>846800</v>
+      </c>
+      <c r="K47" s="3">
         <v>707800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>829100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>714500</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7579800</v>
+        <v>7553300</v>
       </c>
       <c r="E48" s="3">
-        <v>7490500</v>
+        <v>7284000</v>
       </c>
       <c r="F48" s="3">
-        <v>7017200</v>
+        <v>7198200</v>
       </c>
       <c r="G48" s="3">
-        <v>6851200</v>
+        <v>6743400</v>
       </c>
       <c r="H48" s="3">
-        <v>6800300</v>
+        <v>6583800</v>
       </c>
       <c r="I48" s="3">
-        <v>6664400</v>
+        <v>6535000</v>
       </c>
       <c r="J48" s="3">
+        <v>6404300</v>
+      </c>
+      <c r="K48" s="3">
         <v>6255400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6777800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5864700</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26269200</v>
+        <v>26366300</v>
       </c>
       <c r="E49" s="3">
-        <v>25548900</v>
+        <v>25244200</v>
       </c>
       <c r="F49" s="3">
-        <v>25218900</v>
+        <v>24552000</v>
       </c>
       <c r="G49" s="3">
-        <v>24868100</v>
+        <v>24234800</v>
       </c>
       <c r="H49" s="3">
-        <v>25227200</v>
+        <v>23897700</v>
       </c>
       <c r="I49" s="3">
-        <v>24506900</v>
+        <v>24242800</v>
       </c>
       <c r="J49" s="3">
+        <v>23550600</v>
+      </c>
+      <c r="K49" s="3">
         <v>25619500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>28708400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>22951700</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2089,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1657500</v>
+        <v>1348500</v>
       </c>
       <c r="E52" s="3">
-        <v>1658600</v>
+        <v>1592800</v>
       </c>
       <c r="F52" s="3">
-        <v>1690700</v>
+        <v>1593800</v>
       </c>
       <c r="G52" s="3">
-        <v>1680400</v>
+        <v>1624800</v>
       </c>
       <c r="H52" s="3">
-        <v>1668900</v>
+        <v>1614800</v>
       </c>
       <c r="I52" s="3">
-        <v>1695900</v>
+        <v>1603800</v>
       </c>
       <c r="J52" s="3">
+        <v>1629800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1639900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1657100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1613500</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>47987300</v>
+        <v>48590300</v>
       </c>
       <c r="E54" s="3">
-        <v>47081200</v>
+        <v>46114800</v>
       </c>
       <c r="F54" s="3">
-        <v>45497400</v>
+        <v>45244100</v>
       </c>
       <c r="G54" s="3">
-        <v>44780200</v>
+        <v>43722000</v>
       </c>
       <c r="H54" s="3">
-        <v>45554500</v>
+        <v>43032800</v>
       </c>
       <c r="I54" s="3">
-        <v>43380100</v>
+        <v>43776900</v>
       </c>
       <c r="J54" s="3">
+        <v>41687300</v>
+      </c>
+      <c r="K54" s="3">
         <v>44869500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>47793900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45891300</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,200 +2226,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2445300</v>
+        <v>2449600</v>
       </c>
       <c r="E57" s="3">
-        <v>2470200</v>
+        <v>2349900</v>
       </c>
       <c r="F57" s="3">
-        <v>2212800</v>
+        <v>2373800</v>
       </c>
       <c r="G57" s="3">
-        <v>2186900</v>
+        <v>2126500</v>
       </c>
       <c r="H57" s="3">
-        <v>2010400</v>
+        <v>2101500</v>
       </c>
       <c r="I57" s="3">
-        <v>1835000</v>
+        <v>1932000</v>
       </c>
       <c r="J57" s="3">
+        <v>1763400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1747800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2240700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1893800</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2433900</v>
+        <v>2411700</v>
       </c>
       <c r="E58" s="3">
-        <v>2626900</v>
+        <v>2338900</v>
       </c>
       <c r="F58" s="3">
-        <v>2875000</v>
+        <v>2524400</v>
       </c>
       <c r="G58" s="3">
-        <v>3402200</v>
+        <v>2762800</v>
       </c>
       <c r="H58" s="3">
-        <v>3473900</v>
+        <v>3269500</v>
       </c>
       <c r="I58" s="3">
-        <v>2446300</v>
+        <v>3338300</v>
       </c>
       <c r="J58" s="3">
+        <v>2350900</v>
+      </c>
+      <c r="K58" s="3">
         <v>3822600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4963600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4287300</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5714700</v>
+        <v>4831400</v>
       </c>
       <c r="E59" s="3">
-        <v>5730200</v>
+        <v>5491700</v>
       </c>
       <c r="F59" s="3">
-        <v>5076400</v>
+        <v>5506600</v>
       </c>
       <c r="G59" s="3">
-        <v>4603100</v>
+        <v>4878300</v>
       </c>
       <c r="H59" s="3">
-        <v>5571400</v>
+        <v>4423500</v>
       </c>
       <c r="I59" s="3">
-        <v>5299500</v>
+        <v>5354000</v>
       </c>
       <c r="J59" s="3">
+        <v>5092700</v>
+      </c>
+      <c r="K59" s="3">
         <v>4506600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5714200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4351600</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10593800</v>
+        <v>9692700</v>
       </c>
       <c r="E60" s="3">
-        <v>10827400</v>
+        <v>10180500</v>
       </c>
       <c r="F60" s="3">
-        <v>10164200</v>
+        <v>10404900</v>
       </c>
       <c r="G60" s="3">
-        <v>10192200</v>
+        <v>9767500</v>
       </c>
       <c r="H60" s="3">
-        <v>11055700</v>
+        <v>9794500</v>
       </c>
       <c r="I60" s="3">
-        <v>9580900</v>
+        <v>10624300</v>
       </c>
       <c r="J60" s="3">
+        <v>9207000</v>
+      </c>
+      <c r="K60" s="3">
         <v>10077000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12918600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10532700</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8600000</v>
+        <v>9360600</v>
       </c>
       <c r="E61" s="3">
-        <v>8583400</v>
+        <v>8264500</v>
       </c>
       <c r="F61" s="3">
-        <v>8505600</v>
+        <v>8248500</v>
       </c>
       <c r="G61" s="3">
-        <v>9051500</v>
+        <v>8173700</v>
       </c>
       <c r="H61" s="3">
-        <v>9342100</v>
+        <v>8698300</v>
       </c>
       <c r="I61" s="3">
-        <v>10155900</v>
+        <v>8977600</v>
       </c>
       <c r="J61" s="3">
+        <v>9759600</v>
+      </c>
+      <c r="K61" s="3">
         <v>10355100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9429800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9397100</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4932100</v>
+        <v>3575700</v>
       </c>
       <c r="E62" s="3">
-        <v>5442700</v>
+        <v>4739600</v>
       </c>
       <c r="F62" s="3">
-        <v>5364900</v>
+        <v>5230400</v>
       </c>
       <c r="G62" s="3">
-        <v>5441700</v>
+        <v>5155600</v>
       </c>
       <c r="H62" s="3">
-        <v>5454200</v>
+        <v>5229400</v>
       </c>
       <c r="I62" s="3">
-        <v>5981400</v>
+        <v>5241300</v>
       </c>
       <c r="J62" s="3">
+        <v>5748000</v>
+      </c>
+      <c r="K62" s="3">
         <v>5760300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5902900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6126600</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24199700</v>
+        <v>22702800</v>
       </c>
       <c r="E66" s="3">
-        <v>24934500</v>
+        <v>23255400</v>
       </c>
       <c r="F66" s="3">
-        <v>24109400</v>
+        <v>23961500</v>
       </c>
       <c r="G66" s="3">
-        <v>24756000</v>
+        <v>23168600</v>
       </c>
       <c r="H66" s="3">
-        <v>25921600</v>
+        <v>23790000</v>
       </c>
       <c r="I66" s="3">
-        <v>25791800</v>
+        <v>24910100</v>
       </c>
       <c r="J66" s="3">
+        <v>24785400</v>
+      </c>
+      <c r="K66" s="3">
         <v>26262000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28303700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26082600</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2503,31 +2671,34 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>396000</v>
+      </c>
+      <c r="G70" s="3">
+        <v>396000</v>
+      </c>
+      <c r="H70" s="3">
+        <v>396000</v>
+      </c>
+      <c r="I70" s="3">
+        <v>396000</v>
+      </c>
+      <c r="J70" s="3">
+        <v>396000</v>
+      </c>
+      <c r="K70" s="3">
         <v>412000</v>
-      </c>
-      <c r="F70" s="3">
-        <v>412000</v>
-      </c>
-      <c r="G70" s="3">
-        <v>412000</v>
-      </c>
-      <c r="H70" s="3">
-        <v>412000</v>
-      </c>
-      <c r="I70" s="3">
-        <v>412000</v>
-      </c>
-      <c r="J70" s="3">
-        <v>412000</v>
-      </c>
-      <c r="K70" s="3">
-        <v>433100</v>
       </c>
       <c r="L70" s="3">
         <v>433100</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>433100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19242700</v>
+        <v>21519900</v>
       </c>
       <c r="E72" s="3">
-        <v>17304900</v>
+        <v>18491800</v>
       </c>
       <c r="F72" s="3">
-        <v>17183500</v>
+        <v>16629700</v>
       </c>
       <c r="G72" s="3">
-        <v>16397800</v>
+        <v>16513000</v>
       </c>
       <c r="H72" s="3">
-        <v>15817600</v>
+        <v>15757900</v>
       </c>
       <c r="I72" s="3">
-        <v>15108700</v>
+        <v>15200400</v>
       </c>
       <c r="J72" s="3">
+        <v>14519200</v>
+      </c>
+      <c r="K72" s="3">
         <v>15095200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14439300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14583300</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23787600</v>
+        <v>25887500</v>
       </c>
       <c r="E76" s="3">
-        <v>21734700</v>
+        <v>22859400</v>
       </c>
       <c r="F76" s="3">
-        <v>20976000</v>
+        <v>20886600</v>
       </c>
       <c r="G76" s="3">
-        <v>19612200</v>
+        <v>20157500</v>
       </c>
       <c r="H76" s="3">
-        <v>19220900</v>
+        <v>18846900</v>
       </c>
       <c r="I76" s="3">
-        <v>17176200</v>
+        <v>18470900</v>
       </c>
       <c r="J76" s="3">
+        <v>16506000</v>
+      </c>
+      <c r="K76" s="3">
         <v>18195400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19057100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19375700</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>913400</v>
+        <v>864700</v>
       </c>
       <c r="E81" s="3">
-        <v>832400</v>
+        <v>877700</v>
       </c>
       <c r="F81" s="3">
-        <v>789800</v>
+        <v>799900</v>
       </c>
       <c r="G81" s="3">
-        <v>773200</v>
+        <v>759000</v>
       </c>
       <c r="H81" s="3">
-        <v>775300</v>
+        <v>743100</v>
       </c>
       <c r="I81" s="3">
-        <v>452500</v>
+        <v>745100</v>
       </c>
       <c r="J81" s="3">
+        <v>434900</v>
+      </c>
+      <c r="K81" s="3">
         <v>835500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>316400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,28 +3031,29 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>446300</v>
+        <v>530600</v>
       </c>
       <c r="E83" s="3">
-        <v>493000</v>
+        <v>428900</v>
       </c>
       <c r="F83" s="3">
-        <v>460800</v>
+        <v>473800</v>
       </c>
       <c r="G83" s="3">
-        <v>434900</v>
+        <v>442800</v>
       </c>
       <c r="H83" s="3">
-        <v>440100</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
+        <v>417900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>422900</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>16</v>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,28 +3239,31 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>871800</v>
+        <v>849800</v>
       </c>
       <c r="E89" s="3">
-        <v>1084600</v>
+        <v>837800</v>
       </c>
       <c r="F89" s="3">
-        <v>1522600</v>
+        <v>1042300</v>
       </c>
       <c r="G89" s="3">
-        <v>921700</v>
+        <v>1463200</v>
       </c>
       <c r="H89" s="3">
-        <v>1262100</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
+        <v>885700</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1212800</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>16</v>
@@ -3057,8 +3274,11 @@
       <c r="L89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,28 +3291,29 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-446300</v>
+        <v>-246400</v>
       </c>
       <c r="E91" s="3">
-        <v>-205500</v>
+        <v>-428900</v>
       </c>
       <c r="F91" s="3">
-        <v>-310300</v>
+        <v>-197500</v>
       </c>
       <c r="G91" s="3">
-        <v>-263600</v>
+        <v>-298200</v>
       </c>
       <c r="H91" s="3">
-        <v>-326900</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
+        <v>-253300</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-314200</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>16</v>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,28 +3394,31 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1130300</v>
+        <v>-784000</v>
       </c>
       <c r="E94" s="3">
-        <v>-365300</v>
+        <v>-1086200</v>
       </c>
       <c r="F94" s="3">
-        <v>-663200</v>
+        <v>-351100</v>
       </c>
       <c r="G94" s="3">
-        <v>-250100</v>
+        <v>-637300</v>
       </c>
       <c r="H94" s="3">
-        <v>-359100</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
+        <v>-240400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-345100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>16</v>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,13 +3446,14 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-238400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3228,10 +3462,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-187900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-180500</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,28 +3584,31 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-326900</v>
+        <v>166600</v>
       </c>
       <c r="E100" s="3">
-        <v>-332100</v>
+        <v>-314200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1172800</v>
+        <v>-319200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1100200</v>
+        <v>-1127100</v>
       </c>
       <c r="H100" s="3">
-        <v>6200</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
+        <v>-1057200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>6000</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>16</v>
@@ -3373,28 +3619,31 @@
       <c r="L100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4200</v>
+        <v>7000</v>
       </c>
       <c r="E101" s="3">
-        <v>2100</v>
+        <v>4000</v>
       </c>
       <c r="F101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
-        <v>7300</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>16</v>
+      <c r="I101" s="3">
+        <v>7000</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>16</v>
@@ -3405,28 +3654,31 @@
       <c r="L101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-581200</v>
+        <v>239400</v>
       </c>
       <c r="E102" s="3">
-        <v>389200</v>
+        <v>-558500</v>
       </c>
       <c r="F102" s="3">
-        <v>-312400</v>
+        <v>374000</v>
       </c>
       <c r="G102" s="3">
-        <v>-429700</v>
+        <v>-300200</v>
       </c>
       <c r="H102" s="3">
-        <v>916500</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
+        <v>-412900</v>
+      </c>
+      <c r="I102" s="3">
+        <v>880700</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>16</v>
@@ -3435,6 +3687,9 @@
         <v>16</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MKKGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MKKGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>MKKGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5553500</v>
+        <v>5926800</v>
       </c>
       <c r="E8" s="3">
-        <v>5184500</v>
+        <v>5683800</v>
       </c>
       <c r="F8" s="3">
-        <v>5199400</v>
+        <v>5306100</v>
       </c>
       <c r="G8" s="3">
-        <v>4960100</v>
+        <v>5321400</v>
       </c>
       <c r="H8" s="3">
-        <v>4857300</v>
+        <v>5076400</v>
       </c>
       <c r="I8" s="3">
-        <v>4619000</v>
+        <v>4971300</v>
       </c>
       <c r="J8" s="3">
+        <v>4727300</v>
+      </c>
+      <c r="K8" s="3">
         <v>4586000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4615500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4493500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4767300</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2103500</v>
+        <v>2191700</v>
       </c>
       <c r="E9" s="3">
-        <v>1981800</v>
+        <v>2152900</v>
       </c>
       <c r="F9" s="3">
-        <v>1953900</v>
+        <v>2028300</v>
       </c>
       <c r="G9" s="3">
-        <v>1854200</v>
+        <v>1999700</v>
       </c>
       <c r="H9" s="3">
-        <v>1808300</v>
+        <v>1897700</v>
       </c>
       <c r="I9" s="3">
-        <v>1716500</v>
+        <v>1850700</v>
       </c>
       <c r="J9" s="3">
+        <v>1756800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1790300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1843300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1756400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1804400</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3450000</v>
+        <v>3735100</v>
       </c>
       <c r="E10" s="3">
-        <v>3202700</v>
+        <v>3530900</v>
       </c>
       <c r="F10" s="3">
-        <v>3245500</v>
+        <v>3277800</v>
       </c>
       <c r="G10" s="3">
-        <v>3105900</v>
+        <v>3321700</v>
       </c>
       <c r="H10" s="3">
-        <v>3049100</v>
+        <v>3178800</v>
       </c>
       <c r="I10" s="3">
-        <v>2902400</v>
+        <v>3120600</v>
       </c>
       <c r="J10" s="3">
+        <v>2970500</v>
+      </c>
+      <c r="K10" s="3">
         <v>2795700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2772200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2737100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2962900</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>598400</v>
+        <v>655400</v>
       </c>
       <c r="E12" s="3">
-        <v>584500</v>
+        <v>612500</v>
       </c>
       <c r="F12" s="3">
-        <v>588500</v>
+        <v>598200</v>
       </c>
       <c r="G12" s="3">
-        <v>658300</v>
+        <v>602300</v>
       </c>
       <c r="H12" s="3">
-        <v>583500</v>
+        <v>673700</v>
       </c>
       <c r="I12" s="3">
-        <v>572500</v>
+        <v>597200</v>
       </c>
       <c r="J12" s="3">
+        <v>585900</v>
+      </c>
+      <c r="K12" s="3">
         <v>656300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>551100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>567300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>631600</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,43 +927,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>9000</v>
+        <v>-6100</v>
       </c>
       <c r="E14" s="3">
-        <v>5000</v>
+        <v>9200</v>
       </c>
       <c r="F14" s="3">
-        <v>-6000</v>
+        <v>5100</v>
       </c>
       <c r="G14" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K14" s="3">
         <v>6000</v>
       </c>
-      <c r="J14" s="3">
-        <v>6000</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4379600</v>
+        <v>4667100</v>
       </c>
       <c r="E17" s="3">
-        <v>4014500</v>
+        <v>4482300</v>
       </c>
       <c r="F17" s="3">
-        <v>4163100</v>
+        <v>4108700</v>
       </c>
       <c r="G17" s="3">
-        <v>3915800</v>
+        <v>4260800</v>
       </c>
       <c r="H17" s="3">
-        <v>3811100</v>
+        <v>4007700</v>
       </c>
       <c r="I17" s="3">
-        <v>3578700</v>
+        <v>3900500</v>
       </c>
       <c r="J17" s="3">
+        <v>3662600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3976600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3404300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3957800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3986200</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1173900</v>
+        <v>1259700</v>
       </c>
       <c r="E18" s="3">
-        <v>1170000</v>
+        <v>1201500</v>
       </c>
       <c r="F18" s="3">
-        <v>1036300</v>
+        <v>1197400</v>
       </c>
       <c r="G18" s="3">
-        <v>1044300</v>
+        <v>1060600</v>
       </c>
       <c r="H18" s="3">
-        <v>1046300</v>
+        <v>1068800</v>
       </c>
       <c r="I18" s="3">
-        <v>1040300</v>
+        <v>1070800</v>
       </c>
       <c r="J18" s="3">
+        <v>1064700</v>
+      </c>
+      <c r="K18" s="3">
         <v>609400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1211200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>535600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>781100</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1077,66 +1110,70 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-54900</v>
+        <v>-48000</v>
       </c>
       <c r="E20" s="3">
-        <v>-33900</v>
+        <v>-56100</v>
       </c>
       <c r="F20" s="3">
-        <v>-46900</v>
+        <v>-34700</v>
       </c>
       <c r="G20" s="3">
-        <v>-53900</v>
+        <v>-48000</v>
       </c>
       <c r="H20" s="3">
-        <v>-93800</v>
+        <v>-55100</v>
       </c>
       <c r="I20" s="3">
-        <v>-58800</v>
+        <v>-96000</v>
       </c>
       <c r="J20" s="3">
+        <v>-60200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-51900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-105900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-111300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-108000</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1649700</v>
+        <v>1691500</v>
       </c>
       <c r="E21" s="3">
-        <v>1564900</v>
+        <v>1688400</v>
       </c>
       <c r="F21" s="3">
-        <v>1463200</v>
+        <v>1601600</v>
       </c>
       <c r="G21" s="3">
-        <v>1433300</v>
+        <v>1497500</v>
       </c>
       <c r="H21" s="3">
-        <v>1370400</v>
+        <v>1466900</v>
       </c>
       <c r="I21" s="3">
-        <v>1404300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
+        <v>1402600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1437300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
@@ -1147,8 +1184,11 @@
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,78 +1222,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1119100</v>
+        <v>1211700</v>
       </c>
       <c r="E23" s="3">
-        <v>1136000</v>
+        <v>1145300</v>
       </c>
       <c r="F23" s="3">
-        <v>989400</v>
+        <v>1162700</v>
       </c>
       <c r="G23" s="3">
-        <v>990400</v>
+        <v>1012600</v>
       </c>
       <c r="H23" s="3">
-        <v>952500</v>
+        <v>1013700</v>
       </c>
       <c r="I23" s="3">
-        <v>981400</v>
+        <v>974900</v>
       </c>
       <c r="J23" s="3">
+        <v>1004500</v>
+      </c>
+      <c r="K23" s="3">
         <v>557500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1105400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>424400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>673100</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>251300</v>
+        <v>266400</v>
       </c>
       <c r="E24" s="3">
-        <v>254300</v>
+        <v>257200</v>
       </c>
       <c r="F24" s="3">
-        <v>185500</v>
+        <v>260300</v>
       </c>
       <c r="G24" s="3">
-        <v>228400</v>
+        <v>189900</v>
       </c>
       <c r="H24" s="3">
-        <v>207500</v>
+        <v>233800</v>
       </c>
       <c r="I24" s="3">
-        <v>235400</v>
+        <v>212300</v>
       </c>
       <c r="J24" s="3">
+        <v>240900</v>
+      </c>
+      <c r="K24" s="3">
         <v>118700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>267800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>109100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>173500</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>867700</v>
+        <v>945300</v>
       </c>
       <c r="E26" s="3">
-        <v>881700</v>
+        <v>888100</v>
       </c>
       <c r="F26" s="3">
-        <v>803900</v>
+        <v>902400</v>
       </c>
       <c r="G26" s="3">
-        <v>762000</v>
+        <v>822800</v>
       </c>
       <c r="H26" s="3">
-        <v>745100</v>
+        <v>779900</v>
       </c>
       <c r="I26" s="3">
-        <v>746100</v>
+        <v>762500</v>
       </c>
       <c r="J26" s="3">
+        <v>763600</v>
+      </c>
+      <c r="K26" s="3">
         <v>438900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>837600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>315300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>499600</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>864700</v>
+        <v>942200</v>
       </c>
       <c r="E27" s="3">
-        <v>877700</v>
+        <v>885000</v>
       </c>
       <c r="F27" s="3">
-        <v>799900</v>
+        <v>898300</v>
       </c>
       <c r="G27" s="3">
-        <v>759000</v>
+        <v>818700</v>
       </c>
       <c r="H27" s="3">
-        <v>743100</v>
+        <v>776800</v>
       </c>
       <c r="I27" s="3">
-        <v>745100</v>
+        <v>760500</v>
       </c>
       <c r="J27" s="3">
+        <v>762500</v>
+      </c>
+      <c r="K27" s="3">
         <v>434900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>835500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>316400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1415,8 +1476,8 @@
       <c r="I29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1424,11 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>54900</v>
+        <v>48000</v>
       </c>
       <c r="E32" s="3">
-        <v>33900</v>
+        <v>56100</v>
       </c>
       <c r="F32" s="3">
-        <v>46900</v>
+        <v>34700</v>
       </c>
       <c r="G32" s="3">
-        <v>53900</v>
+        <v>48000</v>
       </c>
       <c r="H32" s="3">
-        <v>93800</v>
+        <v>55100</v>
       </c>
       <c r="I32" s="3">
-        <v>58800</v>
+        <v>96000</v>
       </c>
       <c r="J32" s="3">
+        <v>60200</v>
+      </c>
+      <c r="K32" s="3">
         <v>51900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>105900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>111300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>864700</v>
+        <v>942200</v>
       </c>
       <c r="E33" s="3">
-        <v>877700</v>
+        <v>885000</v>
       </c>
       <c r="F33" s="3">
-        <v>799900</v>
+        <v>898300</v>
       </c>
       <c r="G33" s="3">
-        <v>759000</v>
+        <v>818700</v>
       </c>
       <c r="H33" s="3">
-        <v>743100</v>
+        <v>776800</v>
       </c>
       <c r="I33" s="3">
-        <v>745100</v>
+        <v>760500</v>
       </c>
       <c r="J33" s="3">
+        <v>762500</v>
+      </c>
+      <c r="K33" s="3">
         <v>434900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>835500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>316400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>864700</v>
+        <v>942200</v>
       </c>
       <c r="E35" s="3">
-        <v>877700</v>
+        <v>885000</v>
       </c>
       <c r="F35" s="3">
-        <v>799900</v>
+        <v>898300</v>
       </c>
       <c r="G35" s="3">
-        <v>759000</v>
+        <v>818700</v>
       </c>
       <c r="H35" s="3">
-        <v>743100</v>
+        <v>776800</v>
       </c>
       <c r="I35" s="3">
-        <v>745100</v>
+        <v>760500</v>
       </c>
       <c r="J35" s="3">
+        <v>762500</v>
+      </c>
+      <c r="K35" s="3">
         <v>434900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>835500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>316400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,323 +1793,351 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1575900</v>
+        <v>1637400</v>
       </c>
       <c r="E41" s="3">
-        <v>1335500</v>
+        <v>1612900</v>
       </c>
       <c r="F41" s="3">
-        <v>1894100</v>
+        <v>1366900</v>
       </c>
       <c r="G41" s="3">
-        <v>1519000</v>
+        <v>1938500</v>
       </c>
       <c r="H41" s="3">
-        <v>1820300</v>
+        <v>1554700</v>
       </c>
       <c r="I41" s="3">
-        <v>2232200</v>
+        <v>1863000</v>
       </c>
       <c r="J41" s="3">
+        <v>2284600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1351500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1606700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>852000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5575600</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>132700</v>
+        <v>354200</v>
       </c>
       <c r="E42" s="3">
-        <v>105700</v>
+        <v>135800</v>
       </c>
       <c r="F42" s="3">
-        <v>173500</v>
+        <v>108200</v>
       </c>
       <c r="G42" s="3">
-        <v>141600</v>
+        <v>177600</v>
       </c>
       <c r="H42" s="3">
-        <v>44900</v>
+        <v>145000</v>
       </c>
       <c r="I42" s="3">
-        <v>59800</v>
+        <v>45900</v>
       </c>
       <c r="J42" s="3">
+        <v>61200</v>
+      </c>
+      <c r="K42" s="3">
         <v>124700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>88200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>62200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4854300</v>
+        <v>4895800</v>
       </c>
       <c r="E43" s="3">
-        <v>4692800</v>
+        <v>4968200</v>
       </c>
       <c r="F43" s="3">
-        <v>4333700</v>
+        <v>4802900</v>
       </c>
       <c r="G43" s="3">
-        <v>4196100</v>
+        <v>4435400</v>
       </c>
       <c r="H43" s="3">
-        <v>4113300</v>
+        <v>4294500</v>
       </c>
       <c r="I43" s="3">
-        <v>4215000</v>
+        <v>4209800</v>
       </c>
       <c r="J43" s="3">
+        <v>4313900</v>
+      </c>
+      <c r="K43" s="3">
         <v>3899800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4253300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4617800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4107300</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4462400</v>
+        <v>4961100</v>
       </c>
       <c r="E44" s="3">
-        <v>4132200</v>
+        <v>4567100</v>
       </c>
       <c r="F44" s="3">
-        <v>3889900</v>
+        <v>4229200</v>
       </c>
       <c r="G44" s="3">
-        <v>3750200</v>
+        <v>3981100</v>
       </c>
       <c r="H44" s="3">
-        <v>3554700</v>
+        <v>3838200</v>
       </c>
       <c r="I44" s="3">
-        <v>3453000</v>
+        <v>3638100</v>
       </c>
       <c r="J44" s="3">
+        <v>3534000</v>
+      </c>
+      <c r="K44" s="3">
         <v>3285400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3557900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3645800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3420000</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1358500</v>
+        <v>1363800</v>
       </c>
       <c r="E45" s="3">
-        <v>789900</v>
+        <v>1390300</v>
       </c>
       <c r="F45" s="3">
-        <v>662300</v>
+        <v>808500</v>
       </c>
       <c r="G45" s="3">
-        <v>681200</v>
+        <v>677800</v>
       </c>
       <c r="H45" s="3">
-        <v>622400</v>
+        <v>697200</v>
       </c>
       <c r="I45" s="3">
-        <v>629400</v>
+        <v>637000</v>
       </c>
       <c r="J45" s="3">
+        <v>644100</v>
+      </c>
+      <c r="K45" s="3">
         <v>594500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1140700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>643600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1344000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12383700</v>
+        <v>13212200</v>
       </c>
       <c r="E46" s="3">
-        <v>11056200</v>
+        <v>12674300</v>
       </c>
       <c r="F46" s="3">
-        <v>10953400</v>
+        <v>11315600</v>
       </c>
       <c r="G46" s="3">
-        <v>10288200</v>
+        <v>11210400</v>
       </c>
       <c r="H46" s="3">
-        <v>10155500</v>
+        <v>10529600</v>
       </c>
       <c r="I46" s="3">
-        <v>10589400</v>
+        <v>10393800</v>
       </c>
       <c r="J46" s="3">
+        <v>10837800</v>
+      </c>
+      <c r="K46" s="3">
         <v>9255900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10646800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9821500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14746900</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>938600</v>
+        <v>1022800</v>
       </c>
       <c r="E47" s="3">
-        <v>937600</v>
+        <v>960600</v>
       </c>
       <c r="F47" s="3">
-        <v>946500</v>
+        <v>959600</v>
       </c>
       <c r="G47" s="3">
-        <v>830800</v>
+        <v>968700</v>
       </c>
       <c r="H47" s="3">
-        <v>781000</v>
+        <v>850300</v>
       </c>
       <c r="I47" s="3">
-        <v>805900</v>
+        <v>799300</v>
       </c>
       <c r="J47" s="3">
+        <v>824800</v>
+      </c>
+      <c r="K47" s="3">
         <v>846800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>707800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>829100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>714500</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7553300</v>
+        <v>8111300</v>
       </c>
       <c r="E48" s="3">
-        <v>7284000</v>
+        <v>7730500</v>
       </c>
       <c r="F48" s="3">
-        <v>7198200</v>
+        <v>7454900</v>
       </c>
       <c r="G48" s="3">
-        <v>6743400</v>
+        <v>7367100</v>
       </c>
       <c r="H48" s="3">
-        <v>6583800</v>
+        <v>6901600</v>
       </c>
       <c r="I48" s="3">
-        <v>6535000</v>
+        <v>6738300</v>
       </c>
       <c r="J48" s="3">
+        <v>6688300</v>
+      </c>
+      <c r="K48" s="3">
         <v>6404300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6255400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6777800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5864700</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26366300</v>
+        <v>28188400</v>
       </c>
       <c r="E49" s="3">
-        <v>25244200</v>
+        <v>26984800</v>
       </c>
       <c r="F49" s="3">
-        <v>24552000</v>
+        <v>25836400</v>
       </c>
       <c r="G49" s="3">
-        <v>24234800</v>
+        <v>25128000</v>
       </c>
       <c r="H49" s="3">
-        <v>23897700</v>
+        <v>24803400</v>
       </c>
       <c r="I49" s="3">
-        <v>24242800</v>
+        <v>24458400</v>
       </c>
       <c r="J49" s="3">
+        <v>24811600</v>
+      </c>
+      <c r="K49" s="3">
         <v>23550600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>25619500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>28708400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>22951700</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1348500</v>
+        <v>1457700</v>
       </c>
       <c r="E52" s="3">
-        <v>1592800</v>
+        <v>1380100</v>
       </c>
       <c r="F52" s="3">
-        <v>1593800</v>
+        <v>1630200</v>
       </c>
       <c r="G52" s="3">
-        <v>1624800</v>
+        <v>1631200</v>
       </c>
       <c r="H52" s="3">
-        <v>1614800</v>
+        <v>1662900</v>
       </c>
       <c r="I52" s="3">
-        <v>1603800</v>
+        <v>1652700</v>
       </c>
       <c r="J52" s="3">
+        <v>1641400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1629800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1639900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1657100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1613500</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>48590300</v>
+        <v>51992400</v>
       </c>
       <c r="E54" s="3">
-        <v>46114800</v>
+        <v>49730300</v>
       </c>
       <c r="F54" s="3">
-        <v>45244100</v>
+        <v>47196700</v>
       </c>
       <c r="G54" s="3">
-        <v>43722000</v>
+        <v>46305500</v>
       </c>
       <c r="H54" s="3">
-        <v>43032800</v>
+        <v>44747800</v>
       </c>
       <c r="I54" s="3">
-        <v>43776900</v>
+        <v>44042400</v>
       </c>
       <c r="J54" s="3">
+        <v>44803900</v>
+      </c>
+      <c r="K54" s="3">
         <v>41687300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44869500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>47793900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>45891300</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,218 +2357,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2449600</v>
+        <v>2495900</v>
       </c>
       <c r="E57" s="3">
-        <v>2349900</v>
+        <v>2507100</v>
       </c>
       <c r="F57" s="3">
-        <v>2373800</v>
+        <v>2405000</v>
       </c>
       <c r="G57" s="3">
-        <v>2126500</v>
+        <v>2429500</v>
       </c>
       <c r="H57" s="3">
-        <v>2101500</v>
+        <v>2176300</v>
       </c>
       <c r="I57" s="3">
-        <v>1932000</v>
+        <v>2150800</v>
       </c>
       <c r="J57" s="3">
+        <v>1977300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1763400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1747800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2240700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1893800</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2411700</v>
+        <v>1821100</v>
       </c>
       <c r="E58" s="3">
-        <v>2338900</v>
+        <v>2468300</v>
       </c>
       <c r="F58" s="3">
-        <v>2524400</v>
+        <v>2393800</v>
       </c>
       <c r="G58" s="3">
-        <v>2762800</v>
+        <v>2583600</v>
       </c>
       <c r="H58" s="3">
-        <v>3269500</v>
+        <v>2827600</v>
       </c>
       <c r="I58" s="3">
-        <v>3338300</v>
+        <v>3346200</v>
       </c>
       <c r="J58" s="3">
+        <v>3416600</v>
+      </c>
+      <c r="K58" s="3">
         <v>2350900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3822600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4963600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4287300</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4831400</v>
+        <v>5290800</v>
       </c>
       <c r="E59" s="3">
-        <v>5491700</v>
+        <v>4944800</v>
       </c>
       <c r="F59" s="3">
-        <v>5506600</v>
+        <v>5620500</v>
       </c>
       <c r="G59" s="3">
-        <v>4878300</v>
+        <v>5635800</v>
       </c>
       <c r="H59" s="3">
-        <v>4423500</v>
+        <v>4992700</v>
       </c>
       <c r="I59" s="3">
-        <v>5354000</v>
+        <v>4527200</v>
       </c>
       <c r="J59" s="3">
+        <v>5479700</v>
+      </c>
+      <c r="K59" s="3">
         <v>5092700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4506600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5714200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4351600</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9692700</v>
+        <v>9607800</v>
       </c>
       <c r="E60" s="3">
-        <v>10180500</v>
+        <v>9920100</v>
       </c>
       <c r="F60" s="3">
-        <v>10404900</v>
+        <v>10419300</v>
       </c>
       <c r="G60" s="3">
-        <v>9767500</v>
+        <v>10649000</v>
       </c>
       <c r="H60" s="3">
-        <v>9794500</v>
+        <v>9996700</v>
       </c>
       <c r="I60" s="3">
-        <v>10624300</v>
+        <v>10024300</v>
       </c>
       <c r="J60" s="3">
+        <v>10873600</v>
+      </c>
+      <c r="K60" s="3">
         <v>9207000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10077000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12918600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10532700</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9360600</v>
+        <v>9458700</v>
       </c>
       <c r="E61" s="3">
-        <v>8264500</v>
+        <v>9580200</v>
       </c>
       <c r="F61" s="3">
-        <v>8248500</v>
+        <v>8458300</v>
       </c>
       <c r="G61" s="3">
-        <v>8173700</v>
+        <v>8442000</v>
       </c>
       <c r="H61" s="3">
-        <v>8698300</v>
+        <v>8365500</v>
       </c>
       <c r="I61" s="3">
-        <v>8977600</v>
+        <v>8902400</v>
       </c>
       <c r="J61" s="3">
+        <v>9188200</v>
+      </c>
+      <c r="K61" s="3">
         <v>9759600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10355100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9429800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9397100</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3575700</v>
+        <v>3999500</v>
       </c>
       <c r="E62" s="3">
-        <v>4739600</v>
+        <v>3659600</v>
       </c>
       <c r="F62" s="3">
-        <v>5230400</v>
+        <v>4850800</v>
       </c>
       <c r="G62" s="3">
-        <v>5155600</v>
+        <v>5353100</v>
       </c>
       <c r="H62" s="3">
-        <v>5229400</v>
+        <v>5276500</v>
       </c>
       <c r="I62" s="3">
-        <v>5241300</v>
+        <v>5352100</v>
       </c>
       <c r="J62" s="3">
+        <v>5364300</v>
+      </c>
+      <c r="K62" s="3">
         <v>5748000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5760300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5902900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6126600</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22702800</v>
+        <v>23144600</v>
       </c>
       <c r="E66" s="3">
-        <v>23255400</v>
+        <v>23235400</v>
       </c>
       <c r="F66" s="3">
-        <v>23961500</v>
+        <v>23801000</v>
       </c>
       <c r="G66" s="3">
-        <v>23168600</v>
+        <v>24523700</v>
       </c>
       <c r="H66" s="3">
-        <v>23790000</v>
+        <v>23712200</v>
       </c>
       <c r="I66" s="3">
-        <v>24910100</v>
+        <v>24348100</v>
       </c>
       <c r="J66" s="3">
+        <v>25494500</v>
+      </c>
+      <c r="K66" s="3">
         <v>24785400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26262000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28303700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26082600</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2674,31 +2842,34 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>405300</v>
+      </c>
+      <c r="H70" s="3">
+        <v>405300</v>
+      </c>
+      <c r="I70" s="3">
+        <v>405300</v>
+      </c>
+      <c r="J70" s="3">
+        <v>405300</v>
+      </c>
+      <c r="K70" s="3">
         <v>396000</v>
       </c>
-      <c r="G70" s="3">
-        <v>396000</v>
-      </c>
-      <c r="H70" s="3">
-        <v>396000</v>
-      </c>
-      <c r="I70" s="3">
-        <v>396000</v>
-      </c>
-      <c r="J70" s="3">
-        <v>396000</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>412000</v>
-      </c>
-      <c r="L70" s="3">
-        <v>433100</v>
       </c>
       <c r="M70" s="3">
         <v>433100</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>433100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21519900</v>
+        <v>24377700</v>
       </c>
       <c r="E72" s="3">
-        <v>18491800</v>
+        <v>22024800</v>
       </c>
       <c r="F72" s="3">
-        <v>16629700</v>
+        <v>18925600</v>
       </c>
       <c r="G72" s="3">
-        <v>16513000</v>
+        <v>17019800</v>
       </c>
       <c r="H72" s="3">
-        <v>15757900</v>
+        <v>16900400</v>
       </c>
       <c r="I72" s="3">
-        <v>15200400</v>
+        <v>16127600</v>
       </c>
       <c r="J72" s="3">
+        <v>15557000</v>
+      </c>
+      <c r="K72" s="3">
         <v>14519200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15095200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14439300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14583300</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>25887500</v>
+        <v>28847800</v>
       </c>
       <c r="E76" s="3">
-        <v>22859400</v>
+        <v>26494900</v>
       </c>
       <c r="F76" s="3">
-        <v>20886600</v>
+        <v>23395700</v>
       </c>
       <c r="G76" s="3">
-        <v>20157500</v>
+        <v>21376600</v>
       </c>
       <c r="H76" s="3">
-        <v>18846900</v>
+        <v>20630400</v>
       </c>
       <c r="I76" s="3">
-        <v>18470900</v>
+        <v>19289000</v>
       </c>
       <c r="J76" s="3">
+        <v>18904200</v>
+      </c>
+      <c r="K76" s="3">
         <v>16506000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18195400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19057100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19375700</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>864700</v>
+        <v>942200</v>
       </c>
       <c r="E81" s="3">
-        <v>877700</v>
+        <v>885000</v>
       </c>
       <c r="F81" s="3">
-        <v>799900</v>
+        <v>898300</v>
       </c>
       <c r="G81" s="3">
-        <v>759000</v>
+        <v>818700</v>
       </c>
       <c r="H81" s="3">
-        <v>743100</v>
+        <v>776800</v>
       </c>
       <c r="I81" s="3">
-        <v>745100</v>
+        <v>760500</v>
       </c>
       <c r="J81" s="3">
+        <v>762500</v>
+      </c>
+      <c r="K81" s="3">
         <v>434900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>835500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>316400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,31 +3230,32 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>530600</v>
+        <v>479800</v>
       </c>
       <c r="E83" s="3">
-        <v>428900</v>
+        <v>543100</v>
       </c>
       <c r="F83" s="3">
-        <v>473800</v>
+        <v>438900</v>
       </c>
       <c r="G83" s="3">
-        <v>442800</v>
+        <v>484900</v>
       </c>
       <c r="H83" s="3">
-        <v>417900</v>
+        <v>453200</v>
       </c>
       <c r="I83" s="3">
-        <v>422900</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>16</v>
+        <v>427700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>432800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>16</v>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,31 +3456,34 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>849800</v>
+        <v>1584300</v>
       </c>
       <c r="E89" s="3">
-        <v>837800</v>
+        <v>869700</v>
       </c>
       <c r="F89" s="3">
-        <v>1042300</v>
+        <v>857500</v>
       </c>
       <c r="G89" s="3">
-        <v>1463200</v>
+        <v>1066700</v>
       </c>
       <c r="H89" s="3">
-        <v>885700</v>
+        <v>1497500</v>
       </c>
       <c r="I89" s="3">
-        <v>1212800</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>16</v>
+        <v>906500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1241300</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>16</v>
@@ -3277,8 +3494,11 @@
       <c r="M89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,31 +3512,32 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-246400</v>
+        <v>-396100</v>
       </c>
       <c r="E91" s="3">
-        <v>-428900</v>
+        <v>-252100</v>
       </c>
       <c r="F91" s="3">
-        <v>-197500</v>
+        <v>-438900</v>
       </c>
       <c r="G91" s="3">
-        <v>-298200</v>
+        <v>-202100</v>
       </c>
       <c r="H91" s="3">
-        <v>-253300</v>
+        <v>-305200</v>
       </c>
       <c r="I91" s="3">
-        <v>-314200</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>16</v>
+        <v>-259300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-321600</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>16</v>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,31 +3624,34 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-784000</v>
+        <v>-634900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1086200</v>
+        <v>-802300</v>
       </c>
       <c r="F94" s="3">
-        <v>-351100</v>
+        <v>-1111700</v>
       </c>
       <c r="G94" s="3">
-        <v>-637300</v>
+        <v>-359300</v>
       </c>
       <c r="H94" s="3">
-        <v>-240400</v>
+        <v>-652300</v>
       </c>
       <c r="I94" s="3">
-        <v>-345100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>16</v>
+        <v>-246000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-353200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>16</v>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,16 +3680,17 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-238400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-244000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3465,10 +3699,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-180500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-184800</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,31 +3830,34 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>166600</v>
+        <v>-927900</v>
       </c>
       <c r="E100" s="3">
-        <v>-314200</v>
+        <v>170500</v>
       </c>
       <c r="F100" s="3">
-        <v>-319200</v>
+        <v>-321600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1127100</v>
+        <v>-326700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1057200</v>
+        <v>-1153500</v>
       </c>
       <c r="I100" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>16</v>
+        <v>-1082000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>6100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>16</v>
@@ -3622,31 +3868,34 @@
       <c r="M100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7000</v>
+        <v>4100</v>
       </c>
       <c r="E101" s="3">
-        <v>4000</v>
+        <v>7100</v>
       </c>
       <c r="F101" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
-        <v>7000</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>16</v>
+      <c r="J101" s="3">
+        <v>7100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>16</v>
@@ -3657,31 +3906,34 @@
       <c r="M101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>239400</v>
+        <v>25500</v>
       </c>
       <c r="E102" s="3">
-        <v>-558500</v>
+        <v>245000</v>
       </c>
       <c r="F102" s="3">
-        <v>374000</v>
+        <v>-571600</v>
       </c>
       <c r="G102" s="3">
-        <v>-300200</v>
+        <v>382800</v>
       </c>
       <c r="H102" s="3">
-        <v>-412900</v>
+        <v>-307300</v>
       </c>
       <c r="I102" s="3">
-        <v>880700</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>16</v>
+        <v>-422600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>901400</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>16</v>
@@ -3690,6 +3942,9 @@
         <v>16</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MKKGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MKKGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>MKKGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5926800</v>
+        <v>5988300</v>
       </c>
       <c r="E8" s="3">
-        <v>5683800</v>
+        <v>6142700</v>
       </c>
       <c r="F8" s="3">
-        <v>5306100</v>
+        <v>5890900</v>
       </c>
       <c r="G8" s="3">
-        <v>5321400</v>
+        <v>5499500</v>
       </c>
       <c r="H8" s="3">
-        <v>5076400</v>
+        <v>5515400</v>
       </c>
       <c r="I8" s="3">
-        <v>4971300</v>
+        <v>5261400</v>
       </c>
       <c r="J8" s="3">
+        <v>5152500</v>
+      </c>
+      <c r="K8" s="3">
         <v>4727300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4586000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4615500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4493500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4767300</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2191700</v>
+        <v>2416500</v>
       </c>
       <c r="E9" s="3">
-        <v>2152900</v>
+        <v>2271500</v>
       </c>
       <c r="F9" s="3">
-        <v>2028300</v>
+        <v>2231300</v>
       </c>
       <c r="G9" s="3">
-        <v>1999700</v>
+        <v>2102200</v>
       </c>
       <c r="H9" s="3">
-        <v>1897700</v>
+        <v>2072600</v>
       </c>
       <c r="I9" s="3">
-        <v>1850700</v>
+        <v>1966800</v>
       </c>
       <c r="J9" s="3">
+        <v>1918200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1756800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1790300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1843300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1756400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1804400</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3735100</v>
+        <v>3571800</v>
       </c>
       <c r="E10" s="3">
-        <v>3530900</v>
+        <v>3871200</v>
       </c>
       <c r="F10" s="3">
-        <v>3277800</v>
+        <v>3659600</v>
       </c>
       <c r="G10" s="3">
-        <v>3321700</v>
+        <v>3397200</v>
       </c>
       <c r="H10" s="3">
-        <v>3178800</v>
+        <v>3442700</v>
       </c>
       <c r="I10" s="3">
-        <v>3120600</v>
+        <v>3294600</v>
       </c>
       <c r="J10" s="3">
+        <v>3234300</v>
+      </c>
+      <c r="K10" s="3">
         <v>2970500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2795700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2772200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2737100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2962900</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>655400</v>
+        <v>734300</v>
       </c>
       <c r="E12" s="3">
-        <v>612500</v>
+        <v>679200</v>
       </c>
       <c r="F12" s="3">
-        <v>598200</v>
+        <v>634800</v>
       </c>
       <c r="G12" s="3">
-        <v>602300</v>
+        <v>620000</v>
       </c>
       <c r="H12" s="3">
-        <v>673700</v>
+        <v>624200</v>
       </c>
       <c r="I12" s="3">
-        <v>597200</v>
+        <v>698300</v>
       </c>
       <c r="J12" s="3">
+        <v>618900</v>
+      </c>
+      <c r="K12" s="3">
         <v>585900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>656300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>551100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>567300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>631600</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,46 +946,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-6100</v>
+        <v>-1100</v>
       </c>
       <c r="E14" s="3">
-        <v>9200</v>
+        <v>-6300</v>
       </c>
       <c r="F14" s="3">
-        <v>5100</v>
+        <v>9500</v>
       </c>
       <c r="G14" s="3">
-        <v>-6100</v>
+        <v>5300</v>
       </c>
       <c r="H14" s="3">
-        <v>-1000</v>
+        <v>-6300</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>6100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4667100</v>
+        <v>5047700</v>
       </c>
       <c r="E17" s="3">
-        <v>4482300</v>
+        <v>4837200</v>
       </c>
       <c r="F17" s="3">
-        <v>4108700</v>
+        <v>4645700</v>
       </c>
       <c r="G17" s="3">
-        <v>4260800</v>
+        <v>4258500</v>
       </c>
       <c r="H17" s="3">
-        <v>4007700</v>
+        <v>4416100</v>
       </c>
       <c r="I17" s="3">
-        <v>3900500</v>
+        <v>4153700</v>
       </c>
       <c r="J17" s="3">
+        <v>4042600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3662600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3976600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3404300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3957800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3986200</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1259700</v>
+        <v>940600</v>
       </c>
       <c r="E18" s="3">
-        <v>1201500</v>
+        <v>1305600</v>
       </c>
       <c r="F18" s="3">
-        <v>1197400</v>
+        <v>1245300</v>
       </c>
       <c r="G18" s="3">
-        <v>1060600</v>
+        <v>1241000</v>
       </c>
       <c r="H18" s="3">
-        <v>1068800</v>
+        <v>1099300</v>
       </c>
       <c r="I18" s="3">
-        <v>1070800</v>
+        <v>1107700</v>
       </c>
       <c r="J18" s="3">
+        <v>1109800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1064700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>609400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1211200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>535600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>781100</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1111,72 +1143,76 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-48000</v>
+        <v>-52900</v>
       </c>
       <c r="E20" s="3">
-        <v>-56100</v>
+        <v>-49700</v>
       </c>
       <c r="F20" s="3">
-        <v>-34700</v>
+        <v>-58200</v>
       </c>
       <c r="G20" s="3">
-        <v>-48000</v>
+        <v>-36000</v>
       </c>
       <c r="H20" s="3">
-        <v>-55100</v>
+        <v>-49700</v>
       </c>
       <c r="I20" s="3">
-        <v>-96000</v>
+        <v>-57100</v>
       </c>
       <c r="J20" s="3">
+        <v>-99500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-60200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-51900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-105900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-111300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-108000</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1691500</v>
+        <v>1520300</v>
       </c>
       <c r="E21" s="3">
-        <v>1688400</v>
+        <v>1753100</v>
       </c>
       <c r="F21" s="3">
-        <v>1601600</v>
+        <v>1749900</v>
       </c>
       <c r="G21" s="3">
-        <v>1497500</v>
+        <v>1660000</v>
       </c>
       <c r="H21" s="3">
-        <v>1466900</v>
+        <v>1552100</v>
       </c>
       <c r="I21" s="3">
-        <v>1402600</v>
+        <v>1520300</v>
       </c>
       <c r="J21" s="3">
+        <v>1453700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1437300</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
@@ -1187,8 +1223,11 @@
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1264,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1211700</v>
+        <v>887700</v>
       </c>
       <c r="E23" s="3">
-        <v>1145300</v>
+        <v>1255800</v>
       </c>
       <c r="F23" s="3">
-        <v>1162700</v>
+        <v>1187100</v>
       </c>
       <c r="G23" s="3">
-        <v>1012600</v>
+        <v>1205100</v>
       </c>
       <c r="H23" s="3">
-        <v>1013700</v>
+        <v>1049500</v>
       </c>
       <c r="I23" s="3">
-        <v>974900</v>
+        <v>1050600</v>
       </c>
       <c r="J23" s="3">
+        <v>1010400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1004500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>557500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1105400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>424400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>673100</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>266400</v>
+        <v>190400</v>
       </c>
       <c r="E24" s="3">
-        <v>257200</v>
+        <v>276100</v>
       </c>
       <c r="F24" s="3">
-        <v>260300</v>
+        <v>266600</v>
       </c>
       <c r="G24" s="3">
-        <v>189900</v>
+        <v>269800</v>
       </c>
       <c r="H24" s="3">
-        <v>233800</v>
+        <v>196800</v>
       </c>
       <c r="I24" s="3">
-        <v>212300</v>
+        <v>242300</v>
       </c>
       <c r="J24" s="3">
+        <v>220100</v>
+      </c>
+      <c r="K24" s="3">
         <v>240900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>118700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>267800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>109100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>173500</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>945300</v>
+        <v>697200</v>
       </c>
       <c r="E26" s="3">
-        <v>888100</v>
+        <v>979700</v>
       </c>
       <c r="F26" s="3">
-        <v>902400</v>
+        <v>920500</v>
       </c>
       <c r="G26" s="3">
-        <v>822800</v>
+        <v>935300</v>
       </c>
       <c r="H26" s="3">
-        <v>779900</v>
+        <v>852700</v>
       </c>
       <c r="I26" s="3">
-        <v>762500</v>
+        <v>808300</v>
       </c>
       <c r="J26" s="3">
+        <v>790300</v>
+      </c>
+      <c r="K26" s="3">
         <v>763600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>438900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>837600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>315300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>499600</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>942200</v>
+        <v>693000</v>
       </c>
       <c r="E27" s="3">
-        <v>885000</v>
+        <v>976500</v>
       </c>
       <c r="F27" s="3">
-        <v>898300</v>
+        <v>917300</v>
       </c>
       <c r="G27" s="3">
-        <v>818700</v>
+        <v>931000</v>
       </c>
       <c r="H27" s="3">
-        <v>776800</v>
+        <v>848500</v>
       </c>
       <c r="I27" s="3">
-        <v>760500</v>
+        <v>805100</v>
       </c>
       <c r="J27" s="3">
+        <v>788200</v>
+      </c>
+      <c r="K27" s="3">
         <v>762500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>434900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>835500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>316400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1479,8 +1539,8 @@
       <c r="J29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1488,11 +1548,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>48000</v>
+        <v>52900</v>
       </c>
       <c r="E32" s="3">
-        <v>56100</v>
+        <v>49700</v>
       </c>
       <c r="F32" s="3">
-        <v>34700</v>
+        <v>58200</v>
       </c>
       <c r="G32" s="3">
-        <v>48000</v>
+        <v>36000</v>
       </c>
       <c r="H32" s="3">
-        <v>55100</v>
+        <v>49700</v>
       </c>
       <c r="I32" s="3">
-        <v>96000</v>
+        <v>57100</v>
       </c>
       <c r="J32" s="3">
+        <v>99500</v>
+      </c>
+      <c r="K32" s="3">
         <v>60200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>51900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>105900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>111300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>942200</v>
+        <v>693000</v>
       </c>
       <c r="E33" s="3">
-        <v>885000</v>
+        <v>976500</v>
       </c>
       <c r="F33" s="3">
-        <v>898300</v>
+        <v>917300</v>
       </c>
       <c r="G33" s="3">
-        <v>818700</v>
+        <v>931000</v>
       </c>
       <c r="H33" s="3">
-        <v>776800</v>
+        <v>848500</v>
       </c>
       <c r="I33" s="3">
-        <v>760500</v>
+        <v>805100</v>
       </c>
       <c r="J33" s="3">
+        <v>788200</v>
+      </c>
+      <c r="K33" s="3">
         <v>762500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>434900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>835500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>316400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>942200</v>
+        <v>693000</v>
       </c>
       <c r="E35" s="3">
-        <v>885000</v>
+        <v>976500</v>
       </c>
       <c r="F35" s="3">
-        <v>898300</v>
+        <v>917300</v>
       </c>
       <c r="G35" s="3">
-        <v>818700</v>
+        <v>931000</v>
       </c>
       <c r="H35" s="3">
-        <v>776800</v>
+        <v>848500</v>
       </c>
       <c r="I35" s="3">
-        <v>760500</v>
+        <v>805100</v>
       </c>
       <c r="J35" s="3">
+        <v>788200</v>
+      </c>
+      <c r="K35" s="3">
         <v>762500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>434900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>835500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>316400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,350 +1879,378 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1637400</v>
+        <v>1961500</v>
       </c>
       <c r="E41" s="3">
-        <v>1612900</v>
+        <v>1697000</v>
       </c>
       <c r="F41" s="3">
-        <v>1366900</v>
+        <v>1671600</v>
       </c>
       <c r="G41" s="3">
-        <v>1938500</v>
+        <v>1416700</v>
       </c>
       <c r="H41" s="3">
-        <v>1554700</v>
+        <v>2009100</v>
       </c>
       <c r="I41" s="3">
-        <v>1863000</v>
+        <v>1611300</v>
       </c>
       <c r="J41" s="3">
+        <v>1930900</v>
+      </c>
+      <c r="K41" s="3">
         <v>2284600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1351500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1606700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>852000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5575600</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>354200</v>
+        <v>339600</v>
       </c>
       <c r="E42" s="3">
-        <v>135800</v>
+        <v>367100</v>
       </c>
       <c r="F42" s="3">
-        <v>108200</v>
+        <v>140700</v>
       </c>
       <c r="G42" s="3">
-        <v>177600</v>
+        <v>112100</v>
       </c>
       <c r="H42" s="3">
-        <v>145000</v>
+        <v>184100</v>
       </c>
       <c r="I42" s="3">
-        <v>45900</v>
+        <v>150200</v>
       </c>
       <c r="J42" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K42" s="3">
         <v>61200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>124700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>88200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>62200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4895800</v>
+        <v>4959900</v>
       </c>
       <c r="E43" s="3">
-        <v>4968200</v>
+        <v>5074200</v>
       </c>
       <c r="F43" s="3">
-        <v>4802900</v>
+        <v>5149300</v>
       </c>
       <c r="G43" s="3">
-        <v>4435400</v>
+        <v>4977900</v>
       </c>
       <c r="H43" s="3">
-        <v>4294500</v>
+        <v>4597000</v>
       </c>
       <c r="I43" s="3">
-        <v>4209800</v>
+        <v>4451000</v>
       </c>
       <c r="J43" s="3">
+        <v>4363200</v>
+      </c>
+      <c r="K43" s="3">
         <v>4313900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3899800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4253300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4617800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4107300</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4961100</v>
+        <v>4900700</v>
       </c>
       <c r="E44" s="3">
-        <v>4567100</v>
+        <v>5141900</v>
       </c>
       <c r="F44" s="3">
-        <v>4229200</v>
+        <v>4733500</v>
       </c>
       <c r="G44" s="3">
-        <v>3981100</v>
+        <v>4383300</v>
       </c>
       <c r="H44" s="3">
-        <v>3838200</v>
+        <v>4126200</v>
       </c>
       <c r="I44" s="3">
-        <v>3638100</v>
+        <v>3978100</v>
       </c>
       <c r="J44" s="3">
+        <v>3770700</v>
+      </c>
+      <c r="K44" s="3">
         <v>3534000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3285400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3557900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3645800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3420000</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1363800</v>
+        <v>746900</v>
       </c>
       <c r="E45" s="3">
-        <v>1390300</v>
+        <v>1413500</v>
       </c>
       <c r="F45" s="3">
-        <v>808500</v>
+        <v>1441000</v>
       </c>
       <c r="G45" s="3">
-        <v>677800</v>
+        <v>837900</v>
       </c>
       <c r="H45" s="3">
-        <v>697200</v>
+        <v>702500</v>
       </c>
       <c r="I45" s="3">
-        <v>637000</v>
+        <v>722600</v>
       </c>
       <c r="J45" s="3">
+        <v>660200</v>
+      </c>
+      <c r="K45" s="3">
         <v>644100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>594500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1140700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>643600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1344000</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13212200</v>
+        <v>12908700</v>
       </c>
       <c r="E46" s="3">
-        <v>12674300</v>
+        <v>13693700</v>
       </c>
       <c r="F46" s="3">
-        <v>11315600</v>
+        <v>13136100</v>
       </c>
       <c r="G46" s="3">
-        <v>11210400</v>
+        <v>11727900</v>
       </c>
       <c r="H46" s="3">
-        <v>10529600</v>
+        <v>11619000</v>
       </c>
       <c r="I46" s="3">
-        <v>10393800</v>
+        <v>10913300</v>
       </c>
       <c r="J46" s="3">
+        <v>10772600</v>
+      </c>
+      <c r="K46" s="3">
         <v>10837800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9255900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10646800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9821500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14746900</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1022800</v>
+        <v>1054800</v>
       </c>
       <c r="E47" s="3">
-        <v>960600</v>
+        <v>1060100</v>
       </c>
       <c r="F47" s="3">
-        <v>959600</v>
+        <v>995600</v>
       </c>
       <c r="G47" s="3">
-        <v>968700</v>
+        <v>994500</v>
       </c>
       <c r="H47" s="3">
-        <v>850300</v>
+        <v>1004000</v>
       </c>
       <c r="I47" s="3">
-        <v>799300</v>
+        <v>881300</v>
       </c>
       <c r="J47" s="3">
+        <v>828400</v>
+      </c>
+      <c r="K47" s="3">
         <v>824800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>846800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>707800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>829100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>714500</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8111300</v>
+        <v>8678800</v>
       </c>
       <c r="E48" s="3">
-        <v>7730500</v>
+        <v>8406900</v>
       </c>
       <c r="F48" s="3">
-        <v>7454900</v>
+        <v>8012200</v>
       </c>
       <c r="G48" s="3">
-        <v>7367100</v>
+        <v>7726600</v>
       </c>
       <c r="H48" s="3">
-        <v>6901600</v>
+        <v>7635600</v>
       </c>
       <c r="I48" s="3">
-        <v>6738300</v>
+        <v>7153100</v>
       </c>
       <c r="J48" s="3">
+        <v>6983900</v>
+      </c>
+      <c r="K48" s="3">
         <v>6688300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6404300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6255400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6777800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5864700</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28188400</v>
+        <v>27208600</v>
       </c>
       <c r="E49" s="3">
-        <v>26984800</v>
+        <v>29215600</v>
       </c>
       <c r="F49" s="3">
-        <v>25836400</v>
+        <v>27968200</v>
       </c>
       <c r="G49" s="3">
-        <v>25128000</v>
+        <v>26778000</v>
       </c>
       <c r="H49" s="3">
-        <v>24803400</v>
+        <v>26043700</v>
       </c>
       <c r="I49" s="3">
-        <v>24458400</v>
+        <v>25707300</v>
       </c>
       <c r="J49" s="3">
+        <v>25349700</v>
+      </c>
+      <c r="K49" s="3">
         <v>24811600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23550600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>25619500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>28708400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>22951700</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1457700</v>
+        <v>1489700</v>
       </c>
       <c r="E52" s="3">
-        <v>1380100</v>
+        <v>1510800</v>
       </c>
       <c r="F52" s="3">
-        <v>1630200</v>
+        <v>1430400</v>
       </c>
       <c r="G52" s="3">
-        <v>1631200</v>
+        <v>1689600</v>
       </c>
       <c r="H52" s="3">
-        <v>1662900</v>
+        <v>1690700</v>
       </c>
       <c r="I52" s="3">
-        <v>1652700</v>
+        <v>1723500</v>
       </c>
       <c r="J52" s="3">
+        <v>1712900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1641400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1629800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1639900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1657100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1613500</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>51992400</v>
+        <v>51340500</v>
       </c>
       <c r="E54" s="3">
-        <v>49730300</v>
+        <v>53887100</v>
       </c>
       <c r="F54" s="3">
-        <v>47196700</v>
+        <v>51542600</v>
       </c>
       <c r="G54" s="3">
-        <v>46305500</v>
+        <v>48916600</v>
       </c>
       <c r="H54" s="3">
-        <v>44747800</v>
+        <v>47993000</v>
       </c>
       <c r="I54" s="3">
-        <v>44042400</v>
+        <v>46378500</v>
       </c>
       <c r="J54" s="3">
+        <v>45647400</v>
+      </c>
+      <c r="K54" s="3">
         <v>44803900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41687300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44869500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>47793900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>45891300</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,236 +2487,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2495900</v>
+        <v>2642900</v>
       </c>
       <c r="E57" s="3">
-        <v>2507100</v>
+        <v>2586800</v>
       </c>
       <c r="F57" s="3">
-        <v>2405000</v>
+        <v>2598400</v>
       </c>
       <c r="G57" s="3">
-        <v>2429500</v>
+        <v>2492600</v>
       </c>
       <c r="H57" s="3">
-        <v>2176300</v>
+        <v>2518000</v>
       </c>
       <c r="I57" s="3">
-        <v>2150800</v>
+        <v>2255700</v>
       </c>
       <c r="J57" s="3">
+        <v>2229200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1977300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1763400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1747800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2240700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1893800</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1821100</v>
+        <v>1267500</v>
       </c>
       <c r="E58" s="3">
-        <v>2468300</v>
+        <v>1855700</v>
       </c>
       <c r="F58" s="3">
-        <v>2393800</v>
+        <v>2538100</v>
       </c>
       <c r="G58" s="3">
-        <v>2583600</v>
+        <v>2459900</v>
       </c>
       <c r="H58" s="3">
-        <v>2827600</v>
+        <v>2677800</v>
       </c>
       <c r="I58" s="3">
-        <v>3346200</v>
+        <v>2930700</v>
       </c>
       <c r="J58" s="3">
+        <v>3468100</v>
+      </c>
+      <c r="K58" s="3">
         <v>3416600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2350900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3822600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4963600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4287300</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5290800</v>
+        <v>6154400</v>
       </c>
       <c r="E59" s="3">
-        <v>4944800</v>
+        <v>5515400</v>
       </c>
       <c r="F59" s="3">
-        <v>5620500</v>
+        <v>5145100</v>
       </c>
       <c r="G59" s="3">
-        <v>5635800</v>
+        <v>5846500</v>
       </c>
       <c r="H59" s="3">
-        <v>4992700</v>
+        <v>5841200</v>
       </c>
       <c r="I59" s="3">
-        <v>4527200</v>
+        <v>5174700</v>
       </c>
       <c r="J59" s="3">
+        <v>4692200</v>
+      </c>
+      <c r="K59" s="3">
         <v>5479700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5092700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4506600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5714200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4351600</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9607800</v>
+        <v>10064800</v>
       </c>
       <c r="E60" s="3">
-        <v>9920100</v>
+        <v>9957900</v>
       </c>
       <c r="F60" s="3">
-        <v>10419300</v>
+        <v>10281600</v>
       </c>
       <c r="G60" s="3">
-        <v>10649000</v>
+        <v>10799000</v>
       </c>
       <c r="H60" s="3">
-        <v>9996700</v>
+        <v>11037100</v>
       </c>
       <c r="I60" s="3">
-        <v>10024300</v>
+        <v>10361000</v>
       </c>
       <c r="J60" s="3">
+        <v>10389600</v>
+      </c>
+      <c r="K60" s="3">
         <v>10873600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9207000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10077000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12918600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10532700</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9458700</v>
+        <v>9733600</v>
       </c>
       <c r="E61" s="3">
-        <v>9580200</v>
+        <v>9803400</v>
       </c>
       <c r="F61" s="3">
-        <v>8458300</v>
+        <v>9929300</v>
       </c>
       <c r="G61" s="3">
-        <v>8442000</v>
+        <v>8766600</v>
       </c>
       <c r="H61" s="3">
-        <v>8365500</v>
+        <v>8749700</v>
       </c>
       <c r="I61" s="3">
-        <v>8902400</v>
+        <v>8670300</v>
       </c>
       <c r="J61" s="3">
+        <v>9226800</v>
+      </c>
+      <c r="K61" s="3">
         <v>9188200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9759600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10355100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9429800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9397100</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3999500</v>
+        <v>4028900</v>
       </c>
       <c r="E62" s="3">
-        <v>3659600</v>
+        <v>4145200</v>
       </c>
       <c r="F62" s="3">
-        <v>4850800</v>
+        <v>3792900</v>
       </c>
       <c r="G62" s="3">
-        <v>5353100</v>
+        <v>5027600</v>
       </c>
       <c r="H62" s="3">
-        <v>5276500</v>
+        <v>5548200</v>
       </c>
       <c r="I62" s="3">
-        <v>5352100</v>
+        <v>5468800</v>
       </c>
       <c r="J62" s="3">
+        <v>5547100</v>
+      </c>
+      <c r="K62" s="3">
         <v>5364300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5748000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5760300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5902900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6126600</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23144600</v>
+        <v>23909700</v>
       </c>
       <c r="E66" s="3">
-        <v>23235400</v>
+        <v>23988000</v>
       </c>
       <c r="F66" s="3">
-        <v>23801000</v>
+        <v>24082200</v>
       </c>
       <c r="G66" s="3">
-        <v>24523700</v>
+        <v>24668300</v>
       </c>
       <c r="H66" s="3">
-        <v>23712200</v>
+        <v>25417400</v>
       </c>
       <c r="I66" s="3">
-        <v>24348100</v>
+        <v>24576300</v>
       </c>
       <c r="J66" s="3">
+        <v>25235400</v>
+      </c>
+      <c r="K66" s="3">
         <v>25494500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>24785400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26262000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>28303700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>26082600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,13 +2994,16 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>420000</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2845,31 +3012,34 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>420000</v>
+      </c>
+      <c r="I70" s="3">
+        <v>420000</v>
+      </c>
+      <c r="J70" s="3">
+        <v>420000</v>
+      </c>
+      <c r="K70" s="3">
         <v>405300</v>
       </c>
-      <c r="H70" s="3">
-        <v>405300</v>
-      </c>
-      <c r="I70" s="3">
-        <v>405300</v>
-      </c>
-      <c r="J70" s="3">
-        <v>405300</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>396000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>412000</v>
-      </c>
-      <c r="M70" s="3">
-        <v>433100</v>
       </c>
       <c r="N70" s="3">
         <v>433100</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>433100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24377700</v>
+        <v>19958100</v>
       </c>
       <c r="E72" s="3">
-        <v>22024800</v>
+        <v>25266100</v>
       </c>
       <c r="F72" s="3">
-        <v>18925600</v>
+        <v>22827400</v>
       </c>
       <c r="G72" s="3">
-        <v>17019800</v>
+        <v>19615300</v>
       </c>
       <c r="H72" s="3">
-        <v>16900400</v>
+        <v>17640000</v>
       </c>
       <c r="I72" s="3">
-        <v>16127600</v>
+        <v>17516200</v>
       </c>
       <c r="J72" s="3">
+        <v>16715300</v>
+      </c>
+      <c r="K72" s="3">
         <v>15557000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14519200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15095200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14439300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14583300</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28847800</v>
+        <v>27010700</v>
       </c>
       <c r="E76" s="3">
-        <v>26494900</v>
+        <v>29899100</v>
       </c>
       <c r="F76" s="3">
-        <v>23395700</v>
+        <v>27460400</v>
       </c>
       <c r="G76" s="3">
-        <v>21376600</v>
+        <v>24248300</v>
       </c>
       <c r="H76" s="3">
-        <v>20630400</v>
+        <v>22155600</v>
       </c>
       <c r="I76" s="3">
-        <v>19289000</v>
+        <v>21382200</v>
       </c>
       <c r="J76" s="3">
+        <v>19992000</v>
+      </c>
+      <c r="K76" s="3">
         <v>18904200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16506000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18195400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19057100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19375700</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>942200</v>
+        <v>693000</v>
       </c>
       <c r="E81" s="3">
-        <v>885000</v>
+        <v>976500</v>
       </c>
       <c r="F81" s="3">
-        <v>898300</v>
+        <v>917300</v>
       </c>
       <c r="G81" s="3">
-        <v>818700</v>
+        <v>931000</v>
       </c>
       <c r="H81" s="3">
-        <v>776800</v>
+        <v>848500</v>
       </c>
       <c r="I81" s="3">
-        <v>760500</v>
+        <v>805100</v>
       </c>
       <c r="J81" s="3">
+        <v>788200</v>
+      </c>
+      <c r="K81" s="3">
         <v>762500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>434900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>835500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>316400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,34 +3428,35 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>479800</v>
+        <v>632700</v>
       </c>
       <c r="E83" s="3">
-        <v>543100</v>
+        <v>497300</v>
       </c>
       <c r="F83" s="3">
-        <v>438900</v>
+        <v>562900</v>
       </c>
       <c r="G83" s="3">
-        <v>484900</v>
+        <v>454900</v>
       </c>
       <c r="H83" s="3">
-        <v>453200</v>
+        <v>502600</v>
       </c>
       <c r="I83" s="3">
-        <v>427700</v>
+        <v>469800</v>
       </c>
       <c r="J83" s="3">
+        <v>443300</v>
+      </c>
+      <c r="K83" s="3">
         <v>432800</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>16</v>
@@ -3269,8 +3467,11 @@
       <c r="N83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,34 +3672,37 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1584300</v>
+        <v>1073900</v>
       </c>
       <c r="E89" s="3">
-        <v>869700</v>
+        <v>1642000</v>
       </c>
       <c r="F89" s="3">
-        <v>857500</v>
+        <v>901400</v>
       </c>
       <c r="G89" s="3">
-        <v>1066700</v>
+        <v>888700</v>
       </c>
       <c r="H89" s="3">
-        <v>1497500</v>
+        <v>1105600</v>
       </c>
       <c r="I89" s="3">
-        <v>906500</v>
+        <v>1552100</v>
       </c>
       <c r="J89" s="3">
+        <v>939500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1241300</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>16</v>
@@ -3497,8 +3713,11 @@
       <c r="N89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,34 +3732,35 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-396100</v>
+        <v>-493000</v>
       </c>
       <c r="E91" s="3">
-        <v>-252100</v>
+        <v>-410500</v>
       </c>
       <c r="F91" s="3">
-        <v>-438900</v>
+        <v>-261300</v>
       </c>
       <c r="G91" s="3">
-        <v>-202100</v>
+        <v>-454900</v>
       </c>
       <c r="H91" s="3">
-        <v>-305200</v>
+        <v>-209500</v>
       </c>
       <c r="I91" s="3">
-        <v>-259300</v>
+        <v>-316300</v>
       </c>
       <c r="J91" s="3">
+        <v>-268700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-321600</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>16</v>
@@ -3551,8 +3771,11 @@
       <c r="N91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,34 +3853,37 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-634900</v>
+        <v>-260300</v>
       </c>
       <c r="E94" s="3">
-        <v>-802300</v>
+        <v>-658100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1111700</v>
+        <v>-831600</v>
       </c>
       <c r="G94" s="3">
-        <v>-359300</v>
+        <v>-1152200</v>
       </c>
       <c r="H94" s="3">
-        <v>-652300</v>
+        <v>-372400</v>
       </c>
       <c r="I94" s="3">
-        <v>-246000</v>
+        <v>-676100</v>
       </c>
       <c r="J94" s="3">
+        <v>-255000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-353200</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>16</v>
@@ -3665,8 +3894,11 @@
       <c r="N94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3690,10 +3923,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-244000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-252900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3702,10 +3935,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-184800</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-191500</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,34 +4075,37 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-927900</v>
+        <v>-526900</v>
       </c>
       <c r="E100" s="3">
-        <v>170500</v>
+        <v>-961700</v>
       </c>
       <c r="F100" s="3">
-        <v>-321600</v>
+        <v>176700</v>
       </c>
       <c r="G100" s="3">
-        <v>-326700</v>
+        <v>-333300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1153500</v>
+        <v>-338600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1082000</v>
+        <v>-1195500</v>
       </c>
       <c r="J100" s="3">
+        <v>-1121500</v>
+      </c>
+      <c r="K100" s="3">
         <v>6100</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>16</v>
@@ -3871,34 +4116,37 @@
       <c r="N100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4100</v>
+        <v>-23300</v>
       </c>
       <c r="E101" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F101" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G101" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K101" s="3">
         <v>7100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>4100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>7100</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>16</v>
@@ -3909,34 +4157,37 @@
       <c r="N101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>25500</v>
+        <v>263400</v>
       </c>
       <c r="E102" s="3">
-        <v>245000</v>
+        <v>26500</v>
       </c>
       <c r="F102" s="3">
-        <v>-571600</v>
+        <v>253900</v>
       </c>
       <c r="G102" s="3">
-        <v>382800</v>
+        <v>-592500</v>
       </c>
       <c r="H102" s="3">
-        <v>-307300</v>
+        <v>396800</v>
       </c>
       <c r="I102" s="3">
-        <v>-422600</v>
+        <v>-318500</v>
       </c>
       <c r="J102" s="3">
+        <v>-438000</v>
+      </c>
+      <c r="K102" s="3">
         <v>901400</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>16</v>
@@ -3945,6 +4196,9 @@
         <v>16</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MKKGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MKKGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>MKKGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5988300</v>
+        <v>5700000</v>
       </c>
       <c r="E8" s="3">
-        <v>6142700</v>
+        <v>6095300</v>
       </c>
       <c r="F8" s="3">
-        <v>5890900</v>
+        <v>6252500</v>
       </c>
       <c r="G8" s="3">
-        <v>5499500</v>
+        <v>5996200</v>
       </c>
       <c r="H8" s="3">
-        <v>5515400</v>
+        <v>5597700</v>
       </c>
       <c r="I8" s="3">
-        <v>5261400</v>
+        <v>5613900</v>
       </c>
       <c r="J8" s="3">
+        <v>5355400</v>
+      </c>
+      <c r="K8" s="3">
         <v>5152500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4727300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4586000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4615500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4493500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4767300</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2416500</v>
+        <v>2124700</v>
       </c>
       <c r="E9" s="3">
-        <v>2271500</v>
+        <v>2459600</v>
       </c>
       <c r="F9" s="3">
-        <v>2231300</v>
+        <v>2312100</v>
       </c>
       <c r="G9" s="3">
-        <v>2102200</v>
+        <v>2271200</v>
       </c>
       <c r="H9" s="3">
-        <v>2072600</v>
+        <v>2139800</v>
       </c>
       <c r="I9" s="3">
-        <v>1966800</v>
+        <v>2109600</v>
       </c>
       <c r="J9" s="3">
+        <v>2002000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1918200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1756800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1790300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1843300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1756400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1804400</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3571800</v>
+        <v>3575300</v>
       </c>
       <c r="E10" s="3">
-        <v>3871200</v>
+        <v>3635600</v>
       </c>
       <c r="F10" s="3">
-        <v>3659600</v>
+        <v>3940400</v>
       </c>
       <c r="G10" s="3">
-        <v>3397200</v>
+        <v>3725000</v>
       </c>
       <c r="H10" s="3">
-        <v>3442700</v>
+        <v>3457900</v>
       </c>
       <c r="I10" s="3">
-        <v>3294600</v>
+        <v>3504200</v>
       </c>
       <c r="J10" s="3">
+        <v>3353500</v>
+      </c>
+      <c r="K10" s="3">
         <v>3234300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2970500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2795700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2772200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2737100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2962900</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>734300</v>
+        <v>642900</v>
       </c>
       <c r="E12" s="3">
-        <v>679200</v>
+        <v>747400</v>
       </c>
       <c r="F12" s="3">
-        <v>634800</v>
+        <v>691400</v>
       </c>
       <c r="G12" s="3">
-        <v>620000</v>
+        <v>646100</v>
       </c>
       <c r="H12" s="3">
-        <v>624200</v>
+        <v>631100</v>
       </c>
       <c r="I12" s="3">
-        <v>698300</v>
+        <v>635400</v>
       </c>
       <c r="J12" s="3">
+        <v>710800</v>
+      </c>
+      <c r="K12" s="3">
         <v>618900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>585900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>656300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>551100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>567300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>631600</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,49 +966,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1100</v>
       </c>
-      <c r="E14" s="3">
-        <v>-6300</v>
-      </c>
       <c r="F14" s="3">
-        <v>9500</v>
+        <v>-6500</v>
       </c>
       <c r="G14" s="3">
-        <v>5300</v>
+        <v>9700</v>
       </c>
       <c r="H14" s="3">
-        <v>-6300</v>
+        <v>5400</v>
       </c>
       <c r="I14" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>6100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5047700</v>
+        <v>4585400</v>
       </c>
       <c r="E17" s="3">
-        <v>4837200</v>
+        <v>5137900</v>
       </c>
       <c r="F17" s="3">
-        <v>4645700</v>
+        <v>4923600</v>
       </c>
       <c r="G17" s="3">
-        <v>4258500</v>
+        <v>4728700</v>
       </c>
       <c r="H17" s="3">
-        <v>4416100</v>
+        <v>4334500</v>
       </c>
       <c r="I17" s="3">
-        <v>4153700</v>
+        <v>4495000</v>
       </c>
       <c r="J17" s="3">
+        <v>4227900</v>
+      </c>
+      <c r="K17" s="3">
         <v>4042600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3662600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3976600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3404300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3957800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3986200</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>940600</v>
+        <v>1114600</v>
       </c>
       <c r="E18" s="3">
-        <v>1305600</v>
+        <v>957400</v>
       </c>
       <c r="F18" s="3">
-        <v>1245300</v>
+        <v>1328900</v>
       </c>
       <c r="G18" s="3">
-        <v>1241000</v>
+        <v>1267500</v>
       </c>
       <c r="H18" s="3">
-        <v>1099300</v>
+        <v>1263200</v>
       </c>
       <c r="I18" s="3">
-        <v>1107700</v>
+        <v>1118900</v>
       </c>
       <c r="J18" s="3">
+        <v>1127500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1109800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1064700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>609400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1211200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>535600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>781100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1144,78 +1177,82 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-52900</v>
+        <v>-24800</v>
       </c>
       <c r="E20" s="3">
-        <v>-49700</v>
+        <v>-53800</v>
       </c>
       <c r="F20" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="J20" s="3">
         <v>-58200</v>
       </c>
-      <c r="G20" s="3">
-        <v>-36000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-49700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-57100</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-99500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-60200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-51900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-105900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-111300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-108000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1520300</v>
+        <v>1580900</v>
       </c>
       <c r="E21" s="3">
-        <v>1753100</v>
+        <v>1547500</v>
       </c>
       <c r="F21" s="3">
-        <v>1749900</v>
+        <v>1784400</v>
       </c>
       <c r="G21" s="3">
-        <v>1660000</v>
+        <v>1781200</v>
       </c>
       <c r="H21" s="3">
-        <v>1552100</v>
+        <v>1689700</v>
       </c>
       <c r="I21" s="3">
-        <v>1520300</v>
+        <v>1579800</v>
       </c>
       <c r="J21" s="3">
+        <v>1547500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1453700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1437300</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>16</v>
@@ -1226,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>887700</v>
+        <v>1089800</v>
       </c>
       <c r="E23" s="3">
-        <v>1255800</v>
+        <v>903500</v>
       </c>
       <c r="F23" s="3">
-        <v>1187100</v>
+        <v>1278300</v>
       </c>
       <c r="G23" s="3">
-        <v>1205100</v>
+        <v>1208300</v>
       </c>
       <c r="H23" s="3">
-        <v>1049500</v>
+        <v>1226600</v>
       </c>
       <c r="I23" s="3">
-        <v>1050600</v>
+        <v>1068300</v>
       </c>
       <c r="J23" s="3">
+        <v>1069400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1010400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1004500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>557500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1105400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>424400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>673100</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>190400</v>
+        <v>229400</v>
       </c>
       <c r="E24" s="3">
-        <v>276100</v>
+        <v>193800</v>
       </c>
       <c r="F24" s="3">
-        <v>266600</v>
+        <v>281100</v>
       </c>
       <c r="G24" s="3">
-        <v>269800</v>
+        <v>271400</v>
       </c>
       <c r="H24" s="3">
-        <v>196800</v>
+        <v>274600</v>
       </c>
       <c r="I24" s="3">
-        <v>242300</v>
+        <v>200300</v>
       </c>
       <c r="J24" s="3">
+        <v>246600</v>
+      </c>
+      <c r="K24" s="3">
         <v>220100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>240900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>118700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>267800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>109100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>173500</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>697200</v>
+        <v>860400</v>
       </c>
       <c r="E26" s="3">
-        <v>979700</v>
+        <v>709700</v>
       </c>
       <c r="F26" s="3">
-        <v>920500</v>
+        <v>997200</v>
       </c>
       <c r="G26" s="3">
-        <v>935300</v>
+        <v>936900</v>
       </c>
       <c r="H26" s="3">
-        <v>852700</v>
+        <v>952000</v>
       </c>
       <c r="I26" s="3">
-        <v>808300</v>
+        <v>868000</v>
       </c>
       <c r="J26" s="3">
+        <v>822800</v>
+      </c>
+      <c r="K26" s="3">
         <v>790300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>763600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>438900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>837600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>315300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>499600</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>693000</v>
+        <v>857200</v>
       </c>
       <c r="E27" s="3">
-        <v>976500</v>
+        <v>705400</v>
       </c>
       <c r="F27" s="3">
-        <v>917300</v>
+        <v>994000</v>
       </c>
       <c r="G27" s="3">
-        <v>931000</v>
+        <v>933700</v>
       </c>
       <c r="H27" s="3">
-        <v>848500</v>
+        <v>947700</v>
       </c>
       <c r="I27" s="3">
-        <v>805100</v>
+        <v>863700</v>
       </c>
       <c r="J27" s="3">
+        <v>819500</v>
+      </c>
+      <c r="K27" s="3">
         <v>788200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>762500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>434900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>835500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>316400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,37 +1571,40 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>16</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1551,11 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>52900</v>
+        <v>24800</v>
       </c>
       <c r="E32" s="3">
-        <v>49700</v>
+        <v>53800</v>
       </c>
       <c r="F32" s="3">
+        <v>50600</v>
+      </c>
+      <c r="G32" s="3">
+        <v>59200</v>
+      </c>
+      <c r="H32" s="3">
+        <v>36600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>50600</v>
+      </c>
+      <c r="J32" s="3">
         <v>58200</v>
       </c>
-      <c r="G32" s="3">
-        <v>36000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>49700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>57100</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>99500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>60200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>51900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>105900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>111300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>693000</v>
+        <v>857200</v>
       </c>
       <c r="E33" s="3">
-        <v>976500</v>
+        <v>705400</v>
       </c>
       <c r="F33" s="3">
-        <v>917300</v>
+        <v>994000</v>
       </c>
       <c r="G33" s="3">
-        <v>931000</v>
+        <v>933700</v>
       </c>
       <c r="H33" s="3">
-        <v>848500</v>
+        <v>947700</v>
       </c>
       <c r="I33" s="3">
-        <v>805100</v>
+        <v>863700</v>
       </c>
       <c r="J33" s="3">
+        <v>819500</v>
+      </c>
+      <c r="K33" s="3">
         <v>788200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>762500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>434900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>835500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>316400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>693000</v>
+        <v>857200</v>
       </c>
       <c r="E35" s="3">
-        <v>976500</v>
+        <v>705400</v>
       </c>
       <c r="F35" s="3">
-        <v>917300</v>
+        <v>994000</v>
       </c>
       <c r="G35" s="3">
-        <v>931000</v>
+        <v>933700</v>
       </c>
       <c r="H35" s="3">
-        <v>848500</v>
+        <v>947700</v>
       </c>
       <c r="I35" s="3">
-        <v>805100</v>
+        <v>863700</v>
       </c>
       <c r="J35" s="3">
+        <v>819500</v>
+      </c>
+      <c r="K35" s="3">
         <v>788200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>762500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>434900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>835500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>316400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,377 +1966,405 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1961500</v>
+        <v>1705800</v>
       </c>
       <c r="E41" s="3">
-        <v>1697000</v>
+        <v>1996600</v>
       </c>
       <c r="F41" s="3">
-        <v>1671600</v>
+        <v>1727300</v>
       </c>
       <c r="G41" s="3">
-        <v>1416700</v>
+        <v>1701500</v>
       </c>
       <c r="H41" s="3">
-        <v>2009100</v>
+        <v>1442000</v>
       </c>
       <c r="I41" s="3">
-        <v>1611300</v>
+        <v>2045000</v>
       </c>
       <c r="J41" s="3">
+        <v>1640100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1930900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2284600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1351500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1606700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>852000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5575600</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>339600</v>
+        <v>147500</v>
       </c>
       <c r="E42" s="3">
-        <v>367100</v>
+        <v>345700</v>
       </c>
       <c r="F42" s="3">
-        <v>140700</v>
+        <v>373700</v>
       </c>
       <c r="G42" s="3">
-        <v>112100</v>
+        <v>143200</v>
       </c>
       <c r="H42" s="3">
-        <v>184100</v>
+        <v>114200</v>
       </c>
       <c r="I42" s="3">
-        <v>150200</v>
+        <v>187400</v>
       </c>
       <c r="J42" s="3">
+        <v>152900</v>
+      </c>
+      <c r="K42" s="3">
         <v>47600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>61200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>124700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>88200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>62200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4959900</v>
+        <v>5196000</v>
       </c>
       <c r="E43" s="3">
-        <v>5074200</v>
+        <v>5048500</v>
       </c>
       <c r="F43" s="3">
-        <v>5149300</v>
+        <v>5164800</v>
       </c>
       <c r="G43" s="3">
-        <v>4977900</v>
+        <v>5241300</v>
       </c>
       <c r="H43" s="3">
-        <v>4597000</v>
+        <v>5066800</v>
       </c>
       <c r="I43" s="3">
-        <v>4451000</v>
+        <v>4679100</v>
       </c>
       <c r="J43" s="3">
+        <v>4530500</v>
+      </c>
+      <c r="K43" s="3">
         <v>4363200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4313900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3899800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4253300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4617800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4107300</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4900700</v>
+        <v>5266000</v>
       </c>
       <c r="E44" s="3">
-        <v>5141900</v>
+        <v>4988200</v>
       </c>
       <c r="F44" s="3">
-        <v>4733500</v>
+        <v>5233700</v>
       </c>
       <c r="G44" s="3">
-        <v>4383300</v>
+        <v>4818100</v>
       </c>
       <c r="H44" s="3">
-        <v>4126200</v>
+        <v>4461600</v>
       </c>
       <c r="I44" s="3">
-        <v>3978100</v>
+        <v>4199900</v>
       </c>
       <c r="J44" s="3">
+        <v>4049100</v>
+      </c>
+      <c r="K44" s="3">
         <v>3770700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3534000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3285400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3557900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3645800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3420000</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>746900</v>
+        <v>1631500</v>
       </c>
       <c r="E45" s="3">
-        <v>1413500</v>
+        <v>760300</v>
       </c>
       <c r="F45" s="3">
-        <v>1441000</v>
+        <v>1438700</v>
       </c>
       <c r="G45" s="3">
-        <v>837900</v>
+        <v>1466700</v>
       </c>
       <c r="H45" s="3">
-        <v>702500</v>
+        <v>852900</v>
       </c>
       <c r="I45" s="3">
-        <v>722600</v>
+        <v>715100</v>
       </c>
       <c r="J45" s="3">
+        <v>735500</v>
+      </c>
+      <c r="K45" s="3">
         <v>660200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>644100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>594500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1140700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>643600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1344000</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12908700</v>
+        <v>13946900</v>
       </c>
       <c r="E46" s="3">
-        <v>13693700</v>
+        <v>13139300</v>
       </c>
       <c r="F46" s="3">
-        <v>13136100</v>
+        <v>13938300</v>
       </c>
       <c r="G46" s="3">
-        <v>11727900</v>
+        <v>13370800</v>
       </c>
       <c r="H46" s="3">
-        <v>11619000</v>
+        <v>11937400</v>
       </c>
       <c r="I46" s="3">
-        <v>10913300</v>
+        <v>11826500</v>
       </c>
       <c r="J46" s="3">
+        <v>11108200</v>
+      </c>
+      <c r="K46" s="3">
         <v>10772600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10837800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9255900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10646800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9821500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14746900</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1054800</v>
+        <v>1071500</v>
       </c>
       <c r="E47" s="3">
-        <v>1060100</v>
+        <v>1073700</v>
       </c>
       <c r="F47" s="3">
-        <v>995600</v>
+        <v>1079100</v>
       </c>
       <c r="G47" s="3">
-        <v>994500</v>
+        <v>1013400</v>
       </c>
       <c r="H47" s="3">
-        <v>1004000</v>
+        <v>1012300</v>
       </c>
       <c r="I47" s="3">
-        <v>881300</v>
+        <v>1022000</v>
       </c>
       <c r="J47" s="3">
+        <v>897100</v>
+      </c>
+      <c r="K47" s="3">
         <v>828400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>824800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>846800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>707800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>829100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>714500</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8678800</v>
+        <v>8850000</v>
       </c>
       <c r="E48" s="3">
-        <v>8406900</v>
+        <v>8833800</v>
       </c>
       <c r="F48" s="3">
-        <v>8012200</v>
+        <v>8557000</v>
       </c>
       <c r="G48" s="3">
-        <v>7726600</v>
+        <v>8155400</v>
       </c>
       <c r="H48" s="3">
-        <v>7635600</v>
+        <v>7864600</v>
       </c>
       <c r="I48" s="3">
-        <v>7153100</v>
+        <v>7772000</v>
       </c>
       <c r="J48" s="3">
+        <v>7280900</v>
+      </c>
+      <c r="K48" s="3">
         <v>6983900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6688300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6404300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6255400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6777800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5864700</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>27208600</v>
+        <v>26955900</v>
       </c>
       <c r="E49" s="3">
-        <v>29215600</v>
+        <v>27694600</v>
       </c>
       <c r="F49" s="3">
-        <v>27968200</v>
+        <v>29737500</v>
       </c>
       <c r="G49" s="3">
-        <v>26778000</v>
+        <v>28467900</v>
       </c>
       <c r="H49" s="3">
-        <v>26043700</v>
+        <v>27256300</v>
       </c>
       <c r="I49" s="3">
-        <v>25707300</v>
+        <v>26509000</v>
       </c>
       <c r="J49" s="3">
+        <v>26166500</v>
+      </c>
+      <c r="K49" s="3">
         <v>25349700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>24811600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>23550600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>25619500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>28708400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>22951700</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1489700</v>
+        <v>1552900</v>
       </c>
       <c r="E52" s="3">
-        <v>1510800</v>
+        <v>1516300</v>
       </c>
       <c r="F52" s="3">
-        <v>1430400</v>
+        <v>1537800</v>
       </c>
       <c r="G52" s="3">
-        <v>1689600</v>
+        <v>1456000</v>
       </c>
       <c r="H52" s="3">
-        <v>1690700</v>
+        <v>1719800</v>
       </c>
       <c r="I52" s="3">
-        <v>1723500</v>
+        <v>1720900</v>
       </c>
       <c r="J52" s="3">
+        <v>1754300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1712900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1641400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1629800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1639900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1657100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1613500</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>51340500</v>
+        <v>52377200</v>
       </c>
       <c r="E54" s="3">
-        <v>53887100</v>
+        <v>52257600</v>
       </c>
       <c r="F54" s="3">
-        <v>51542600</v>
+        <v>54849700</v>
       </c>
       <c r="G54" s="3">
-        <v>48916600</v>
+        <v>52463300</v>
       </c>
       <c r="H54" s="3">
-        <v>47993000</v>
+        <v>49790500</v>
       </c>
       <c r="I54" s="3">
-        <v>46378500</v>
+        <v>48850300</v>
       </c>
       <c r="J54" s="3">
+        <v>47207000</v>
+      </c>
+      <c r="K54" s="3">
         <v>45647400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44803900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>41687300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>44869500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>47793900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>45891300</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,254 +2618,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2642900</v>
+        <v>2504900</v>
       </c>
       <c r="E57" s="3">
-        <v>2586800</v>
+        <v>2690100</v>
       </c>
       <c r="F57" s="3">
-        <v>2598400</v>
+        <v>2633000</v>
       </c>
       <c r="G57" s="3">
-        <v>2492600</v>
+        <v>2644900</v>
       </c>
       <c r="H57" s="3">
-        <v>2518000</v>
+        <v>2537200</v>
       </c>
       <c r="I57" s="3">
-        <v>2255700</v>
+        <v>2563000</v>
       </c>
       <c r="J57" s="3">
+        <v>2296000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2229200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1977300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1763400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1747800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2240700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1893800</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1267500</v>
+        <v>1546400</v>
       </c>
       <c r="E58" s="3">
-        <v>1855700</v>
+        <v>1290100</v>
       </c>
       <c r="F58" s="3">
-        <v>2538100</v>
+        <v>1888900</v>
       </c>
       <c r="G58" s="3">
-        <v>2459900</v>
+        <v>2583500</v>
       </c>
       <c r="H58" s="3">
-        <v>2677800</v>
+        <v>2503800</v>
       </c>
       <c r="I58" s="3">
-        <v>2930700</v>
+        <v>2725600</v>
       </c>
       <c r="J58" s="3">
+        <v>2983000</v>
+      </c>
+      <c r="K58" s="3">
         <v>3468100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3416600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2350900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3822600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4963600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4287300</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6154400</v>
+        <v>6239600</v>
       </c>
       <c r="E59" s="3">
-        <v>5515400</v>
+        <v>6264300</v>
       </c>
       <c r="F59" s="3">
-        <v>5145100</v>
+        <v>5613900</v>
       </c>
       <c r="G59" s="3">
-        <v>5846500</v>
+        <v>5237000</v>
       </c>
       <c r="H59" s="3">
-        <v>5841200</v>
+        <v>5950900</v>
       </c>
       <c r="I59" s="3">
-        <v>5174700</v>
+        <v>5945600</v>
       </c>
       <c r="J59" s="3">
+        <v>5267100</v>
+      </c>
+      <c r="K59" s="3">
         <v>4692200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5479700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5092700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4506600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5714200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4351600</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10064800</v>
+        <v>10290900</v>
       </c>
       <c r="E60" s="3">
-        <v>9957900</v>
+        <v>10244500</v>
       </c>
       <c r="F60" s="3">
-        <v>10281600</v>
+        <v>10135800</v>
       </c>
       <c r="G60" s="3">
-        <v>10799000</v>
+        <v>10465300</v>
       </c>
       <c r="H60" s="3">
-        <v>11037100</v>
+        <v>10991900</v>
       </c>
       <c r="I60" s="3">
-        <v>10361000</v>
+        <v>11234200</v>
       </c>
       <c r="J60" s="3">
+        <v>10546100</v>
+      </c>
+      <c r="K60" s="3">
         <v>10389600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10873600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9207000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10077000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12918600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10532700</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9733600</v>
+        <v>9863300</v>
       </c>
       <c r="E61" s="3">
-        <v>9803400</v>
+        <v>9907500</v>
       </c>
       <c r="F61" s="3">
-        <v>9929300</v>
+        <v>9978600</v>
       </c>
       <c r="G61" s="3">
-        <v>8766600</v>
+        <v>10106700</v>
       </c>
       <c r="H61" s="3">
-        <v>8749700</v>
+        <v>8923200</v>
       </c>
       <c r="I61" s="3">
-        <v>8670300</v>
+        <v>8906000</v>
       </c>
       <c r="J61" s="3">
+        <v>8825200</v>
+      </c>
+      <c r="K61" s="3">
         <v>9226800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9188200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9759600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10355100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9429800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9397100</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4028900</v>
+        <v>3975900</v>
       </c>
       <c r="E62" s="3">
-        <v>4145200</v>
+        <v>4100800</v>
       </c>
       <c r="F62" s="3">
-        <v>3792900</v>
+        <v>4219300</v>
       </c>
       <c r="G62" s="3">
-        <v>5027600</v>
+        <v>3860700</v>
       </c>
       <c r="H62" s="3">
-        <v>5548200</v>
+        <v>5117400</v>
       </c>
       <c r="I62" s="3">
-        <v>5468800</v>
+        <v>5647300</v>
       </c>
       <c r="J62" s="3">
+        <v>5566500</v>
+      </c>
+      <c r="K62" s="3">
         <v>5547100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5364300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5748000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5760300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5902900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6126600</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23909700</v>
+        <v>24217300</v>
       </c>
       <c r="E66" s="3">
-        <v>23988000</v>
+        <v>24336900</v>
       </c>
       <c r="F66" s="3">
-        <v>24082200</v>
+        <v>24416600</v>
       </c>
       <c r="G66" s="3">
-        <v>24668300</v>
+        <v>24512400</v>
       </c>
       <c r="H66" s="3">
-        <v>25417400</v>
+        <v>25109000</v>
       </c>
       <c r="I66" s="3">
-        <v>24576300</v>
+        <v>25871400</v>
       </c>
       <c r="J66" s="3">
+        <v>25015300</v>
+      </c>
+      <c r="K66" s="3">
         <v>25235400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25494500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>24785400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26262000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>28303700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>26082600</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,49 +3162,55 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>427500</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>427500</v>
+      </c>
+      <c r="J70" s="3">
+        <v>427500</v>
+      </c>
+      <c r="K70" s="3">
         <v>420000</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>420000</v>
-      </c>
-      <c r="I70" s="3">
-        <v>420000</v>
-      </c>
-      <c r="J70" s="3">
-        <v>420000</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>405300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>396000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>412000</v>
-      </c>
-      <c r="N70" s="3">
-        <v>433100</v>
       </c>
       <c r="O70" s="3">
         <v>433100</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>433100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19958100</v>
+        <v>23444100</v>
       </c>
       <c r="E72" s="3">
-        <v>25266100</v>
+        <v>20314600</v>
       </c>
       <c r="F72" s="3">
-        <v>22827400</v>
+        <v>25717400</v>
       </c>
       <c r="G72" s="3">
-        <v>19615300</v>
+        <v>23235200</v>
       </c>
       <c r="H72" s="3">
-        <v>17640000</v>
+        <v>19965700</v>
       </c>
       <c r="I72" s="3">
-        <v>17516200</v>
+        <v>17955200</v>
       </c>
       <c r="J72" s="3">
+        <v>17829200</v>
+      </c>
+      <c r="K72" s="3">
         <v>16715300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15557000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14519200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15095200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14439300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14583300</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27010700</v>
+        <v>28159900</v>
       </c>
       <c r="E76" s="3">
-        <v>29899100</v>
+        <v>27493300</v>
       </c>
       <c r="F76" s="3">
-        <v>27460400</v>
+        <v>30433200</v>
       </c>
       <c r="G76" s="3">
-        <v>24248300</v>
+        <v>27950900</v>
       </c>
       <c r="H76" s="3">
-        <v>22155600</v>
+        <v>24681500</v>
       </c>
       <c r="I76" s="3">
-        <v>21382200</v>
+        <v>22551400</v>
       </c>
       <c r="J76" s="3">
+        <v>21764100</v>
+      </c>
+      <c r="K76" s="3">
         <v>19992000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18904200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16506000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18195400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19057100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19375700</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>693000</v>
+        <v>857200</v>
       </c>
       <c r="E81" s="3">
-        <v>976500</v>
+        <v>705400</v>
       </c>
       <c r="F81" s="3">
-        <v>917300</v>
+        <v>994000</v>
       </c>
       <c r="G81" s="3">
-        <v>931000</v>
+        <v>933700</v>
       </c>
       <c r="H81" s="3">
-        <v>848500</v>
+        <v>947700</v>
       </c>
       <c r="I81" s="3">
-        <v>805100</v>
+        <v>863700</v>
       </c>
       <c r="J81" s="3">
+        <v>819500</v>
+      </c>
+      <c r="K81" s="3">
         <v>788200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>762500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>434900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>835500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>316400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,37 +3627,38 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>632700</v>
+        <v>491100</v>
       </c>
       <c r="E83" s="3">
-        <v>497300</v>
+        <v>644000</v>
       </c>
       <c r="F83" s="3">
-        <v>562900</v>
+        <v>506100</v>
       </c>
       <c r="G83" s="3">
-        <v>454900</v>
+        <v>572900</v>
       </c>
       <c r="H83" s="3">
-        <v>502600</v>
+        <v>463100</v>
       </c>
       <c r="I83" s="3">
-        <v>469800</v>
+        <v>511500</v>
       </c>
       <c r="J83" s="3">
+        <v>478100</v>
+      </c>
+      <c r="K83" s="3">
         <v>443300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>432800</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>16</v>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,37 +3889,40 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1073900</v>
+        <v>918600</v>
       </c>
       <c r="E89" s="3">
-        <v>1642000</v>
+        <v>1093100</v>
       </c>
       <c r="F89" s="3">
-        <v>901400</v>
+        <v>1671300</v>
       </c>
       <c r="G89" s="3">
-        <v>888700</v>
+        <v>917500</v>
       </c>
       <c r="H89" s="3">
-        <v>1105600</v>
+        <v>904600</v>
       </c>
       <c r="I89" s="3">
-        <v>1552100</v>
+        <v>1125400</v>
       </c>
       <c r="J89" s="3">
+        <v>1579800</v>
+      </c>
+      <c r="K89" s="3">
         <v>939500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1241300</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>16</v>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,37 +3953,38 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-493000</v>
+        <v>-651000</v>
       </c>
       <c r="E91" s="3">
-        <v>-410500</v>
+        <v>-532000</v>
       </c>
       <c r="F91" s="3">
-        <v>-261300</v>
+        <v>-477000</v>
       </c>
       <c r="G91" s="3">
-        <v>-454900</v>
+        <v>-299000</v>
       </c>
       <c r="H91" s="3">
-        <v>-209500</v>
+        <v>-498000</v>
       </c>
       <c r="I91" s="3">
-        <v>-316300</v>
+        <v>-266000</v>
       </c>
       <c r="J91" s="3">
+        <v>-517000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-268700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-321600</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>16</v>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,37 +4083,40 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-260300</v>
+        <v>-1325700</v>
       </c>
       <c r="E94" s="3">
-        <v>-658100</v>
+        <v>-264900</v>
       </c>
       <c r="F94" s="3">
-        <v>-831600</v>
+        <v>-669800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1152200</v>
+        <v>-846400</v>
       </c>
       <c r="H94" s="3">
-        <v>-372400</v>
+        <v>-1172700</v>
       </c>
       <c r="I94" s="3">
-        <v>-676100</v>
+        <v>-379100</v>
       </c>
       <c r="J94" s="3">
+        <v>-688100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-255000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-353200</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>16</v>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3926,10 +4160,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-252900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-257400</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3938,11 +4172,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-191500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,37 +4321,40 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-526900</v>
+        <v>133500</v>
       </c>
       <c r="E100" s="3">
-        <v>-961700</v>
+        <v>-536300</v>
       </c>
       <c r="F100" s="3">
-        <v>176700</v>
+        <v>-978900</v>
       </c>
       <c r="G100" s="3">
-        <v>-333300</v>
+        <v>179800</v>
       </c>
       <c r="H100" s="3">
-        <v>-338600</v>
+        <v>-339200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1195500</v>
+        <v>-344600</v>
       </c>
       <c r="J100" s="3">
+        <v>-1216900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1121500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6100</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>16</v>
@@ -4119,37 +4365,40 @@
       <c r="O100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-23300</v>
+        <v>-17200</v>
       </c>
       <c r="E101" s="3">
-        <v>4200</v>
+        <v>-23700</v>
       </c>
       <c r="F101" s="3">
-        <v>7400</v>
+        <v>4300</v>
       </c>
       <c r="G101" s="3">
-        <v>4200</v>
+        <v>7500</v>
       </c>
       <c r="H101" s="3">
-        <v>2100</v>
+        <v>4300</v>
       </c>
       <c r="I101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J101" s="3">
         <v>1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7100</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>16</v>
@@ -4160,37 +4409,40 @@
       <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>263400</v>
+        <v>-290800</v>
       </c>
       <c r="E102" s="3">
-        <v>26500</v>
+        <v>268100</v>
       </c>
       <c r="F102" s="3">
-        <v>253900</v>
+        <v>26900</v>
       </c>
       <c r="G102" s="3">
-        <v>-592500</v>
+        <v>258500</v>
       </c>
       <c r="H102" s="3">
-        <v>396800</v>
+        <v>-603100</v>
       </c>
       <c r="I102" s="3">
-        <v>-318500</v>
+        <v>403800</v>
       </c>
       <c r="J102" s="3">
+        <v>-324100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-438000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>901400</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>16</v>
@@ -4199,6 +4451,9 @@
         <v>16</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MKKGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MKKGY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5700000</v>
+        <v>5747900</v>
       </c>
       <c r="E8" s="3">
-        <v>6095300</v>
+        <v>5738100</v>
       </c>
       <c r="F8" s="3">
-        <v>6252500</v>
+        <v>6136000</v>
       </c>
       <c r="G8" s="3">
-        <v>5996200</v>
+        <v>6294300</v>
       </c>
       <c r="H8" s="3">
-        <v>5597700</v>
+        <v>6036300</v>
       </c>
       <c r="I8" s="3">
-        <v>5613900</v>
+        <v>5635200</v>
       </c>
       <c r="J8" s="3">
+        <v>5651400</v>
+      </c>
+      <c r="K8" s="3">
         <v>5355400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5152500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4727300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4586000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4615500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4493500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4767300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2124700</v>
+        <v>2318900</v>
       </c>
       <c r="E9" s="3">
-        <v>2459600</v>
+        <v>2138900</v>
       </c>
       <c r="F9" s="3">
-        <v>2312100</v>
+        <v>2476100</v>
       </c>
       <c r="G9" s="3">
-        <v>2271200</v>
+        <v>2327600</v>
       </c>
       <c r="H9" s="3">
-        <v>2139800</v>
+        <v>2286400</v>
       </c>
       <c r="I9" s="3">
-        <v>2109600</v>
+        <v>2154100</v>
       </c>
       <c r="J9" s="3">
+        <v>2123800</v>
+      </c>
+      <c r="K9" s="3">
         <v>2002000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1918200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1756800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1790300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1843300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1756400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1804400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3575300</v>
+        <v>3429000</v>
       </c>
       <c r="E10" s="3">
-        <v>3635600</v>
+        <v>3599200</v>
       </c>
       <c r="F10" s="3">
-        <v>3940400</v>
+        <v>3659900</v>
       </c>
       <c r="G10" s="3">
-        <v>3725000</v>
+        <v>3966700</v>
       </c>
       <c r="H10" s="3">
-        <v>3457900</v>
+        <v>3749900</v>
       </c>
       <c r="I10" s="3">
-        <v>3504200</v>
+        <v>3481000</v>
       </c>
       <c r="J10" s="3">
+        <v>3527700</v>
+      </c>
+      <c r="K10" s="3">
         <v>3353500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3234300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2970500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2795700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2772200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2737100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2962900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>642900</v>
+        <v>650500</v>
       </c>
       <c r="E12" s="3">
-        <v>747400</v>
+        <v>647200</v>
       </c>
       <c r="F12" s="3">
-        <v>691400</v>
+        <v>752400</v>
       </c>
       <c r="G12" s="3">
-        <v>646100</v>
+        <v>696000</v>
       </c>
       <c r="H12" s="3">
-        <v>631100</v>
+        <v>650500</v>
       </c>
       <c r="I12" s="3">
-        <v>635400</v>
+        <v>635300</v>
       </c>
       <c r="J12" s="3">
+        <v>639600</v>
+      </c>
+      <c r="K12" s="3">
         <v>710800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>618900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>585900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>656300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>551100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>567300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>631600</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,52 +986,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E14" s="3">
         <v>2200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-6500</v>
       </c>
-      <c r="G14" s="3">
-        <v>9700</v>
-      </c>
       <c r="H14" s="3">
+        <v>9800</v>
+      </c>
+      <c r="I14" s="3">
         <v>5400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-6500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>6100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4585400</v>
+        <v>4697400</v>
       </c>
       <c r="E17" s="3">
-        <v>5137900</v>
+        <v>4616100</v>
       </c>
       <c r="F17" s="3">
-        <v>4923600</v>
+        <v>5172200</v>
       </c>
       <c r="G17" s="3">
-        <v>4728700</v>
+        <v>4956500</v>
       </c>
       <c r="H17" s="3">
-        <v>4334500</v>
+        <v>4760300</v>
       </c>
       <c r="I17" s="3">
-        <v>4495000</v>
+        <v>4363500</v>
       </c>
       <c r="J17" s="3">
+        <v>4525000</v>
+      </c>
+      <c r="K17" s="3">
         <v>4227900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4042600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3662600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3976600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3404300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3957800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3986200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1114600</v>
+        <v>1050500</v>
       </c>
       <c r="E18" s="3">
-        <v>957400</v>
+        <v>1122000</v>
       </c>
       <c r="F18" s="3">
-        <v>1328900</v>
+        <v>963800</v>
       </c>
       <c r="G18" s="3">
-        <v>1267500</v>
+        <v>1337800</v>
       </c>
       <c r="H18" s="3">
-        <v>1263200</v>
+        <v>1276000</v>
       </c>
       <c r="I18" s="3">
-        <v>1118900</v>
+        <v>1271600</v>
       </c>
       <c r="J18" s="3">
+        <v>1126400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1127500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1109800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1064700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>609400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1211200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>535600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>781100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,84 +1211,88 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-24800</v>
+        <v>-81300</v>
       </c>
       <c r="E20" s="3">
-        <v>-53800</v>
+        <v>-24900</v>
       </c>
       <c r="F20" s="3">
-        <v>-50600</v>
+        <v>-54200</v>
       </c>
       <c r="G20" s="3">
-        <v>-59200</v>
+        <v>-51000</v>
       </c>
       <c r="H20" s="3">
-        <v>-36600</v>
+        <v>-59600</v>
       </c>
       <c r="I20" s="3">
-        <v>-50600</v>
+        <v>-36900</v>
       </c>
       <c r="J20" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-58200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-99500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-60200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-51900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-105900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-111300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-108000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1580900</v>
+        <v>1491700</v>
       </c>
       <c r="E21" s="3">
+        <v>1591500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1557900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1796400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1793100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1701000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1590400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1547500</v>
       </c>
-      <c r="F21" s="3">
-        <v>1784400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1781200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1689700</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1579800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1547500</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1453700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1437300</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>16</v>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1089800</v>
+        <v>969200</v>
       </c>
       <c r="E23" s="3">
-        <v>903500</v>
+        <v>1097100</v>
       </c>
       <c r="F23" s="3">
-        <v>1278300</v>
+        <v>909600</v>
       </c>
       <c r="G23" s="3">
-        <v>1208300</v>
+        <v>1286800</v>
       </c>
       <c r="H23" s="3">
-        <v>1226600</v>
+        <v>1216400</v>
       </c>
       <c r="I23" s="3">
-        <v>1068300</v>
+        <v>1234800</v>
       </c>
       <c r="J23" s="3">
+        <v>1075400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1069400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1010400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1004500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>557500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1105400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>424400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>673100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>229400</v>
+        <v>203800</v>
       </c>
       <c r="E24" s="3">
-        <v>193800</v>
+        <v>230900</v>
       </c>
       <c r="F24" s="3">
-        <v>281100</v>
+        <v>195100</v>
       </c>
       <c r="G24" s="3">
-        <v>271400</v>
+        <v>283000</v>
       </c>
       <c r="H24" s="3">
-        <v>274600</v>
+        <v>273200</v>
       </c>
       <c r="I24" s="3">
-        <v>200300</v>
+        <v>276400</v>
       </c>
       <c r="J24" s="3">
+        <v>201600</v>
+      </c>
+      <c r="K24" s="3">
         <v>246600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>220100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>240900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>118700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>267800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>109100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>173500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>860400</v>
+        <v>765400</v>
       </c>
       <c r="E26" s="3">
-        <v>709700</v>
+        <v>866200</v>
       </c>
       <c r="F26" s="3">
-        <v>997200</v>
+        <v>714400</v>
       </c>
       <c r="G26" s="3">
-        <v>936900</v>
+        <v>1003900</v>
       </c>
       <c r="H26" s="3">
-        <v>952000</v>
+        <v>943200</v>
       </c>
       <c r="I26" s="3">
-        <v>868000</v>
+        <v>958300</v>
       </c>
       <c r="J26" s="3">
+        <v>873800</v>
+      </c>
+      <c r="K26" s="3">
         <v>822800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>790300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>763600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>438900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>837600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>315300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>499600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>857200</v>
+        <v>763200</v>
       </c>
       <c r="E27" s="3">
-        <v>705400</v>
+        <v>862900</v>
       </c>
       <c r="F27" s="3">
-        <v>994000</v>
+        <v>710100</v>
       </c>
       <c r="G27" s="3">
-        <v>933700</v>
+        <v>1000600</v>
       </c>
       <c r="H27" s="3">
-        <v>947700</v>
+        <v>939900</v>
       </c>
       <c r="I27" s="3">
-        <v>863700</v>
+        <v>954000</v>
       </c>
       <c r="J27" s="3">
+        <v>869400</v>
+      </c>
+      <c r="K27" s="3">
         <v>819500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>788200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>762500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>434900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>835500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>316400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1600,14 +1661,14 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>16</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1615,11 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>24800</v>
+        <v>81300</v>
       </c>
       <c r="E32" s="3">
-        <v>53800</v>
+        <v>24900</v>
       </c>
       <c r="F32" s="3">
-        <v>50600</v>
+        <v>54200</v>
       </c>
       <c r="G32" s="3">
-        <v>59200</v>
+        <v>51000</v>
       </c>
       <c r="H32" s="3">
-        <v>36600</v>
+        <v>59600</v>
       </c>
       <c r="I32" s="3">
-        <v>50600</v>
+        <v>36900</v>
       </c>
       <c r="J32" s="3">
+        <v>51000</v>
+      </c>
+      <c r="K32" s="3">
         <v>58200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>99500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>60200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>51900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>105900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>111300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>857200</v>
+        <v>763200</v>
       </c>
       <c r="E33" s="3">
-        <v>705400</v>
+        <v>862900</v>
       </c>
       <c r="F33" s="3">
-        <v>994000</v>
+        <v>710100</v>
       </c>
       <c r="G33" s="3">
-        <v>933700</v>
+        <v>1000600</v>
       </c>
       <c r="H33" s="3">
-        <v>947700</v>
+        <v>939900</v>
       </c>
       <c r="I33" s="3">
-        <v>863700</v>
+        <v>954000</v>
       </c>
       <c r="J33" s="3">
+        <v>869400</v>
+      </c>
+      <c r="K33" s="3">
         <v>819500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>788200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>762500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>434900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>835500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>316400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>857200</v>
+        <v>763200</v>
       </c>
       <c r="E35" s="3">
-        <v>705400</v>
+        <v>862900</v>
       </c>
       <c r="F35" s="3">
-        <v>994000</v>
+        <v>710100</v>
       </c>
       <c r="G35" s="3">
-        <v>933700</v>
+        <v>1000600</v>
       </c>
       <c r="H35" s="3">
-        <v>947700</v>
+        <v>939900</v>
       </c>
       <c r="I35" s="3">
-        <v>863700</v>
+        <v>954000</v>
       </c>
       <c r="J35" s="3">
+        <v>869400</v>
+      </c>
+      <c r="K35" s="3">
         <v>819500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>788200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>762500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>434900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>835500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>316400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2053,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1705800</v>
+        <v>1909100</v>
       </c>
       <c r="E41" s="3">
-        <v>1996600</v>
+        <v>1717200</v>
       </c>
       <c r="F41" s="3">
-        <v>1727300</v>
+        <v>2009900</v>
       </c>
       <c r="G41" s="3">
-        <v>1701500</v>
+        <v>1738900</v>
       </c>
       <c r="H41" s="3">
-        <v>1442000</v>
+        <v>1712900</v>
       </c>
       <c r="I41" s="3">
-        <v>2045000</v>
+        <v>1451600</v>
       </c>
       <c r="J41" s="3">
+        <v>2058700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1640100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1930900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2284600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1351500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1606700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>852000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5575600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>147500</v>
+        <v>180000</v>
       </c>
       <c r="E42" s="3">
-        <v>345700</v>
+        <v>148500</v>
       </c>
       <c r="F42" s="3">
-        <v>373700</v>
+        <v>348000</v>
       </c>
       <c r="G42" s="3">
-        <v>143200</v>
+        <v>376200</v>
       </c>
       <c r="H42" s="3">
-        <v>114200</v>
+        <v>144200</v>
       </c>
       <c r="I42" s="3">
-        <v>187400</v>
+        <v>114900</v>
       </c>
       <c r="J42" s="3">
+        <v>188600</v>
+      </c>
+      <c r="K42" s="3">
         <v>152900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>47600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>61200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>124700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>88200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>62200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5196000</v>
+        <v>5253500</v>
       </c>
       <c r="E43" s="3">
-        <v>5048500</v>
+        <v>5230800</v>
       </c>
       <c r="F43" s="3">
-        <v>5164800</v>
+        <v>5082300</v>
       </c>
       <c r="G43" s="3">
-        <v>5241300</v>
+        <v>5199300</v>
       </c>
       <c r="H43" s="3">
-        <v>5066800</v>
+        <v>5276300</v>
       </c>
       <c r="I43" s="3">
-        <v>4679100</v>
+        <v>5100700</v>
       </c>
       <c r="J43" s="3">
+        <v>4710400</v>
+      </c>
+      <c r="K43" s="3">
         <v>4530500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4363200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4313900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3899800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4253300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4617800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4107300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5266000</v>
+        <v>5416200</v>
       </c>
       <c r="E44" s="3">
-        <v>4988200</v>
+        <v>5301200</v>
       </c>
       <c r="F44" s="3">
-        <v>5233700</v>
+        <v>5021600</v>
       </c>
       <c r="G44" s="3">
-        <v>4818100</v>
+        <v>5268700</v>
       </c>
       <c r="H44" s="3">
-        <v>4461600</v>
+        <v>4850300</v>
       </c>
       <c r="I44" s="3">
-        <v>4199900</v>
+        <v>4491400</v>
       </c>
       <c r="J44" s="3">
+        <v>4228000</v>
+      </c>
+      <c r="K44" s="3">
         <v>4049100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3770700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3534000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3285400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3557900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3645800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3420000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1631500</v>
+        <v>1355100</v>
       </c>
       <c r="E45" s="3">
-        <v>760300</v>
+        <v>1642400</v>
       </c>
       <c r="F45" s="3">
-        <v>1438700</v>
+        <v>765400</v>
       </c>
       <c r="G45" s="3">
-        <v>1466700</v>
+        <v>1448400</v>
       </c>
       <c r="H45" s="3">
-        <v>852900</v>
+        <v>1476500</v>
       </c>
       <c r="I45" s="3">
-        <v>715100</v>
+        <v>858600</v>
       </c>
       <c r="J45" s="3">
+        <v>719800</v>
+      </c>
+      <c r="K45" s="3">
         <v>735500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>660200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>644100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>594500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1140700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>643600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1344000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13946900</v>
+        <v>14113900</v>
       </c>
       <c r="E46" s="3">
-        <v>13139300</v>
+        <v>14040200</v>
       </c>
       <c r="F46" s="3">
-        <v>13938300</v>
+        <v>13227100</v>
       </c>
       <c r="G46" s="3">
-        <v>13370800</v>
+        <v>14031500</v>
       </c>
       <c r="H46" s="3">
-        <v>11937400</v>
+        <v>13460200</v>
       </c>
       <c r="I46" s="3">
-        <v>11826500</v>
+        <v>12017200</v>
       </c>
       <c r="J46" s="3">
+        <v>11905600</v>
+      </c>
+      <c r="K46" s="3">
         <v>11108200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10772600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10837800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9255900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10646800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9821500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14746900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1071500</v>
+        <v>1166500</v>
       </c>
       <c r="E47" s="3">
-        <v>1073700</v>
+        <v>1078700</v>
       </c>
       <c r="F47" s="3">
-        <v>1079100</v>
+        <v>1080800</v>
       </c>
       <c r="G47" s="3">
-        <v>1013400</v>
+        <v>1086300</v>
       </c>
       <c r="H47" s="3">
-        <v>1012300</v>
+        <v>1020100</v>
       </c>
       <c r="I47" s="3">
-        <v>1022000</v>
+        <v>1019100</v>
       </c>
       <c r="J47" s="3">
+        <v>1028800</v>
+      </c>
+      <c r="K47" s="3">
         <v>897100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>828400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>824800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>846800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>707800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>829100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>714500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8850000</v>
+        <v>9098900</v>
       </c>
       <c r="E48" s="3">
-        <v>8833800</v>
+        <v>8909100</v>
       </c>
       <c r="F48" s="3">
-        <v>8557000</v>
+        <v>8894000</v>
       </c>
       <c r="G48" s="3">
-        <v>8155400</v>
+        <v>8614300</v>
       </c>
       <c r="H48" s="3">
-        <v>7864600</v>
+        <v>8209900</v>
       </c>
       <c r="I48" s="3">
-        <v>7772000</v>
+        <v>7917200</v>
       </c>
       <c r="J48" s="3">
+        <v>7823900</v>
+      </c>
+      <c r="K48" s="3">
         <v>7280900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6983900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6688300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6404300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6255400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6777800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5864700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26955900</v>
+        <v>26958300</v>
       </c>
       <c r="E49" s="3">
-        <v>27694600</v>
+        <v>27136100</v>
       </c>
       <c r="F49" s="3">
-        <v>29737500</v>
+        <v>27887400</v>
       </c>
       <c r="G49" s="3">
-        <v>28467900</v>
+        <v>29936300</v>
       </c>
       <c r="H49" s="3">
-        <v>27256300</v>
+        <v>28658200</v>
       </c>
       <c r="I49" s="3">
-        <v>26509000</v>
+        <v>27438600</v>
       </c>
       <c r="J49" s="3">
+        <v>26686200</v>
+      </c>
+      <c r="K49" s="3">
         <v>26166500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>25349700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>24811600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>23550600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>25619500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>28708400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>22951700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1552900</v>
+        <v>1547000</v>
       </c>
       <c r="E52" s="3">
-        <v>1516300</v>
+        <v>1563300</v>
       </c>
       <c r="F52" s="3">
-        <v>1537800</v>
+        <v>1526400</v>
       </c>
       <c r="G52" s="3">
-        <v>1456000</v>
+        <v>1548100</v>
       </c>
       <c r="H52" s="3">
-        <v>1719800</v>
+        <v>1465700</v>
       </c>
       <c r="I52" s="3">
-        <v>1720900</v>
+        <v>1731300</v>
       </c>
       <c r="J52" s="3">
+        <v>1732400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1754300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1712900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1641400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1629800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1639900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1657100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1613500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>52377200</v>
+        <v>52884600</v>
       </c>
       <c r="E54" s="3">
-        <v>52257600</v>
+        <v>52727400</v>
       </c>
       <c r="F54" s="3">
-        <v>54849700</v>
+        <v>52616800</v>
       </c>
       <c r="G54" s="3">
-        <v>52463300</v>
+        <v>55216500</v>
       </c>
       <c r="H54" s="3">
-        <v>49790500</v>
+        <v>52814100</v>
       </c>
       <c r="I54" s="3">
-        <v>48850300</v>
+        <v>50123400</v>
       </c>
       <c r="J54" s="3">
+        <v>49176900</v>
+      </c>
+      <c r="K54" s="3">
         <v>47207000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45647400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44803900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>41687300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>44869500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>47793900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>45891300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2749,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2504900</v>
+        <v>2605100</v>
       </c>
       <c r="E57" s="3">
-        <v>2690100</v>
+        <v>2521600</v>
       </c>
       <c r="F57" s="3">
-        <v>2633000</v>
+        <v>2709200</v>
       </c>
       <c r="G57" s="3">
-        <v>2644900</v>
+        <v>2650600</v>
       </c>
       <c r="H57" s="3">
-        <v>2537200</v>
+        <v>2662500</v>
       </c>
       <c r="I57" s="3">
-        <v>2563000</v>
+        <v>2554100</v>
       </c>
       <c r="J57" s="3">
+        <v>2580200</v>
+      </c>
+      <c r="K57" s="3">
         <v>2296000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2229200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1977300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1763400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1747800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2240700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1893800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1546400</v>
+        <v>1786600</v>
       </c>
       <c r="E58" s="3">
-        <v>1290100</v>
+        <v>1556800</v>
       </c>
       <c r="F58" s="3">
-        <v>1888900</v>
+        <v>2597500</v>
       </c>
       <c r="G58" s="3">
-        <v>2583500</v>
+        <v>1901500</v>
       </c>
       <c r="H58" s="3">
-        <v>2503800</v>
+        <v>2600800</v>
       </c>
       <c r="I58" s="3">
-        <v>2725600</v>
+        <v>2520500</v>
       </c>
       <c r="J58" s="3">
+        <v>2743900</v>
+      </c>
+      <c r="K58" s="3">
         <v>2983000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3468100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3416600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2350900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3822600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4963600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4287300</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6239600</v>
+        <v>5198300</v>
       </c>
       <c r="E59" s="3">
-        <v>6264300</v>
+        <v>6281300</v>
       </c>
       <c r="F59" s="3">
-        <v>5613900</v>
+        <v>6305100</v>
       </c>
       <c r="G59" s="3">
-        <v>5237000</v>
+        <v>5651400</v>
       </c>
       <c r="H59" s="3">
-        <v>5950900</v>
+        <v>5272000</v>
       </c>
       <c r="I59" s="3">
-        <v>5945600</v>
+        <v>5990700</v>
       </c>
       <c r="J59" s="3">
+        <v>5985300</v>
+      </c>
+      <c r="K59" s="3">
         <v>5267100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4692200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5479700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5092700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4506600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5714200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4351600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10290900</v>
+        <v>9589900</v>
       </c>
       <c r="E60" s="3">
-        <v>10244500</v>
+        <v>10359700</v>
       </c>
       <c r="F60" s="3">
-        <v>10135800</v>
+        <v>10314100</v>
       </c>
       <c r="G60" s="3">
-        <v>10465300</v>
+        <v>10203500</v>
       </c>
       <c r="H60" s="3">
-        <v>10991900</v>
+        <v>10535300</v>
       </c>
       <c r="I60" s="3">
-        <v>11234200</v>
+        <v>11065400</v>
       </c>
       <c r="J60" s="3">
+        <v>11309300</v>
+      </c>
+      <c r="K60" s="3">
         <v>10546100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10389600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10873600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9207000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10077000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12918600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10532700</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9863300</v>
+        <v>10293500</v>
       </c>
       <c r="E61" s="3">
-        <v>9907500</v>
+        <v>9929300</v>
       </c>
       <c r="F61" s="3">
-        <v>9978600</v>
+        <v>9973700</v>
       </c>
       <c r="G61" s="3">
-        <v>10106700</v>
+        <v>10045300</v>
       </c>
       <c r="H61" s="3">
-        <v>8923200</v>
+        <v>10174300</v>
       </c>
       <c r="I61" s="3">
-        <v>8906000</v>
+        <v>8982900</v>
       </c>
       <c r="J61" s="3">
+        <v>8965500</v>
+      </c>
+      <c r="K61" s="3">
         <v>8825200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9226800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9188200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9759600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10355100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9429800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9397100</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3975900</v>
+        <v>3977600</v>
       </c>
       <c r="E62" s="3">
-        <v>4100800</v>
+        <v>4002500</v>
       </c>
       <c r="F62" s="3">
-        <v>4219300</v>
+        <v>4138000</v>
       </c>
       <c r="G62" s="3">
-        <v>3860700</v>
+        <v>4247500</v>
       </c>
       <c r="H62" s="3">
-        <v>5117400</v>
+        <v>3886500</v>
       </c>
       <c r="I62" s="3">
-        <v>5647300</v>
+        <v>5151600</v>
       </c>
       <c r="J62" s="3">
+        <v>5685000</v>
+      </c>
+      <c r="K62" s="3">
         <v>5566500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5547100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5364300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5748000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5760300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5902900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6126600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24217300</v>
+        <v>23938000</v>
       </c>
       <c r="E66" s="3">
-        <v>24336900</v>
+        <v>24379200</v>
       </c>
       <c r="F66" s="3">
-        <v>24416600</v>
+        <v>24509300</v>
       </c>
       <c r="G66" s="3">
-        <v>24512400</v>
+        <v>24579800</v>
       </c>
       <c r="H66" s="3">
-        <v>25109000</v>
+        <v>24676300</v>
       </c>
       <c r="I66" s="3">
-        <v>25871400</v>
+        <v>25276900</v>
       </c>
       <c r="J66" s="3">
+        <v>26044400</v>
+      </c>
+      <c r="K66" s="3">
         <v>25015300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25235400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>25494500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>24785400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>26262000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>28303700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26082600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3174,43 +3342,46 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>430400</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>430400</v>
+      </c>
+      <c r="K70" s="3">
         <v>427500</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>427500</v>
-      </c>
-      <c r="J70" s="3">
-        <v>427500</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>420000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>405300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>396000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>412000</v>
-      </c>
-      <c r="O70" s="3">
-        <v>433100</v>
       </c>
       <c r="P70" s="3">
         <v>433100</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>433100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23444100</v>
+        <v>24198200</v>
       </c>
       <c r="E72" s="3">
-        <v>20314600</v>
+        <v>23600900</v>
       </c>
       <c r="F72" s="3">
-        <v>25717400</v>
+        <v>43811700</v>
       </c>
       <c r="G72" s="3">
-        <v>23235200</v>
+        <v>25889400</v>
       </c>
       <c r="H72" s="3">
-        <v>19965700</v>
+        <v>23390500</v>
       </c>
       <c r="I72" s="3">
-        <v>17955200</v>
+        <v>20099200</v>
       </c>
       <c r="J72" s="3">
+        <v>18075200</v>
+      </c>
+      <c r="K72" s="3">
         <v>17829200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16715300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15557000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14519200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15095200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14439300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14583300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28159900</v>
+        <v>28946600</v>
       </c>
       <c r="E76" s="3">
-        <v>27493300</v>
+        <v>28348100</v>
       </c>
       <c r="F76" s="3">
-        <v>30433200</v>
+        <v>27677100</v>
       </c>
       <c r="G76" s="3">
-        <v>27950900</v>
+        <v>30636700</v>
       </c>
       <c r="H76" s="3">
-        <v>24681500</v>
+        <v>28137800</v>
       </c>
       <c r="I76" s="3">
-        <v>22551400</v>
+        <v>24846500</v>
       </c>
       <c r="J76" s="3">
+        <v>22702100</v>
+      </c>
+      <c r="K76" s="3">
         <v>21764100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19992000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18904200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16506000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18195400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19057100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19375700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>857200</v>
+        <v>763200</v>
       </c>
       <c r="E81" s="3">
-        <v>705400</v>
+        <v>862900</v>
       </c>
       <c r="F81" s="3">
-        <v>994000</v>
+        <v>710100</v>
       </c>
       <c r="G81" s="3">
-        <v>933700</v>
+        <v>1000600</v>
       </c>
       <c r="H81" s="3">
-        <v>947700</v>
+        <v>939900</v>
       </c>
       <c r="I81" s="3">
-        <v>863700</v>
+        <v>954000</v>
       </c>
       <c r="J81" s="3">
+        <v>869400</v>
+      </c>
+      <c r="K81" s="3">
         <v>819500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>788200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>762500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>434900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>835500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>316400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,40 +3826,41 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>491100</v>
+        <v>522500</v>
       </c>
       <c r="E83" s="3">
-        <v>644000</v>
+        <v>494300</v>
       </c>
       <c r="F83" s="3">
-        <v>506100</v>
+        <v>648300</v>
       </c>
       <c r="G83" s="3">
-        <v>572900</v>
+        <v>509500</v>
       </c>
       <c r="H83" s="3">
-        <v>463100</v>
+        <v>576700</v>
       </c>
       <c r="I83" s="3">
-        <v>511500</v>
+        <v>466200</v>
       </c>
       <c r="J83" s="3">
+        <v>514900</v>
+      </c>
+      <c r="K83" s="3">
         <v>478100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>443300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>432800</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>16</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,40 +4106,43 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>918600</v>
+        <v>674300</v>
       </c>
       <c r="E89" s="3">
-        <v>1093100</v>
+        <v>924700</v>
       </c>
       <c r="F89" s="3">
-        <v>1671300</v>
+        <v>1100400</v>
       </c>
       <c r="G89" s="3">
-        <v>917500</v>
+        <v>1682500</v>
       </c>
       <c r="H89" s="3">
-        <v>904600</v>
+        <v>923700</v>
       </c>
       <c r="I89" s="3">
-        <v>1125400</v>
+        <v>910600</v>
       </c>
       <c r="J89" s="3">
+        <v>1132900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1579800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>939500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1241300</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>16</v>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,40 +4174,41 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-327000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-651000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-532000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-477000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-299000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-498000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-266000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-517000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-268700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-321600</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>16</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,40 +4313,43 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1325700</v>
+        <v>151800</v>
       </c>
       <c r="E94" s="3">
-        <v>-264900</v>
+        <v>-1334500</v>
       </c>
       <c r="F94" s="3">
-        <v>-669800</v>
+        <v>-266700</v>
       </c>
       <c r="G94" s="3">
-        <v>-846400</v>
+        <v>-674300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1172700</v>
+        <v>-852100</v>
       </c>
       <c r="I94" s="3">
-        <v>-379100</v>
+        <v>-1180600</v>
       </c>
       <c r="J94" s="3">
+        <v>-381600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-688100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-255000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-353200</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>16</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,13 +4381,14 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-307900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4163,10 +4397,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-257400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-259100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -4175,11 +4409,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-191500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,40 +4567,43 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>133500</v>
+        <v>-628800</v>
       </c>
       <c r="E100" s="3">
-        <v>-536300</v>
+        <v>134400</v>
       </c>
       <c r="F100" s="3">
-        <v>-978900</v>
+        <v>-539900</v>
       </c>
       <c r="G100" s="3">
-        <v>179800</v>
+        <v>-985400</v>
       </c>
       <c r="H100" s="3">
-        <v>-339200</v>
+        <v>181000</v>
       </c>
       <c r="I100" s="3">
-        <v>-344600</v>
+        <v>-341500</v>
       </c>
       <c r="J100" s="3">
+        <v>-346900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1216900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1121500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6100</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>16</v>
@@ -4368,40 +4614,43 @@
       <c r="P100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17200</v>
+        <v>-5400</v>
       </c>
       <c r="E101" s="3">
-        <v>-23700</v>
+        <v>-17300</v>
       </c>
       <c r="F101" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="G101" s="3">
         <v>4300</v>
       </c>
-      <c r="G101" s="3">
-        <v>7500</v>
-      </c>
       <c r="H101" s="3">
+        <v>7600</v>
+      </c>
+      <c r="I101" s="3">
         <v>4300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7100</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>16</v>
@@ -4412,40 +4661,43 @@
       <c r="P101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-290800</v>
+        <v>191900</v>
       </c>
       <c r="E102" s="3">
-        <v>268100</v>
+        <v>-292700</v>
       </c>
       <c r="F102" s="3">
-        <v>26900</v>
+        <v>269900</v>
       </c>
       <c r="G102" s="3">
-        <v>258500</v>
+        <v>27100</v>
       </c>
       <c r="H102" s="3">
-        <v>-603100</v>
+        <v>260200</v>
       </c>
       <c r="I102" s="3">
-        <v>403800</v>
+        <v>-607100</v>
       </c>
       <c r="J102" s="3">
+        <v>406500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-324100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-438000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>901400</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>16</v>
@@ -4454,6 +4706,9 @@
         <v>16</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MKKGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MKKGY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5747900</v>
+        <v>5612700</v>
       </c>
       <c r="E8" s="3">
-        <v>5738100</v>
+        <v>5752700</v>
       </c>
       <c r="F8" s="3">
-        <v>6136000</v>
+        <v>5742900</v>
       </c>
       <c r="G8" s="3">
-        <v>6294300</v>
+        <v>6141100</v>
       </c>
       <c r="H8" s="3">
-        <v>6036300</v>
+        <v>6299500</v>
       </c>
       <c r="I8" s="3">
-        <v>5635200</v>
+        <v>6041300</v>
       </c>
       <c r="J8" s="3">
+        <v>5639800</v>
+      </c>
+      <c r="K8" s="3">
         <v>5651400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5355400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5152500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4727300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4586000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4615500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4493500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4767300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2318900</v>
+        <v>2345800</v>
       </c>
       <c r="E9" s="3">
-        <v>2138900</v>
+        <v>2320800</v>
       </c>
       <c r="F9" s="3">
-        <v>2476100</v>
+        <v>2140700</v>
       </c>
       <c r="G9" s="3">
-        <v>2327600</v>
+        <v>2478100</v>
       </c>
       <c r="H9" s="3">
-        <v>2286400</v>
+        <v>2329500</v>
       </c>
       <c r="I9" s="3">
-        <v>2154100</v>
+        <v>2288300</v>
       </c>
       <c r="J9" s="3">
+        <v>2155900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2123800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2002000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1918200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1756800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1790300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1843300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1756400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1804400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3429000</v>
+        <v>3266900</v>
       </c>
       <c r="E10" s="3">
-        <v>3599200</v>
+        <v>3431900</v>
       </c>
       <c r="F10" s="3">
-        <v>3659900</v>
+        <v>3602200</v>
       </c>
       <c r="G10" s="3">
-        <v>3966700</v>
+        <v>3663000</v>
       </c>
       <c r="H10" s="3">
-        <v>3749900</v>
+        <v>3970000</v>
       </c>
       <c r="I10" s="3">
-        <v>3481000</v>
+        <v>3753000</v>
       </c>
       <c r="J10" s="3">
+        <v>3483900</v>
+      </c>
+      <c r="K10" s="3">
         <v>3527700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3353500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3234300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2970500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2795700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2772200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2737100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2962900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>650500</v>
+        <v>630400</v>
       </c>
       <c r="E12" s="3">
-        <v>647200</v>
+        <v>651000</v>
       </c>
       <c r="F12" s="3">
-        <v>752400</v>
+        <v>647700</v>
       </c>
       <c r="G12" s="3">
-        <v>696000</v>
+        <v>753000</v>
       </c>
       <c r="H12" s="3">
-        <v>650500</v>
+        <v>696600</v>
       </c>
       <c r="I12" s="3">
-        <v>635300</v>
+        <v>651000</v>
       </c>
       <c r="J12" s="3">
+        <v>635800</v>
+      </c>
+      <c r="K12" s="3">
         <v>639600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>710800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>618900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>585900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>656300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>551100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>567300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>631600</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,55 +1006,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>10800</v>
+        <v>30400</v>
       </c>
       <c r="E14" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F14" s="3">
         <v>2200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-6500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-6500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>6100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4697400</v>
+        <v>4546200</v>
       </c>
       <c r="E17" s="3">
-        <v>4616100</v>
+        <v>4701300</v>
       </c>
       <c r="F17" s="3">
-        <v>5172200</v>
+        <v>4619900</v>
       </c>
       <c r="G17" s="3">
-        <v>4956500</v>
+        <v>5176500</v>
       </c>
       <c r="H17" s="3">
-        <v>4760300</v>
+        <v>4960600</v>
       </c>
       <c r="I17" s="3">
-        <v>4363500</v>
+        <v>4764200</v>
       </c>
       <c r="J17" s="3">
+        <v>4367100</v>
+      </c>
+      <c r="K17" s="3">
         <v>4525000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4227900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4042600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3662600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3976600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3404300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3957800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3986200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1050500</v>
+        <v>1066600</v>
       </c>
       <c r="E18" s="3">
-        <v>1122000</v>
+        <v>1051400</v>
       </c>
       <c r="F18" s="3">
-        <v>963800</v>
+        <v>1123000</v>
       </c>
       <c r="G18" s="3">
-        <v>1337800</v>
+        <v>964600</v>
       </c>
       <c r="H18" s="3">
-        <v>1276000</v>
+        <v>1338900</v>
       </c>
       <c r="I18" s="3">
-        <v>1271600</v>
+        <v>1277000</v>
       </c>
       <c r="J18" s="3">
+        <v>1272700</v>
+      </c>
+      <c r="K18" s="3">
         <v>1126400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1127500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1109800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1064700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>609400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1211200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>535600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>781100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,90 +1245,94 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-81300</v>
+        <v>-49900</v>
       </c>
       <c r="E20" s="3">
-        <v>-24900</v>
+        <v>-81400</v>
       </c>
       <c r="F20" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-54200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-51000</v>
       </c>
-      <c r="H20" s="3">
-        <v>-59600</v>
-      </c>
       <c r="I20" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="J20" s="3">
         <v>-36900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-51000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-58200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-99500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-60200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-51900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-105900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-111300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-108000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1491700</v>
+        <v>1488600</v>
       </c>
       <c r="E21" s="3">
-        <v>1591500</v>
+        <v>1493000</v>
       </c>
       <c r="F21" s="3">
-        <v>1557900</v>
+        <v>1592800</v>
       </c>
       <c r="G21" s="3">
-        <v>1796400</v>
+        <v>1559100</v>
       </c>
       <c r="H21" s="3">
-        <v>1793100</v>
+        <v>1797800</v>
       </c>
       <c r="I21" s="3">
-        <v>1701000</v>
+        <v>1794600</v>
       </c>
       <c r="J21" s="3">
+        <v>1702400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1590400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1547500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1453700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1437300</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>16</v>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>969200</v>
+        <v>1016600</v>
       </c>
       <c r="E23" s="3">
-        <v>1097100</v>
+        <v>970000</v>
       </c>
       <c r="F23" s="3">
-        <v>909600</v>
+        <v>1098000</v>
       </c>
       <c r="G23" s="3">
-        <v>1286800</v>
+        <v>910300</v>
       </c>
       <c r="H23" s="3">
-        <v>1216400</v>
+        <v>1287900</v>
       </c>
       <c r="I23" s="3">
-        <v>1234800</v>
+        <v>1217400</v>
       </c>
       <c r="J23" s="3">
+        <v>1235800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1075400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1069400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1010400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1004500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>557500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1105400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>424400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>673100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>203800</v>
+        <v>213700</v>
       </c>
       <c r="E24" s="3">
-        <v>230900</v>
+        <v>204000</v>
       </c>
       <c r="F24" s="3">
-        <v>195100</v>
+        <v>231100</v>
       </c>
       <c r="G24" s="3">
-        <v>283000</v>
+        <v>195300</v>
       </c>
       <c r="H24" s="3">
-        <v>273200</v>
+        <v>283200</v>
       </c>
       <c r="I24" s="3">
-        <v>276400</v>
+        <v>273400</v>
       </c>
       <c r="J24" s="3">
+        <v>276700</v>
+      </c>
+      <c r="K24" s="3">
         <v>201600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>246600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>220100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>240900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>118700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>267800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>109100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>173500</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>765400</v>
+        <v>802900</v>
       </c>
       <c r="E26" s="3">
-        <v>866200</v>
+        <v>766000</v>
       </c>
       <c r="F26" s="3">
-        <v>714400</v>
+        <v>866900</v>
       </c>
       <c r="G26" s="3">
-        <v>1003900</v>
+        <v>715000</v>
       </c>
       <c r="H26" s="3">
-        <v>943200</v>
+        <v>1004700</v>
       </c>
       <c r="I26" s="3">
-        <v>958300</v>
+        <v>944000</v>
       </c>
       <c r="J26" s="3">
+        <v>959100</v>
+      </c>
+      <c r="K26" s="3">
         <v>873800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>822800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>790300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>763600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>438900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>837600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>315300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>499600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>763200</v>
+        <v>801800</v>
       </c>
       <c r="E27" s="3">
-        <v>862900</v>
+        <v>763800</v>
       </c>
       <c r="F27" s="3">
-        <v>710100</v>
+        <v>863700</v>
       </c>
       <c r="G27" s="3">
-        <v>1000600</v>
+        <v>710700</v>
       </c>
       <c r="H27" s="3">
-        <v>939900</v>
+        <v>1001500</v>
       </c>
       <c r="I27" s="3">
-        <v>954000</v>
+        <v>940700</v>
       </c>
       <c r="J27" s="3">
+        <v>954800</v>
+      </c>
+      <c r="K27" s="3">
         <v>869400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>819500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>788200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>762500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>434900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>835500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>316400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1664,14 +1725,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>16</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1679,11 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>81300</v>
+        <v>49900</v>
       </c>
       <c r="E32" s="3">
-        <v>24900</v>
+        <v>81400</v>
       </c>
       <c r="F32" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G32" s="3">
         <v>54200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>51000</v>
       </c>
-      <c r="H32" s="3">
-        <v>59600</v>
-      </c>
       <c r="I32" s="3">
+        <v>59700</v>
+      </c>
+      <c r="J32" s="3">
         <v>36900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>51000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>58200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>99500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>60200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>51900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>105900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>111300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>108000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>763200</v>
+        <v>801800</v>
       </c>
       <c r="E33" s="3">
-        <v>862900</v>
+        <v>763800</v>
       </c>
       <c r="F33" s="3">
-        <v>710100</v>
+        <v>863700</v>
       </c>
       <c r="G33" s="3">
-        <v>1000600</v>
+        <v>710700</v>
       </c>
       <c r="H33" s="3">
-        <v>939900</v>
+        <v>1001500</v>
       </c>
       <c r="I33" s="3">
-        <v>954000</v>
+        <v>940700</v>
       </c>
       <c r="J33" s="3">
+        <v>954800</v>
+      </c>
+      <c r="K33" s="3">
         <v>869400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>819500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>788200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>762500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>434900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>835500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>316400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>763200</v>
+        <v>801800</v>
       </c>
       <c r="E35" s="3">
-        <v>862900</v>
+        <v>763800</v>
       </c>
       <c r="F35" s="3">
-        <v>710100</v>
+        <v>863700</v>
       </c>
       <c r="G35" s="3">
-        <v>1000600</v>
+        <v>710700</v>
       </c>
       <c r="H35" s="3">
-        <v>939900</v>
+        <v>1001500</v>
       </c>
       <c r="I35" s="3">
-        <v>954000</v>
+        <v>940700</v>
       </c>
       <c r="J35" s="3">
+        <v>954800</v>
+      </c>
+      <c r="K35" s="3">
         <v>869400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>819500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>788200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>762500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>434900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>835500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>316400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,431 +2140,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1909100</v>
+        <v>2566000</v>
       </c>
       <c r="E41" s="3">
-        <v>1717200</v>
+        <v>1910700</v>
       </c>
       <c r="F41" s="3">
-        <v>2009900</v>
+        <v>1718600</v>
       </c>
       <c r="G41" s="3">
-        <v>1738900</v>
+        <v>2011600</v>
       </c>
       <c r="H41" s="3">
-        <v>1712900</v>
+        <v>1740300</v>
       </c>
       <c r="I41" s="3">
-        <v>1451600</v>
+        <v>1714300</v>
       </c>
       <c r="J41" s="3">
+        <v>1452800</v>
+      </c>
+      <c r="K41" s="3">
         <v>2058700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1640100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1930900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2284600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1351500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1606700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>852000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5575600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>180000</v>
+        <v>236500</v>
       </c>
       <c r="E42" s="3">
-        <v>148500</v>
+        <v>180100</v>
       </c>
       <c r="F42" s="3">
-        <v>348000</v>
+        <v>148600</v>
       </c>
       <c r="G42" s="3">
-        <v>376200</v>
+        <v>348300</v>
       </c>
       <c r="H42" s="3">
-        <v>144200</v>
+        <v>376500</v>
       </c>
       <c r="I42" s="3">
-        <v>114900</v>
+        <v>144300</v>
       </c>
       <c r="J42" s="3">
+        <v>115000</v>
+      </c>
+      <c r="K42" s="3">
         <v>188600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>152900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>47600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>61200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>124700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>88200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>62200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5253500</v>
+        <v>5285000</v>
       </c>
       <c r="E43" s="3">
-        <v>5230800</v>
+        <v>5257900</v>
       </c>
       <c r="F43" s="3">
-        <v>5082300</v>
+        <v>5235100</v>
       </c>
       <c r="G43" s="3">
-        <v>5199300</v>
+        <v>5086500</v>
       </c>
       <c r="H43" s="3">
-        <v>5276300</v>
+        <v>5203700</v>
       </c>
       <c r="I43" s="3">
-        <v>5100700</v>
+        <v>5280700</v>
       </c>
       <c r="J43" s="3">
+        <v>5104900</v>
+      </c>
+      <c r="K43" s="3">
         <v>4710400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4530500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4363200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4313900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3899800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4253300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4617800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4107300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5416200</v>
+        <v>5393500</v>
       </c>
       <c r="E44" s="3">
-        <v>5301200</v>
+        <v>5420700</v>
       </c>
       <c r="F44" s="3">
-        <v>5021600</v>
+        <v>5305700</v>
       </c>
       <c r="G44" s="3">
-        <v>5268700</v>
+        <v>5025700</v>
       </c>
       <c r="H44" s="3">
-        <v>4850300</v>
+        <v>5273100</v>
       </c>
       <c r="I44" s="3">
-        <v>4491400</v>
+        <v>4854300</v>
       </c>
       <c r="J44" s="3">
+        <v>4495200</v>
+      </c>
+      <c r="K44" s="3">
         <v>4228000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4049100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3770700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3534000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3285400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3557900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3645800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3420000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1355100</v>
+        <v>1238000</v>
       </c>
       <c r="E45" s="3">
-        <v>1642400</v>
+        <v>1356300</v>
       </c>
       <c r="F45" s="3">
-        <v>765400</v>
+        <v>1643800</v>
       </c>
       <c r="G45" s="3">
-        <v>1448400</v>
+        <v>766000</v>
       </c>
       <c r="H45" s="3">
-        <v>1476500</v>
+        <v>1449600</v>
       </c>
       <c r="I45" s="3">
-        <v>858600</v>
+        <v>1477800</v>
       </c>
       <c r="J45" s="3">
+        <v>859300</v>
+      </c>
+      <c r="K45" s="3">
         <v>719800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>735500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>660200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>644100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>594500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1140700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>643600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1344000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14113900</v>
+        <v>14719100</v>
       </c>
       <c r="E46" s="3">
-        <v>14040200</v>
+        <v>14125600</v>
       </c>
       <c r="F46" s="3">
-        <v>13227100</v>
+        <v>14051800</v>
       </c>
       <c r="G46" s="3">
-        <v>14031500</v>
+        <v>13238100</v>
       </c>
       <c r="H46" s="3">
-        <v>13460200</v>
+        <v>14043200</v>
       </c>
       <c r="I46" s="3">
-        <v>12017200</v>
+        <v>13471400</v>
       </c>
       <c r="J46" s="3">
+        <v>12027200</v>
+      </c>
+      <c r="K46" s="3">
         <v>11905600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11108200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10772600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10837800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9255900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10646800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9821500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14746900</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1166500</v>
+        <v>1113200</v>
       </c>
       <c r="E47" s="3">
-        <v>1078700</v>
+        <v>1167500</v>
       </c>
       <c r="F47" s="3">
-        <v>1080800</v>
+        <v>1079600</v>
       </c>
       <c r="G47" s="3">
-        <v>1086300</v>
+        <v>1081700</v>
       </c>
       <c r="H47" s="3">
-        <v>1020100</v>
+        <v>1087200</v>
       </c>
       <c r="I47" s="3">
-        <v>1019100</v>
+        <v>1021000</v>
       </c>
       <c r="J47" s="3">
+        <v>1019900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1028800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>897100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>828400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>824800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>846800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>707800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>829100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>714500</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9098900</v>
+        <v>9460100</v>
       </c>
       <c r="E48" s="3">
-        <v>8909100</v>
+        <v>9106400</v>
       </c>
       <c r="F48" s="3">
-        <v>8894000</v>
+        <v>8916500</v>
       </c>
       <c r="G48" s="3">
-        <v>8614300</v>
+        <v>8901300</v>
       </c>
       <c r="H48" s="3">
-        <v>8209900</v>
+        <v>8621400</v>
       </c>
       <c r="I48" s="3">
-        <v>7917200</v>
+        <v>8216700</v>
       </c>
       <c r="J48" s="3">
+        <v>7923800</v>
+      </c>
+      <c r="K48" s="3">
         <v>7823900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7280900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6983900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6688300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6404300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6255400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6777800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5864700</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26958300</v>
+        <v>27322500</v>
       </c>
       <c r="E49" s="3">
-        <v>27136100</v>
+        <v>26980700</v>
       </c>
       <c r="F49" s="3">
-        <v>27887400</v>
+        <v>27158600</v>
       </c>
       <c r="G49" s="3">
-        <v>29936300</v>
+        <v>27910500</v>
       </c>
       <c r="H49" s="3">
-        <v>28658200</v>
+        <v>29961200</v>
       </c>
       <c r="I49" s="3">
-        <v>27438600</v>
+        <v>28682000</v>
       </c>
       <c r="J49" s="3">
+        <v>27461400</v>
+      </c>
+      <c r="K49" s="3">
         <v>26686200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>26166500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>25349700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>24811600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>23550600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>25619500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>28708400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>22951700</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1547000</v>
+        <v>1533100</v>
       </c>
       <c r="E52" s="3">
-        <v>1563300</v>
+        <v>1548300</v>
       </c>
       <c r="F52" s="3">
-        <v>1526400</v>
+        <v>1564600</v>
       </c>
       <c r="G52" s="3">
-        <v>1548100</v>
+        <v>1527700</v>
       </c>
       <c r="H52" s="3">
-        <v>1465700</v>
+        <v>1549400</v>
       </c>
       <c r="I52" s="3">
-        <v>1731300</v>
+        <v>1466900</v>
       </c>
       <c r="J52" s="3">
+        <v>1732700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1732400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1754300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1712900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1641400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1629800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1639900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1657100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1613500</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>52884600</v>
+        <v>54148000</v>
       </c>
       <c r="E54" s="3">
-        <v>52727400</v>
+        <v>52928500</v>
       </c>
       <c r="F54" s="3">
-        <v>52616800</v>
+        <v>52771100</v>
       </c>
       <c r="G54" s="3">
-        <v>55216500</v>
+        <v>52660500</v>
       </c>
       <c r="H54" s="3">
-        <v>52814100</v>
+        <v>55262300</v>
       </c>
       <c r="I54" s="3">
-        <v>50123400</v>
+        <v>52857900</v>
       </c>
       <c r="J54" s="3">
+        <v>50165000</v>
+      </c>
+      <c r="K54" s="3">
         <v>49176900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>47207000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45647400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>44803900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>41687300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>44869500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>47793900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>45891300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2605100</v>
+        <v>2434700</v>
       </c>
       <c r="E57" s="3">
-        <v>2521600</v>
+        <v>2607300</v>
       </c>
       <c r="F57" s="3">
-        <v>2709200</v>
+        <v>2523700</v>
       </c>
       <c r="G57" s="3">
-        <v>2650600</v>
+        <v>2711400</v>
       </c>
       <c r="H57" s="3">
-        <v>2662500</v>
+        <v>2652800</v>
       </c>
       <c r="I57" s="3">
-        <v>2554100</v>
+        <v>2664800</v>
       </c>
       <c r="J57" s="3">
+        <v>2556300</v>
+      </c>
+      <c r="K57" s="3">
         <v>2580200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2296000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2229200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1977300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1763400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1747800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2240700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1893800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1786600</v>
+        <v>1521200</v>
       </c>
       <c r="E58" s="3">
-        <v>1556800</v>
+        <v>1788100</v>
       </c>
       <c r="F58" s="3">
-        <v>2597500</v>
+        <v>1558100</v>
       </c>
       <c r="G58" s="3">
-        <v>1901500</v>
+        <v>2599700</v>
       </c>
       <c r="H58" s="3">
-        <v>2600800</v>
+        <v>1903100</v>
       </c>
       <c r="I58" s="3">
-        <v>2520500</v>
+        <v>2602900</v>
       </c>
       <c r="J58" s="3">
+        <v>2522600</v>
+      </c>
+      <c r="K58" s="3">
         <v>2743900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2983000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3468100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3416600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2350900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3822600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4963600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4287300</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5198300</v>
+        <v>5467300</v>
       </c>
       <c r="E59" s="3">
-        <v>6281300</v>
+        <v>5202600</v>
       </c>
       <c r="F59" s="3">
-        <v>6305100</v>
+        <v>6286500</v>
       </c>
       <c r="G59" s="3">
-        <v>5651400</v>
+        <v>6310400</v>
       </c>
       <c r="H59" s="3">
-        <v>5272000</v>
+        <v>5656100</v>
       </c>
       <c r="I59" s="3">
-        <v>5990700</v>
+        <v>5276400</v>
       </c>
       <c r="J59" s="3">
+        <v>5995700</v>
+      </c>
+      <c r="K59" s="3">
         <v>5985300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5267100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4692200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5479700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5092700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4506600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5714200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4351600</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9589900</v>
+        <v>9423200</v>
       </c>
       <c r="E60" s="3">
-        <v>10359700</v>
+        <v>9597900</v>
       </c>
       <c r="F60" s="3">
-        <v>10314100</v>
+        <v>10368300</v>
       </c>
       <c r="G60" s="3">
-        <v>10203500</v>
+        <v>10322700</v>
       </c>
       <c r="H60" s="3">
-        <v>10535300</v>
+        <v>10212000</v>
       </c>
       <c r="I60" s="3">
-        <v>11065400</v>
+        <v>10544000</v>
       </c>
       <c r="J60" s="3">
+        <v>11074600</v>
+      </c>
+      <c r="K60" s="3">
         <v>11309300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10546100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10389600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10873600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9207000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10077000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12918600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10532700</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10293500</v>
+        <v>10350900</v>
       </c>
       <c r="E61" s="3">
-        <v>9929300</v>
+        <v>10302100</v>
       </c>
       <c r="F61" s="3">
-        <v>9973700</v>
+        <v>9937500</v>
       </c>
       <c r="G61" s="3">
-        <v>10045300</v>
+        <v>9982000</v>
       </c>
       <c r="H61" s="3">
-        <v>10174300</v>
+        <v>10053600</v>
       </c>
       <c r="I61" s="3">
-        <v>8982900</v>
+        <v>10182700</v>
       </c>
       <c r="J61" s="3">
+        <v>8990300</v>
+      </c>
+      <c r="K61" s="3">
         <v>8965500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8825200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9226800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9188200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9759600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10355100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9429800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9397100</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3977600</v>
+        <v>3674900</v>
       </c>
       <c r="E62" s="3">
-        <v>4002500</v>
+        <v>3980900</v>
       </c>
       <c r="F62" s="3">
-        <v>4138000</v>
+        <v>4005800</v>
       </c>
       <c r="G62" s="3">
-        <v>4247500</v>
+        <v>4141400</v>
       </c>
       <c r="H62" s="3">
-        <v>3886500</v>
+        <v>4251000</v>
       </c>
       <c r="I62" s="3">
-        <v>5151600</v>
+        <v>3889700</v>
       </c>
       <c r="J62" s="3">
+        <v>5155900</v>
+      </c>
+      <c r="K62" s="3">
         <v>5685000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5566500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5547100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5364300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5748000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5760300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5902900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6126600</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23938000</v>
+        <v>23528200</v>
       </c>
       <c r="E66" s="3">
-        <v>24379200</v>
+        <v>23957900</v>
       </c>
       <c r="F66" s="3">
-        <v>24509300</v>
+        <v>24399500</v>
       </c>
       <c r="G66" s="3">
-        <v>24579800</v>
+        <v>24529700</v>
       </c>
       <c r="H66" s="3">
-        <v>24676300</v>
+        <v>24600200</v>
       </c>
       <c r="I66" s="3">
-        <v>25276900</v>
+        <v>24696800</v>
       </c>
       <c r="J66" s="3">
+        <v>25297900</v>
+      </c>
+      <c r="K66" s="3">
         <v>26044400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25015300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>25235400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>25494500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>24785400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>26262000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>28303700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>26082600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3345,43 +3513,46 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>430700</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>430400</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>430400</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>427500</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>420000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>405300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>396000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>412000</v>
-      </c>
-      <c r="P70" s="3">
-        <v>433100</v>
       </c>
       <c r="Q70" s="3">
         <v>433100</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>433100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24198200</v>
+        <v>25869700</v>
       </c>
       <c r="E72" s="3">
-        <v>23600900</v>
+        <v>24218300</v>
       </c>
       <c r="F72" s="3">
-        <v>43811700</v>
+        <v>23620500</v>
       </c>
       <c r="G72" s="3">
-        <v>25889400</v>
+        <v>43848100</v>
       </c>
       <c r="H72" s="3">
-        <v>23390500</v>
+        <v>25910900</v>
       </c>
       <c r="I72" s="3">
-        <v>20099200</v>
+        <v>23410000</v>
       </c>
       <c r="J72" s="3">
+        <v>20115900</v>
+      </c>
+      <c r="K72" s="3">
         <v>18075200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17829200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16715300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15557000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14519200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15095200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14439300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14583300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28946600</v>
+        <v>30619800</v>
       </c>
       <c r="E76" s="3">
-        <v>28348100</v>
+        <v>28970600</v>
       </c>
       <c r="F76" s="3">
-        <v>27677100</v>
+        <v>28371700</v>
       </c>
       <c r="G76" s="3">
-        <v>30636700</v>
+        <v>27700100</v>
       </c>
       <c r="H76" s="3">
-        <v>28137800</v>
+        <v>30662100</v>
       </c>
       <c r="I76" s="3">
-        <v>24846500</v>
+        <v>28161200</v>
       </c>
       <c r="J76" s="3">
+        <v>24867100</v>
+      </c>
+      <c r="K76" s="3">
         <v>22702100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21764100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19992000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18904200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16506000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18195400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19057100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19375700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>763200</v>
+        <v>801800</v>
       </c>
       <c r="E81" s="3">
-        <v>862900</v>
+        <v>763800</v>
       </c>
       <c r="F81" s="3">
-        <v>710100</v>
+        <v>863700</v>
       </c>
       <c r="G81" s="3">
-        <v>1000600</v>
+        <v>710700</v>
       </c>
       <c r="H81" s="3">
-        <v>939900</v>
+        <v>1001500</v>
       </c>
       <c r="I81" s="3">
-        <v>954000</v>
+        <v>940700</v>
       </c>
       <c r="J81" s="3">
+        <v>954800</v>
+      </c>
+      <c r="K81" s="3">
         <v>869400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>819500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>788200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>762500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>434900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>835500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>316400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>497500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,43 +4025,44 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>522500</v>
+        <v>472000</v>
       </c>
       <c r="E83" s="3">
-        <v>494300</v>
+        <v>523000</v>
       </c>
       <c r="F83" s="3">
-        <v>648300</v>
+        <v>494800</v>
       </c>
       <c r="G83" s="3">
-        <v>509500</v>
+        <v>648800</v>
       </c>
       <c r="H83" s="3">
-        <v>576700</v>
+        <v>510000</v>
       </c>
       <c r="I83" s="3">
-        <v>466200</v>
+        <v>577200</v>
       </c>
       <c r="J83" s="3">
+        <v>466600</v>
+      </c>
+      <c r="K83" s="3">
         <v>514900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>478100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>443300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>432800</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>16</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,43 +4323,46 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>674300</v>
+        <v>1362800</v>
       </c>
       <c r="E89" s="3">
-        <v>924700</v>
+        <v>674900</v>
       </c>
       <c r="F89" s="3">
-        <v>1100400</v>
+        <v>925500</v>
       </c>
       <c r="G89" s="3">
-        <v>1682500</v>
+        <v>1101300</v>
       </c>
       <c r="H89" s="3">
-        <v>923700</v>
+        <v>1683900</v>
       </c>
       <c r="I89" s="3">
-        <v>910600</v>
+        <v>924400</v>
       </c>
       <c r="J89" s="3">
+        <v>911400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1132900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1579800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>939500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1241300</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>16</v>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,43 +4395,44 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-462000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-327000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-651000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-532000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-477000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-299000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-498000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-266000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-517000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-268700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-321600</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>16</v>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,43 +4543,46 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>151800</v>
+        <v>-379800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1334500</v>
+        <v>151900</v>
       </c>
       <c r="F94" s="3">
-        <v>-266700</v>
+        <v>-1335600</v>
       </c>
       <c r="G94" s="3">
-        <v>-674300</v>
+        <v>-266900</v>
       </c>
       <c r="H94" s="3">
-        <v>-852100</v>
+        <v>-674900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1180600</v>
+        <v>-852800</v>
       </c>
       <c r="J94" s="3">
+        <v>-1181600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-381600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-688100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-255000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-353200</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>16</v>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,16 +4615,17 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-307900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-308100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -4400,10 +4634,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-259100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-259300</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4412,11 +4646,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-191500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,43 +4813,46 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-628800</v>
+        <v>-327700</v>
       </c>
       <c r="E100" s="3">
-        <v>134400</v>
+        <v>-629300</v>
       </c>
       <c r="F100" s="3">
-        <v>-539900</v>
+        <v>134500</v>
       </c>
       <c r="G100" s="3">
-        <v>-985400</v>
+        <v>-540300</v>
       </c>
       <c r="H100" s="3">
-        <v>181000</v>
+        <v>-986300</v>
       </c>
       <c r="I100" s="3">
-        <v>-341500</v>
+        <v>181200</v>
       </c>
       <c r="J100" s="3">
+        <v>-341800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-346900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1216900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1121500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6100</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>16</v>
@@ -4617,43 +4863,46 @@
       <c r="Q100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5400</v>
       </c>
-      <c r="E101" s="3">
-        <v>-17300</v>
-      </c>
       <c r="F101" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="G101" s="3">
         <v>-23900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>7600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7100</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>16</v>
@@ -4664,43 +4913,46 @@
       <c r="Q101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>191900</v>
+        <v>657500</v>
       </c>
       <c r="E102" s="3">
-        <v>-292700</v>
+        <v>192000</v>
       </c>
       <c r="F102" s="3">
-        <v>269900</v>
+        <v>-293000</v>
       </c>
       <c r="G102" s="3">
+        <v>270200</v>
+      </c>
+      <c r="H102" s="3">
         <v>27100</v>
       </c>
-      <c r="H102" s="3">
-        <v>260200</v>
-      </c>
       <c r="I102" s="3">
-        <v>-607100</v>
+        <v>260400</v>
       </c>
       <c r="J102" s="3">
+        <v>-607600</v>
+      </c>
+      <c r="K102" s="3">
         <v>406500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-324100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-438000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>901400</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>16</v>
@@ -4709,6 +4961,9 @@
         <v>16</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>16</v>
       </c>
     </row>
